--- a/database/seeds/Catalogos/Productos.xlsx
+++ b/database/seeds/Catalogos/Productos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\SistemaDPV\database\seeds\Catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0BA0A3-5C91-465B-866D-310C78921544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11550"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="240">
   <si>
     <t>MARCA</t>
   </si>
@@ -749,7 +750,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -838,14 +839,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1126,58 +1127,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="29.25" thickBot="1">
-      <c r="B1" s="8">
+    <row r="1" spans="2:10" ht="29.4" thickBot="1">
+      <c r="B1" s="7">
         <v>1</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="7">
         <v>2</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="7">
         <v>3</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="7">
         <v>4</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="7">
         <v>5</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="7">
         <v>6</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="7">
         <v>7</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="7">
         <v>8</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="18.75" thickBot="1">
+    <row r="2" spans="2:10" ht="18" thickBot="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1">
+    <row r="3" spans="2:10" ht="15" thickBot="1">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1226,14 +1227,14 @@
         <v>14</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="4">
+      <c r="I3" s="8">
         <v>30.05</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1">
+    <row r="4" spans="2:10" ht="15" thickBot="1">
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1249,18 +1250,18 @@
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="4">
+      <c r="I4" s="8">
         <v>9</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1">
+    <row r="5" spans="2:10" ht="15" thickBot="1">
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1280,14 +1281,14 @@
         <v>26</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="4">
+      <c r="I5" s="8">
         <v>80</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1">
+    <row r="6" spans="2:10" ht="15" thickBot="1">
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1307,14 +1308,14 @@
         <v>30</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="4">
+      <c r="I6" s="8">
         <v>10.5</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15.75" thickBot="1">
+    <row r="7" spans="2:10" ht="15" thickBot="1">
       <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
@@ -1334,14 +1335,14 @@
         <v>33</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="4">
+      <c r="I7" s="8">
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1">
+    <row r="8" spans="2:10" ht="15" thickBot="1">
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
@@ -1361,14 +1362,14 @@
         <v>39</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="4">
+      <c r="I8" s="8">
         <v>160</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1">
+    <row r="9" spans="2:10" ht="15" thickBot="1">
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
@@ -1388,14 +1389,14 @@
         <v>41</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="4">
+      <c r="I9" s="8">
         <v>29</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1">
+    <row r="10" spans="2:10" ht="15" thickBot="1">
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
@@ -1415,14 +1416,14 @@
         <v>45</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="4">
+      <c r="I10" s="8">
         <v>20</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1">
+    <row r="11" spans="2:10" ht="15" thickBot="1">
       <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
@@ -1442,14 +1443,14 @@
         <v>45</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="4">
+      <c r="I11" s="8">
         <v>4</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15.75" thickBot="1">
+    <row r="12" spans="2:10" ht="15" thickBot="1">
       <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
@@ -1469,14 +1470,14 @@
         <v>50</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="4">
+      <c r="I12" s="8">
         <v>7</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1">
+    <row r="13" spans="2:10" ht="15" thickBot="1">
       <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
@@ -1496,14 +1497,14 @@
         <v>54</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="4">
+      <c r="I13" s="8">
         <v>5</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1">
+    <row r="14" spans="2:10" ht="15" thickBot="1">
       <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
@@ -1523,14 +1524,14 @@
         <v>57</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="4">
+      <c r="I14" s="8">
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15.75" thickBot="1">
+    <row r="15" spans="2:10" ht="15" thickBot="1">
       <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
@@ -1550,14 +1551,14 @@
         <v>60</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="4">
+      <c r="I15" s="8">
         <v>9</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1">
+    <row r="16" spans="2:10" ht="15" thickBot="1">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -1577,14 +1578,14 @@
         <v>64</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="4">
+      <c r="I16" s="8">
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1">
+    <row r="17" spans="2:10" ht="15" thickBot="1">
       <c r="B17" s="2" t="s">
         <v>66</v>
       </c>
@@ -1604,14 +1605,14 @@
         <v>67</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="4">
+      <c r="I17" s="8">
         <v>35</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="15.75" thickBot="1">
+    <row r="18" spans="2:10" ht="15" thickBot="1">
       <c r="B18" s="2" t="s">
         <v>69</v>
       </c>
@@ -1631,14 +1632,14 @@
         <v>72</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="4">
+      <c r="I18" s="8">
         <v>18</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1">
+    <row r="19" spans="2:10" ht="15" thickBot="1">
       <c r="B19" s="2" t="s">
         <v>74</v>
       </c>
@@ -1658,14 +1659,14 @@
         <v>76</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="4">
+      <c r="I19" s="8">
         <v>35</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="15.75" thickBot="1">
+    <row r="20" spans="2:10" ht="15" thickBot="1">
       <c r="B20" s="2" t="s">
         <v>74</v>
       </c>
@@ -1685,14 +1686,14 @@
         <v>78</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="4">
+      <c r="I20" s="8">
         <v>65</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="15.75" thickBot="1">
+    <row r="21" spans="2:10" ht="15" thickBot="1">
       <c r="B21" s="2" t="s">
         <v>80</v>
       </c>
@@ -1712,14 +1713,14 @@
         <v>82</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="4">
+      <c r="I21" s="8">
         <v>5</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="15.75" thickBot="1">
+    <row r="22" spans="2:10" ht="15" thickBot="1">
       <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
@@ -1739,14 +1740,14 @@
         <v>85</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="4">
+      <c r="I22" s="8">
         <v>3</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15.75" thickBot="1">
+    <row r="23" spans="2:10" ht="15" thickBot="1">
       <c r="B23" s="2" t="s">
         <v>80</v>
       </c>
@@ -1766,14 +1767,14 @@
         <v>87</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="4">
+      <c r="I23" s="8">
         <v>5</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="15.75" thickBot="1">
+    <row r="24" spans="2:10" ht="15" thickBot="1">
       <c r="B24" s="2" t="s">
         <v>89</v>
       </c>
@@ -1793,14 +1794,14 @@
         <v>90</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="4">
+      <c r="I24" s="8">
         <v>6.5</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="15.75" thickBot="1">
+    <row r="25" spans="2:10" ht="15" thickBot="1">
       <c r="B25" s="2" t="s">
         <v>89</v>
       </c>
@@ -1820,14 +1821,14 @@
         <v>92</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="4">
+      <c r="I25" s="8">
         <v>10</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15.75" thickBot="1">
+    <row r="26" spans="2:10" ht="15" thickBot="1">
       <c r="B26" s="2" t="s">
         <v>89</v>
       </c>
@@ -1847,14 +1848,14 @@
         <v>94</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="4">
+      <c r="I26" s="8">
         <v>10.5</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15.75" thickBot="1">
+    <row r="27" spans="2:10" ht="15" thickBot="1">
       <c r="B27" s="2" t="s">
         <v>96</v>
       </c>
@@ -1874,14 +1875,14 @@
         <v>101</v>
       </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="4">
+      <c r="I27" s="8">
         <v>35</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15.75" thickBot="1">
+    <row r="28" spans="2:10" ht="15" thickBot="1">
       <c r="B28" s="2" t="s">
         <v>96</v>
       </c>
@@ -1901,14 +1902,14 @@
         <v>104</v>
       </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="4">
+      <c r="I28" s="8">
         <v>30</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15.75" thickBot="1">
+    <row r="29" spans="2:10" ht="15" thickBot="1">
       <c r="B29" s="2" t="s">
         <v>106</v>
       </c>
@@ -1928,14 +1929,14 @@
         <v>111</v>
       </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="4">
+      <c r="I29" s="8">
         <v>40</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="15.75" thickBot="1">
+    <row r="30" spans="2:10" ht="15" thickBot="1">
       <c r="B30" s="2" t="s">
         <v>106</v>
       </c>
@@ -1955,14 +1956,14 @@
         <v>113</v>
       </c>
       <c r="H30" s="2"/>
-      <c r="I30" s="4">
+      <c r="I30" s="8">
         <v>40</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="15.75" thickBot="1">
+    <row r="31" spans="2:10" ht="15" thickBot="1">
       <c r="B31" s="2" t="s">
         <v>115</v>
       </c>
@@ -1982,14 +1983,14 @@
         <v>117</v>
       </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="4">
+      <c r="I31" s="8">
         <v>24</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="15.75" thickBot="1">
+    <row r="32" spans="2:10" ht="15" thickBot="1">
       <c r="B32" s="2" t="s">
         <v>119</v>
       </c>
@@ -2011,14 +2012,14 @@
       <c r="H32" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>124</v>
+      <c r="I32" s="8">
+        <v>1</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="15.75" thickBot="1">
+    <row r="33" spans="2:10" ht="15" thickBot="1">
       <c r="B33" s="2" t="s">
         <v>119</v>
       </c>
@@ -2040,14 +2041,14 @@
       <c r="H33" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>124</v>
+      <c r="I33" s="8">
+        <v>2</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="15.75" thickBot="1">
+    <row r="34" spans="2:10" ht="15" thickBot="1">
       <c r="B34" s="2" t="s">
         <v>119</v>
       </c>
@@ -2069,14 +2070,14 @@
       <c r="H34" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>124</v>
+      <c r="I34" s="8">
+        <v>10</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="15.75" thickBot="1">
+    <row r="35" spans="2:10" ht="15" thickBot="1">
       <c r="B35" s="2" t="s">
         <v>119</v>
       </c>
@@ -2098,14 +2099,14 @@
       <c r="H35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>124</v>
+      <c r="I35" s="8">
+        <v>30</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="15.75" thickBot="1">
+    <row r="36" spans="2:10" ht="15" thickBot="1">
       <c r="B36" s="2" t="s">
         <v>119</v>
       </c>
@@ -2127,14 +2128,14 @@
       <c r="H36" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>124</v>
+      <c r="I36" s="8">
+        <v>15</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="15.75" thickBot="1">
+    <row r="37" spans="2:10" ht="15" thickBot="1">
       <c r="B37" s="2" t="s">
         <v>119</v>
       </c>
@@ -2156,14 +2157,14 @@
       <c r="H37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>124</v>
+      <c r="I37" s="8">
+        <v>10</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="15.75" thickBot="1">
+    <row r="38" spans="2:10" ht="15" thickBot="1">
       <c r="B38" s="2" t="s">
         <v>137</v>
       </c>
@@ -2185,14 +2186,14 @@
       <c r="H38" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>124</v>
+      <c r="I38" s="8">
+        <v>10</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="15.75" thickBot="1">
+    <row r="39" spans="2:10" ht="15" thickBot="1">
       <c r="B39" s="2" t="s">
         <v>140</v>
       </c>
@@ -2214,14 +2215,14 @@
       <c r="H39" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>124</v>
+      <c r="I39" s="8">
+        <v>20</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="15.75" thickBot="1">
+    <row r="40" spans="2:10" ht="15" thickBot="1">
       <c r="B40" s="2" t="s">
         <v>119</v>
       </c>
@@ -2243,14 +2244,14 @@
       <c r="H40" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>124</v>
+      <c r="I40" s="8">
+        <v>2</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="15.75" thickBot="1">
+    <row r="41" spans="2:10" ht="15" thickBot="1">
       <c r="B41" s="2" t="s">
         <v>119</v>
       </c>
@@ -2272,14 +2273,14 @@
       <c r="H41" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>124</v>
+      <c r="I41" s="8">
+        <v>1</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="15.75" thickBot="1">
+    <row r="42" spans="2:10" ht="15" thickBot="1">
       <c r="B42" s="2" t="s">
         <v>119</v>
       </c>
@@ -2301,14 +2302,14 @@
       <c r="H42" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>124</v>
+      <c r="I42" s="8">
+        <v>5</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15.75" thickBot="1">
+    <row r="43" spans="2:10" ht="15" thickBot="1">
       <c r="B43" s="2" t="s">
         <v>119</v>
       </c>
@@ -2330,14 +2331,14 @@
       <c r="H43" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>124</v>
+      <c r="I43" s="8">
+        <v>10</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="15.75" thickBot="1">
+    <row r="44" spans="2:10" ht="15" thickBot="1">
       <c r="B44" s="2" t="s">
         <v>119</v>
       </c>
@@ -2359,14 +2360,14 @@
       <c r="H44" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>124</v>
+      <c r="I44" s="8">
+        <v>10</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="15.75" thickBot="1">
+    <row r="45" spans="2:10" ht="15" thickBot="1">
       <c r="B45" s="2" t="s">
         <v>119</v>
       </c>
@@ -2388,14 +2389,14 @@
       <c r="H45" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>124</v>
+      <c r="I45" s="8">
+        <v>8</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="15.75" thickBot="1">
+    <row r="46" spans="2:10" ht="15" thickBot="1">
       <c r="B46" s="2" t="s">
         <v>119</v>
       </c>
@@ -2417,14 +2418,14 @@
       <c r="H46" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>124</v>
+      <c r="I46" s="8">
+        <v>10</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15.75" thickBot="1">
+    <row r="47" spans="2:10" ht="15" thickBot="1">
       <c r="B47" s="2" t="s">
         <v>119</v>
       </c>
@@ -2446,14 +2447,14 @@
       <c r="H47" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>124</v>
+      <c r="I47" s="8">
+        <v>12</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15.75" thickBot="1">
+    <row r="48" spans="2:10" ht="15" thickBot="1">
       <c r="B48" s="2" t="s">
         <v>119</v>
       </c>
@@ -2475,14 +2476,14 @@
       <c r="H48" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>124</v>
+      <c r="I48" s="8">
+        <v>20</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="15.75" thickBot="1">
+    <row r="49" spans="2:10" ht="15" thickBot="1">
       <c r="B49" s="2" t="s">
         <v>119</v>
       </c>
@@ -2504,14 +2505,14 @@
       <c r="H49" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>124</v>
+      <c r="I49" s="8">
+        <v>5</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="15.75" thickBot="1">
+    <row r="50" spans="2:10" ht="15" thickBot="1">
       <c r="B50" s="2" t="s">
         <v>119</v>
       </c>
@@ -2533,14 +2534,14 @@
       <c r="H50" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>124</v>
+      <c r="I50" s="8">
+        <v>5</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="15.75" thickBot="1">
+    <row r="51" spans="2:10" ht="15" thickBot="1">
       <c r="B51" s="2" t="s">
         <v>119</v>
       </c>
@@ -2562,14 +2563,14 @@
       <c r="H51" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J51" s="7" t="s">
+      <c r="I51" s="8">
+        <v>15</v>
+      </c>
+      <c r="J51" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="15.75" thickBot="1">
+    <row r="52" spans="2:10" ht="15" thickBot="1">
       <c r="B52" s="2" t="s">
         <v>119</v>
       </c>
@@ -2591,14 +2592,14 @@
       <c r="H52" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>124</v>
+      <c r="I52" s="8">
+        <v>12</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="15.75" thickBot="1">
+    <row r="53" spans="2:10" ht="15" thickBot="1">
       <c r="B53" s="2" t="s">
         <v>119</v>
       </c>
@@ -2620,14 +2621,14 @@
       <c r="H53" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J53" s="7" t="s">
+      <c r="I53" s="8">
+        <v>20</v>
+      </c>
+      <c r="J53" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="15.75" thickBot="1">
+    <row r="54" spans="2:10" ht="15" thickBot="1">
       <c r="B54" s="2" t="s">
         <v>119</v>
       </c>
@@ -2649,14 +2650,14 @@
       <c r="H54" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>124</v>
+      <c r="I54" s="8">
+        <v>20</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="15.75" thickBot="1">
+    <row r="55" spans="2:10" ht="15" thickBot="1">
       <c r="B55" s="2" t="s">
         <v>119</v>
       </c>
@@ -2678,14 +2679,14 @@
       <c r="H55" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>124</v>
+      <c r="I55" s="8">
+        <v>2</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="2:10" ht="15.75" thickBot="1">
+    <row r="56" spans="2:10" ht="15" thickBot="1">
       <c r="B56" s="2" t="s">
         <v>119</v>
       </c>
@@ -2707,14 +2708,14 @@
       <c r="H56" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>124</v>
+      <c r="I56" s="8">
+        <v>2</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="15.75" thickBot="1">
+    <row r="57" spans="2:10" ht="15" thickBot="1">
       <c r="B57" s="2" t="s">
         <v>119</v>
       </c>
@@ -2736,14 +2737,14 @@
       <c r="H57" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>124</v>
+      <c r="I57" s="8">
+        <v>2</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="2:10" ht="15.75" thickBot="1">
+    <row r="58" spans="2:10" ht="15" thickBot="1">
       <c r="B58" s="2" t="s">
         <v>119</v>
       </c>
@@ -2765,14 +2766,14 @@
       <c r="H58" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>124</v>
+      <c r="I58" s="8">
+        <v>5</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="2:10" ht="15.75" thickBot="1">
+    <row r="59" spans="2:10" ht="15" thickBot="1">
       <c r="B59" s="2" t="s">
         <v>119</v>
       </c>
@@ -2794,14 +2795,14 @@
       <c r="H59" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>124</v>
+      <c r="I59" s="8">
+        <v>5</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="2:10" ht="15.75" thickBot="1">
+    <row r="60" spans="2:10" ht="15" thickBot="1">
       <c r="B60" s="2" t="s">
         <v>119</v>
       </c>
@@ -2823,14 +2824,14 @@
       <c r="H60" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>124</v>
+      <c r="I60" s="8">
+        <v>10</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="2:10" ht="15.75" thickBot="1">
+    <row r="61" spans="2:10" ht="15" thickBot="1">
       <c r="B61" s="2" t="s">
         <v>119</v>
       </c>
@@ -2852,14 +2853,14 @@
       <c r="H61" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>124</v>
+      <c r="I61" s="8">
+        <v>3</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="15.75" thickBot="1">
+    <row r="62" spans="2:10" ht="15" thickBot="1">
       <c r="B62" s="2" t="s">
         <v>119</v>
       </c>
@@ -2881,14 +2882,14 @@
       <c r="H62" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>124</v>
+      <c r="I62" s="8">
+        <v>10</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="2:10" ht="15.75" thickBot="1">
+    <row r="63" spans="2:10" ht="15" thickBot="1">
       <c r="B63" s="2" t="s">
         <v>119</v>
       </c>
@@ -2910,14 +2911,14 @@
       <c r="H63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>124</v>
+      <c r="I63" s="8">
+        <v>6</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="2:10" ht="15.75" thickBot="1">
+    <row r="64" spans="2:10" ht="15" thickBot="1">
       <c r="B64" s="2" t="s">
         <v>119</v>
       </c>
@@ -2939,14 +2940,14 @@
       <c r="H64" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>124</v>
+      <c r="I64" s="8">
+        <v>3</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="2:10" ht="15.75" thickBot="1">
+    <row r="65" spans="2:10" ht="15" thickBot="1">
       <c r="B65" s="2" t="s">
         <v>119</v>
       </c>
@@ -2968,14 +2969,14 @@
       <c r="H65" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>124</v>
+      <c r="I65" s="8">
+        <v>5</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="66" spans="2:10" ht="15.75" thickBot="1">
+    <row r="66" spans="2:10" ht="15" thickBot="1">
       <c r="B66" s="2" t="s">
         <v>119</v>
       </c>
@@ -2997,14 +2998,14 @@
       <c r="H66" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>124</v>
+      <c r="I66" s="8">
+        <v>3</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="2:10" ht="15.75" thickBot="1">
+    <row r="67" spans="2:10" ht="15" thickBot="1">
       <c r="B67" s="2" t="s">
         <v>119</v>
       </c>
@@ -3026,14 +3027,14 @@
       <c r="H67" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>124</v>
+      <c r="I67" s="8">
+        <v>10</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="2:10" ht="15.75" thickBot="1">
+    <row r="68" spans="2:10" ht="15" thickBot="1">
       <c r="B68" s="2" t="s">
         <v>201</v>
       </c>
@@ -3053,14 +3054,14 @@
         <v>204</v>
       </c>
       <c r="H68" s="2"/>
-      <c r="I68" s="4">
+      <c r="I68" s="8">
         <v>25</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="2:10" ht="15.75" thickBot="1">
+    <row r="69" spans="2:10" ht="15" thickBot="1">
       <c r="B69" s="2" t="s">
         <v>206</v>
       </c>
@@ -3080,14 +3081,14 @@
         <v>208</v>
       </c>
       <c r="H69" s="2"/>
-      <c r="I69" s="4">
+      <c r="I69" s="8">
         <v>60</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="2:10" ht="15.75" thickBot="1">
+    <row r="70" spans="2:10" ht="15" thickBot="1">
       <c r="B70" s="2" t="s">
         <v>210</v>
       </c>
@@ -3107,14 +3108,14 @@
         <v>211</v>
       </c>
       <c r="H70" s="2"/>
-      <c r="I70" s="4">
+      <c r="I70" s="8">
         <v>75</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="2:10" ht="15.75" thickBot="1">
+    <row r="71" spans="2:10" ht="15" thickBot="1">
       <c r="B71" s="2" t="s">
         <v>213</v>
       </c>
@@ -3134,14 +3135,14 @@
         <v>215</v>
       </c>
       <c r="H71" s="2"/>
-      <c r="I71" s="4">
+      <c r="I71" s="8">
         <v>20</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="2:10" ht="15.75" thickBot="1">
+    <row r="72" spans="2:10" ht="15" thickBot="1">
       <c r="B72" s="2" t="s">
         <v>217</v>
       </c>
@@ -3161,14 +3162,14 @@
         <v>218</v>
       </c>
       <c r="H72" s="2"/>
-      <c r="I72" s="4">
+      <c r="I72" s="8">
         <v>50</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="2:10" ht="15.75" thickBot="1">
+    <row r="73" spans="2:10" ht="15" thickBot="1">
       <c r="B73" s="2" t="s">
         <v>220</v>
       </c>
@@ -3188,14 +3189,14 @@
         <v>222</v>
       </c>
       <c r="H73" s="2"/>
-      <c r="I73" s="4">
+      <c r="I73" s="8">
         <v>20</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="2:10" ht="15.75" thickBot="1">
+    <row r="74" spans="2:10" ht="15" thickBot="1">
       <c r="B74" s="2" t="s">
         <v>224</v>
       </c>
@@ -3215,14 +3216,14 @@
         <v>226</v>
       </c>
       <c r="H74" s="2"/>
-      <c r="I74" s="4">
+      <c r="I74" s="8">
         <v>10</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="2:10" ht="15.75" thickBot="1">
+    <row r="75" spans="2:10" ht="15" thickBot="1">
       <c r="B75" s="2" t="s">
         <v>228</v>
       </c>
@@ -3242,14 +3243,14 @@
         <v>230</v>
       </c>
       <c r="H75" s="2"/>
-      <c r="I75" s="4">
+      <c r="I75" s="8">
         <v>60</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="2:10" ht="15.75" thickBot="1">
+    <row r="76" spans="2:10" ht="15" thickBot="1">
       <c r="B76" s="2" t="s">
         <v>232</v>
       </c>
@@ -3269,14 +3270,14 @@
         <v>235</v>
       </c>
       <c r="H76" s="2"/>
-      <c r="I76" s="4">
+      <c r="I76" s="8">
         <v>2.5</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="2:10" ht="15.75" thickBot="1">
+    <row r="77" spans="2:10" ht="15" thickBot="1">
       <c r="B77" s="2" t="s">
         <v>237</v>
       </c>
@@ -3296,14 +3297,14 @@
         <v>238</v>
       </c>
       <c r="H77" s="2"/>
-      <c r="I77" s="4">
+      <c r="I77" s="8">
         <v>15</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="78" spans="2:10" ht="15.75" thickBot="1">
+    <row r="78" spans="2:10" ht="15" thickBot="1">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3314,7 +3315,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="2:10" ht="15.75" thickBot="1">
+    <row r="79" spans="2:10" ht="15" thickBot="1">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3325,7 +3326,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="2:10" ht="15.75" thickBot="1">
+    <row r="80" spans="2:10" ht="15" thickBot="1">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3336,7 +3337,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="2:10" ht="15.75" thickBot="1">
+    <row r="81" spans="2:10" ht="15" thickBot="1">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3347,7 +3348,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="2:10" ht="15.75" thickBot="1">
+    <row r="82" spans="2:10" ht="15" thickBot="1">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3358,7 +3359,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="2:10" ht="15.75" thickBot="1">
+    <row r="83" spans="2:10" ht="15" thickBot="1">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3369,7 +3370,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="2:10" ht="15.75" thickBot="1">
+    <row r="84" spans="2:10" ht="15" thickBot="1">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3380,7 +3381,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="2:10" ht="15.75" thickBot="1">
+    <row r="85" spans="2:10" ht="15" thickBot="1">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3391,7 +3392,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="2:10" ht="15.75" thickBot="1">
+    <row r="86" spans="2:10" ht="15" thickBot="1">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3402,7 +3403,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="2:10" ht="15.75" thickBot="1">
+    <row r="87" spans="2:10" ht="15" thickBot="1">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3413,7 +3414,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="2:10" ht="15.75" thickBot="1">
+    <row r="88" spans="2:10" ht="15" thickBot="1">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3424,7 +3425,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="2:10" ht="15.75" thickBot="1">
+    <row r="89" spans="2:10" ht="15" thickBot="1">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3435,7 +3436,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="2:10" ht="15.75" thickBot="1">
+    <row r="90" spans="2:10" ht="15" thickBot="1">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3446,7 +3447,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="2:10" ht="15.75" thickBot="1">
+    <row r="91" spans="2:10" ht="15" thickBot="1">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3457,7 +3458,7 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="2:10" ht="15.75" thickBot="1">
+    <row r="92" spans="2:10" ht="15" thickBot="1">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3468,7 +3469,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="2:10" ht="15.75" thickBot="1">
+    <row r="93" spans="2:10" ht="15" thickBot="1">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3479,7 +3480,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="2:10" ht="15.75" thickBot="1">
+    <row r="94" spans="2:10" ht="15" thickBot="1">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3490,7 +3491,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="2:10" ht="15.75" thickBot="1">
+    <row r="95" spans="2:10" ht="15" thickBot="1">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3501,7 +3502,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="2:10" ht="15.75" thickBot="1">
+    <row r="96" spans="2:10" ht="15" thickBot="1">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -3512,7 +3513,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="2:10" ht="15.75" thickBot="1">
+    <row r="97" spans="2:10" ht="15" thickBot="1">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -3523,7 +3524,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="2:10" ht="15.75" thickBot="1">
+    <row r="98" spans="2:10" ht="15" thickBot="1">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -3534,7 +3535,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="2:10" ht="15.75" thickBot="1">
+    <row r="99" spans="2:10" ht="15" thickBot="1">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -3545,7 +3546,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="2:10" ht="15.75" thickBot="1">
+    <row r="100" spans="2:10" ht="15" thickBot="1">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -3556,7 +3557,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="2:10" ht="15.75" thickBot="1">
+    <row r="101" spans="2:10" ht="15" thickBot="1">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -3567,7 +3568,7 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="2:10" ht="15.75" thickBot="1">
+    <row r="102" spans="2:10" ht="15" thickBot="1">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -3578,7 +3579,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="2:10" ht="15.75" thickBot="1">
+    <row r="103" spans="2:10" ht="15" thickBot="1">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -3589,7 +3590,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="2:10" ht="15.75" thickBot="1">
+    <row r="104" spans="2:10" ht="15" thickBot="1">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -3600,7 +3601,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="2:10" ht="15.75" thickBot="1">
+    <row r="105" spans="2:10" ht="15" thickBot="1">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -3611,7 +3612,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="2:10" ht="15.75" thickBot="1">
+    <row r="106" spans="2:10" ht="15" thickBot="1">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -3622,7 +3623,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="2:10" ht="15.75" thickBot="1">
+    <row r="107" spans="2:10" ht="15" thickBot="1">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -3633,7 +3634,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="2:10" ht="15.75" thickBot="1">
+    <row r="108" spans="2:10" ht="15" thickBot="1">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -3644,7 +3645,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="2:10" ht="15.75" thickBot="1">
+    <row r="109" spans="2:10" ht="15" thickBot="1">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -3655,7 +3656,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="2:10" ht="15.75" thickBot="1">
+    <row r="110" spans="2:10" ht="15" thickBot="1">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -3666,7 +3667,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="2:10" ht="15.75" thickBot="1">
+    <row r="111" spans="2:10" ht="15" thickBot="1">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -3677,7 +3678,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="2:10" ht="15.75" thickBot="1">
+    <row r="112" spans="2:10" ht="15" thickBot="1">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -3688,7 +3689,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="2:10" ht="15.75" thickBot="1">
+    <row r="113" spans="2:10" ht="15" thickBot="1">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -3699,7 +3700,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="2:10" ht="15.75" thickBot="1">
+    <row r="114" spans="2:10" ht="15" thickBot="1">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -3710,7 +3711,7 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="2:10" ht="15.75" thickBot="1">
+    <row r="115" spans="2:10" ht="15" thickBot="1">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -3721,7 +3722,7 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="2:10" ht="15.75" thickBot="1">
+    <row r="116" spans="2:10" ht="15" thickBot="1">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -3732,7 +3733,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="2:10" ht="15.75" thickBot="1">
+    <row r="117" spans="2:10" ht="15" thickBot="1">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -3743,7 +3744,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="2:10" ht="15.75" thickBot="1">
+    <row r="118" spans="2:10" ht="15" thickBot="1">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -3754,7 +3755,7 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="2:10" ht="15.75" thickBot="1">
+    <row r="119" spans="2:10" ht="15" thickBot="1">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -3765,7 +3766,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="2:10" ht="15.75" thickBot="1">
+    <row r="120" spans="2:10" ht="15" thickBot="1">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -3776,7 +3777,7 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="2:10" ht="15.75" thickBot="1">
+    <row r="121" spans="2:10" ht="15" thickBot="1">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -3787,7 +3788,7 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="2:10" ht="15.75" thickBot="1">
+    <row r="122" spans="2:10" ht="15" thickBot="1">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -3798,7 +3799,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="2:10" ht="15.75" thickBot="1">
+    <row r="123" spans="2:10" ht="15" thickBot="1">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -3809,7 +3810,7 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="2:10" ht="15.75" thickBot="1">
+    <row r="124" spans="2:10" ht="15" thickBot="1">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -3820,7 +3821,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="2:10" ht="15.75" thickBot="1">
+    <row r="125" spans="2:10" ht="15" thickBot="1">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -3831,7 +3832,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="2:10" ht="15.75" thickBot="1">
+    <row r="126" spans="2:10" ht="15" thickBot="1">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -3842,7 +3843,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="2:10" ht="15.75" thickBot="1">
+    <row r="127" spans="2:10" ht="15" thickBot="1">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -3853,7 +3854,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="2:10" ht="15.75" thickBot="1">
+    <row r="128" spans="2:10" ht="15" thickBot="1">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -3864,7 +3865,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="2:10" ht="15.75" thickBot="1">
+    <row r="129" spans="2:10" ht="15" thickBot="1">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -3875,7 +3876,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="2:10" ht="15.75" thickBot="1">
+    <row r="130" spans="2:10" ht="15" thickBot="1">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -3886,7 +3887,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="2:10" ht="15.75" thickBot="1">
+    <row r="131" spans="2:10" ht="15" thickBot="1">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -3897,7 +3898,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="2:10" ht="15.75" thickBot="1">
+    <row r="132" spans="2:10" ht="15" thickBot="1">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -3908,7 +3909,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="2:10" ht="15.75" thickBot="1">
+    <row r="133" spans="2:10" ht="15" thickBot="1">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -3919,7 +3920,7 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="2:10" ht="15.75" thickBot="1">
+    <row r="134" spans="2:10" ht="15" thickBot="1">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -3930,7 +3931,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="2:10" ht="15.75" thickBot="1">
+    <row r="135" spans="2:10" ht="15" thickBot="1">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -3941,7 +3942,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="2:10" ht="15.75" thickBot="1">
+    <row r="136" spans="2:10" ht="15" thickBot="1">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -3952,7 +3953,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="2:10" ht="15.75" thickBot="1">
+    <row r="137" spans="2:10" ht="15" thickBot="1">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -3963,7 +3964,7 @@
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="2:10" ht="15.75" thickBot="1">
+    <row r="138" spans="2:10" ht="15" thickBot="1">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -3974,7 +3975,7 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="2:10" ht="15.75" thickBot="1">
+    <row r="139" spans="2:10" ht="15" thickBot="1">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -3985,7 +3986,7 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="2:10" ht="15.75" thickBot="1">
+    <row r="140" spans="2:10" ht="15" thickBot="1">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -3996,7 +3997,7 @@
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="2:10" ht="15.75" thickBot="1">
+    <row r="141" spans="2:10" ht="15" thickBot="1">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -4007,7 +4008,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="2:10" ht="15.75" thickBot="1">
+    <row r="142" spans="2:10" ht="15" thickBot="1">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -4018,7 +4019,7 @@
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="2:10" ht="15.75" thickBot="1">
+    <row r="143" spans="2:10" ht="15" thickBot="1">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -4029,7 +4030,7 @@
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="2:10" ht="15.75" thickBot="1">
+    <row r="144" spans="2:10" ht="15" thickBot="1">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -4040,7 +4041,7 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="2:10" ht="15.75" thickBot="1">
+    <row r="145" spans="2:10" ht="15" thickBot="1">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -4051,7 +4052,7 @@
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="2:10" ht="15.75" thickBot="1">
+    <row r="146" spans="2:10" ht="15" thickBot="1">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -4062,7 +4063,7 @@
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="2:10" ht="15.75" thickBot="1">
+    <row r="147" spans="2:10" ht="15" thickBot="1">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -4073,7 +4074,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="2:10" ht="15.75" thickBot="1">
+    <row r="148" spans="2:10" ht="15" thickBot="1">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -4084,7 +4085,7 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="2:10" ht="15.75" thickBot="1">
+    <row r="149" spans="2:10" ht="15" thickBot="1">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -4095,7 +4096,7 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="2:10" ht="15.75" thickBot="1">
+    <row r="150" spans="2:10" ht="15" thickBot="1">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -4106,7 +4107,7 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="2:10" ht="15.75" thickBot="1">
+    <row r="151" spans="2:10" ht="15" thickBot="1">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -4117,7 +4118,7 @@
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="2:10" ht="15.75" thickBot="1">
+    <row r="152" spans="2:10" ht="15" thickBot="1">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -4128,7 +4129,7 @@
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="2:10" ht="15.75" thickBot="1">
+    <row r="153" spans="2:10" ht="15" thickBot="1">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -4139,7 +4140,7 @@
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="2:10" ht="15.75" thickBot="1">
+    <row r="154" spans="2:10" ht="15" thickBot="1">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -4150,7 +4151,7 @@
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="2:10" ht="15.75" thickBot="1">
+    <row r="155" spans="2:10" ht="15" thickBot="1">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -4161,7 +4162,7 @@
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="2:10" ht="15.75" thickBot="1">
+    <row r="156" spans="2:10" ht="15" thickBot="1">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -4172,7 +4173,7 @@
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="2:10" ht="15.75" thickBot="1">
+    <row r="157" spans="2:10" ht="15" thickBot="1">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -4183,7 +4184,7 @@
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="2:10" ht="15.75" thickBot="1">
+    <row r="158" spans="2:10" ht="15" thickBot="1">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -4194,7 +4195,7 @@
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="2:10" ht="15.75" thickBot="1">
+    <row r="159" spans="2:10" ht="15" thickBot="1">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -4205,7 +4206,7 @@
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="2:10" ht="15.75" thickBot="1">
+    <row r="160" spans="2:10" ht="15" thickBot="1">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -4216,7 +4217,7 @@
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="2:10" ht="15.75" thickBot="1">
+    <row r="161" spans="2:10" ht="15" thickBot="1">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -4227,7 +4228,7 @@
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="2:10" ht="15.75" thickBot="1">
+    <row r="162" spans="2:10" ht="15" thickBot="1">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -4238,7 +4239,7 @@
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="2:10" ht="15.75" thickBot="1">
+    <row r="163" spans="2:10" ht="15" thickBot="1">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -4249,7 +4250,7 @@
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="2:10" ht="15.75" thickBot="1">
+    <row r="164" spans="2:10" ht="15" thickBot="1">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -4260,7 +4261,7 @@
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="2:10" ht="15.75" thickBot="1">
+    <row r="165" spans="2:10" ht="15" thickBot="1">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -4271,7 +4272,7 @@
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="2:10" ht="15.75" thickBot="1">
+    <row r="166" spans="2:10" ht="15" thickBot="1">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -4282,7 +4283,7 @@
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="2:10" ht="15.75" thickBot="1">
+    <row r="167" spans="2:10" ht="15" thickBot="1">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -4293,7 +4294,7 @@
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="2:10" ht="15.75" thickBot="1">
+    <row r="168" spans="2:10" ht="15" thickBot="1">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -4304,7 +4305,7 @@
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="2:10" ht="15.75" thickBot="1">
+    <row r="169" spans="2:10" ht="15" thickBot="1">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -4315,7 +4316,7 @@
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="2:10" ht="15.75" thickBot="1">
+    <row r="170" spans="2:10" ht="15" thickBot="1">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -4326,7 +4327,7 @@
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="2:10" ht="15.75" thickBot="1">
+    <row r="171" spans="2:10" ht="15" thickBot="1">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -4337,7 +4338,7 @@
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="2:10" ht="15.75" thickBot="1">
+    <row r="172" spans="2:10" ht="15" thickBot="1">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -4348,7 +4349,7 @@
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="2:10" ht="15.75" thickBot="1">
+    <row r="173" spans="2:10" ht="15" thickBot="1">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -4359,7 +4360,7 @@
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="2:10" ht="15.75" thickBot="1">
+    <row r="174" spans="2:10" ht="15" thickBot="1">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -4370,7 +4371,7 @@
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="2:10" ht="15.75" thickBot="1">
+    <row r="175" spans="2:10" ht="15" thickBot="1">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -4381,7 +4382,7 @@
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="2:10" ht="15.75" thickBot="1">
+    <row r="176" spans="2:10" ht="15" thickBot="1">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -4392,7 +4393,7 @@
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="2:10" ht="15.75" thickBot="1">
+    <row r="177" spans="2:10" ht="15" thickBot="1">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -4403,7 +4404,7 @@
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="2:10" ht="15.75" thickBot="1">
+    <row r="178" spans="2:10" ht="15" thickBot="1">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -4414,7 +4415,7 @@
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="2:10" ht="15.75" thickBot="1">
+    <row r="179" spans="2:10" ht="15" thickBot="1">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -4425,7 +4426,7 @@
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="2:10" ht="15.75" thickBot="1">
+    <row r="180" spans="2:10" ht="15" thickBot="1">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -4436,7 +4437,7 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="2:10" ht="15.75" thickBot="1">
+    <row r="181" spans="2:10" ht="15" thickBot="1">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -4447,7 +4448,7 @@
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="2:10" ht="15.75" thickBot="1">
+    <row r="182" spans="2:10" ht="15" thickBot="1">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -4458,7 +4459,7 @@
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="2:10" ht="15.75" thickBot="1">
+    <row r="183" spans="2:10" ht="15" thickBot="1">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -4469,7 +4470,7 @@
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
     </row>
-    <row r="184" spans="2:10" ht="15.75" thickBot="1">
+    <row r="184" spans="2:10" ht="15" thickBot="1">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -4480,7 +4481,7 @@
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="2:10" ht="15.75" thickBot="1">
+    <row r="185" spans="2:10" ht="15" thickBot="1">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -4491,7 +4492,7 @@
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
     </row>
-    <row r="186" spans="2:10" ht="15.75" thickBot="1">
+    <row r="186" spans="2:10" ht="15" thickBot="1">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -4502,7 +4503,7 @@
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="2:10" ht="15.75" thickBot="1">
+    <row r="187" spans="2:10" ht="15" thickBot="1">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -4513,7 +4514,7 @@
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
     </row>
-    <row r="188" spans="2:10" ht="15.75" thickBot="1">
+    <row r="188" spans="2:10" ht="15" thickBot="1">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -4524,7 +4525,7 @@
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
     </row>
-    <row r="189" spans="2:10" ht="15.75" thickBot="1">
+    <row r="189" spans="2:10" ht="15" thickBot="1">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -4535,7 +4536,7 @@
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
     </row>
-    <row r="190" spans="2:10" ht="15.75" thickBot="1">
+    <row r="190" spans="2:10" ht="15" thickBot="1">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -4546,7 +4547,7 @@
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
     </row>
-    <row r="191" spans="2:10" ht="15.75" thickBot="1">
+    <row r="191" spans="2:10" ht="15" thickBot="1">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -4557,7 +4558,7 @@
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
     </row>
-    <row r="192" spans="2:10" ht="15.75" thickBot="1">
+    <row r="192" spans="2:10" ht="15" thickBot="1">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -4568,7 +4569,7 @@
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
     </row>
-    <row r="193" spans="2:10" ht="15.75" thickBot="1">
+    <row r="193" spans="2:10" ht="15" thickBot="1">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -4579,7 +4580,7 @@
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
     </row>
-    <row r="194" spans="2:10" ht="15.75" thickBot="1">
+    <row r="194" spans="2:10" ht="15" thickBot="1">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -4590,7 +4591,7 @@
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
     </row>
-    <row r="195" spans="2:10" ht="15.75" thickBot="1">
+    <row r="195" spans="2:10" ht="15" thickBot="1">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -4601,7 +4602,7 @@
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
     </row>
-    <row r="196" spans="2:10" ht="15.75" thickBot="1">
+    <row r="196" spans="2:10" ht="15" thickBot="1">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -4612,7 +4613,7 @@
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
     </row>
-    <row r="197" spans="2:10" ht="15.75" thickBot="1">
+    <row r="197" spans="2:10" ht="15" thickBot="1">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -4623,7 +4624,7 @@
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
     </row>
-    <row r="198" spans="2:10" ht="15.75" thickBot="1">
+    <row r="198" spans="2:10" ht="15" thickBot="1">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -4634,7 +4635,7 @@
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
     </row>
-    <row r="199" spans="2:10" ht="15.75" thickBot="1">
+    <row r="199" spans="2:10" ht="15" thickBot="1">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -4645,7 +4646,7 @@
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
     </row>
-    <row r="200" spans="2:10" ht="15.75" thickBot="1">
+    <row r="200" spans="2:10" ht="15" thickBot="1">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -4656,7 +4657,7 @@
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
     </row>
-    <row r="201" spans="2:10" ht="15.75" thickBot="1">
+    <row r="201" spans="2:10" ht="15" thickBot="1">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -4667,7 +4668,7 @@
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
     </row>
-    <row r="202" spans="2:10" ht="15.75" thickBot="1">
+    <row r="202" spans="2:10" ht="15" thickBot="1">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -4678,7 +4679,7 @@
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
     </row>
-    <row r="203" spans="2:10" ht="15.75" thickBot="1">
+    <row r="203" spans="2:10" ht="15" thickBot="1">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -4689,7 +4690,7 @@
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
     </row>
-    <row r="204" spans="2:10" ht="15.75" thickBot="1">
+    <row r="204" spans="2:10" ht="15" thickBot="1">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -4700,7 +4701,7 @@
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
     </row>
-    <row r="205" spans="2:10" ht="15.75" thickBot="1">
+    <row r="205" spans="2:10" ht="15" thickBot="1">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -4711,7 +4712,7 @@
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
     </row>
-    <row r="206" spans="2:10" ht="15.75" thickBot="1">
+    <row r="206" spans="2:10" ht="15" thickBot="1">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -4722,7 +4723,7 @@
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
     </row>
-    <row r="207" spans="2:10" ht="15.75" thickBot="1">
+    <row r="207" spans="2:10" ht="15" thickBot="1">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -4733,7 +4734,7 @@
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
     </row>
-    <row r="208" spans="2:10" ht="15.75" thickBot="1">
+    <row r="208" spans="2:10" ht="15" thickBot="1">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -4744,7 +4745,7 @@
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
     </row>
-    <row r="209" spans="2:10" ht="15.75" thickBot="1">
+    <row r="209" spans="2:10" ht="15" thickBot="1">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -4755,7 +4756,7 @@
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
     </row>
-    <row r="210" spans="2:10" ht="15.75" thickBot="1">
+    <row r="210" spans="2:10" ht="15" thickBot="1">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -4766,7 +4767,7 @@
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
     </row>
-    <row r="211" spans="2:10" ht="15.75" thickBot="1">
+    <row r="211" spans="2:10" ht="15" thickBot="1">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -4777,7 +4778,7 @@
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
     </row>
-    <row r="212" spans="2:10" ht="15.75" thickBot="1">
+    <row r="212" spans="2:10" ht="15" thickBot="1">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -4788,7 +4789,7 @@
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
     </row>
-    <row r="213" spans="2:10" ht="15.75" thickBot="1">
+    <row r="213" spans="2:10" ht="15" thickBot="1">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -4799,7 +4800,7 @@
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
     </row>
-    <row r="214" spans="2:10" ht="15.75" thickBot="1">
+    <row r="214" spans="2:10" ht="15" thickBot="1">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -4810,7 +4811,7 @@
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
     </row>
-    <row r="215" spans="2:10" ht="15.75" thickBot="1">
+    <row r="215" spans="2:10" ht="15" thickBot="1">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -4821,7 +4822,7 @@
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
     </row>
-    <row r="216" spans="2:10" ht="15.75" thickBot="1">
+    <row r="216" spans="2:10" ht="15" thickBot="1">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -4832,7 +4833,7 @@
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
     </row>
-    <row r="217" spans="2:10" ht="15.75" thickBot="1">
+    <row r="217" spans="2:10" ht="15" thickBot="1">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -4843,7 +4844,7 @@
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
     </row>
-    <row r="218" spans="2:10" ht="15.75" thickBot="1">
+    <row r="218" spans="2:10" ht="15" thickBot="1">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -4854,7 +4855,7 @@
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
     </row>
-    <row r="219" spans="2:10" ht="15.75" thickBot="1">
+    <row r="219" spans="2:10" ht="15" thickBot="1">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -4865,7 +4866,7 @@
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
     </row>
-    <row r="220" spans="2:10" ht="15.75" thickBot="1">
+    <row r="220" spans="2:10" ht="15" thickBot="1">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -4876,7 +4877,7 @@
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
     </row>
-    <row r="221" spans="2:10" ht="15.75" thickBot="1">
+    <row r="221" spans="2:10" ht="15" thickBot="1">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -4887,7 +4888,7 @@
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
     </row>
-    <row r="222" spans="2:10" ht="15.75" thickBot="1">
+    <row r="222" spans="2:10" ht="15" thickBot="1">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -4898,7 +4899,7 @@
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
     </row>
-    <row r="223" spans="2:10" ht="15.75" thickBot="1">
+    <row r="223" spans="2:10" ht="15" thickBot="1">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -4909,7 +4910,7 @@
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
     </row>
-    <row r="224" spans="2:10" ht="15.75" thickBot="1">
+    <row r="224" spans="2:10" ht="15" thickBot="1">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -4920,7 +4921,7 @@
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
     </row>
-    <row r="225" spans="2:10" ht="15.75" thickBot="1">
+    <row r="225" spans="2:10" ht="15" thickBot="1">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -4931,7 +4932,7 @@
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
     </row>
-    <row r="226" spans="2:10" ht="15.75" thickBot="1">
+    <row r="226" spans="2:10" ht="15" thickBot="1">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -4942,7 +4943,7 @@
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
     </row>
-    <row r="227" spans="2:10" ht="15.75" thickBot="1">
+    <row r="227" spans="2:10" ht="15" thickBot="1">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -4953,7 +4954,7 @@
       <c r="I227" s="2"/>
       <c r="J227" s="2"/>
     </row>
-    <row r="228" spans="2:10" ht="15.75" thickBot="1">
+    <row r="228" spans="2:10" ht="15" thickBot="1">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -4964,7 +4965,7 @@
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
     </row>
-    <row r="229" spans="2:10" ht="15.75" thickBot="1">
+    <row r="229" spans="2:10" ht="15" thickBot="1">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -4975,7 +4976,7 @@
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
     </row>
-    <row r="230" spans="2:10" ht="15.75" thickBot="1">
+    <row r="230" spans="2:10" ht="15" thickBot="1">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -4986,7 +4987,7 @@
       <c r="I230" s="2"/>
       <c r="J230" s="2"/>
     </row>
-    <row r="231" spans="2:10" ht="15.75" thickBot="1">
+    <row r="231" spans="2:10" ht="15" thickBot="1">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -4997,7 +4998,7 @@
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
     </row>
-    <row r="232" spans="2:10" ht="15.75" thickBot="1">
+    <row r="232" spans="2:10" ht="15" thickBot="1">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -5008,7 +5009,7 @@
       <c r="I232" s="2"/>
       <c r="J232" s="2"/>
     </row>
-    <row r="233" spans="2:10" ht="15.75" thickBot="1">
+    <row r="233" spans="2:10" ht="15" thickBot="1">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -5019,7 +5020,7 @@
       <c r="I233" s="2"/>
       <c r="J233" s="2"/>
     </row>
-    <row r="234" spans="2:10" ht="15.75" thickBot="1">
+    <row r="234" spans="2:10" ht="15" thickBot="1">
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -5030,7 +5031,7 @@
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
     </row>
-    <row r="235" spans="2:10" ht="15.75" thickBot="1">
+    <row r="235" spans="2:10" ht="15" thickBot="1">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -5041,7 +5042,7 @@
       <c r="I235" s="2"/>
       <c r="J235" s="2"/>
     </row>
-    <row r="236" spans="2:10" ht="15.75" thickBot="1">
+    <row r="236" spans="2:10" ht="15" thickBot="1">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -5052,7 +5053,7 @@
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
     </row>
-    <row r="237" spans="2:10" ht="15.75" thickBot="1">
+    <row r="237" spans="2:10" ht="15" thickBot="1">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -5063,7 +5064,7 @@
       <c r="I237" s="2"/>
       <c r="J237" s="2"/>
     </row>
-    <row r="238" spans="2:10" ht="15.75" thickBot="1">
+    <row r="238" spans="2:10" ht="15" thickBot="1">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -5074,7 +5075,7 @@
       <c r="I238" s="2"/>
       <c r="J238" s="2"/>
     </row>
-    <row r="239" spans="2:10" ht="15.75" thickBot="1">
+    <row r="239" spans="2:10" ht="15" thickBot="1">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -5085,7 +5086,7 @@
       <c r="I239" s="2"/>
       <c r="J239" s="2"/>
     </row>
-    <row r="240" spans="2:10" ht="15.75" thickBot="1">
+    <row r="240" spans="2:10" ht="15" thickBot="1">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -5096,7 +5097,7 @@
       <c r="I240" s="2"/>
       <c r="J240" s="2"/>
     </row>
-    <row r="241" spans="2:10" ht="15.75" thickBot="1">
+    <row r="241" spans="2:10" ht="15" thickBot="1">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -5107,7 +5108,7 @@
       <c r="I241" s="2"/>
       <c r="J241" s="2"/>
     </row>
-    <row r="242" spans="2:10" ht="15.75" thickBot="1">
+    <row r="242" spans="2:10" ht="15" thickBot="1">
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -5118,7 +5119,7 @@
       <c r="I242" s="2"/>
       <c r="J242" s="2"/>
     </row>
-    <row r="243" spans="2:10" ht="15.75" thickBot="1">
+    <row r="243" spans="2:10" ht="15" thickBot="1">
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -5129,7 +5130,7 @@
       <c r="I243" s="2"/>
       <c r="J243" s="2"/>
     </row>
-    <row r="244" spans="2:10" ht="15.75" thickBot="1">
+    <row r="244" spans="2:10" ht="15" thickBot="1">
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -5140,7 +5141,7 @@
       <c r="I244" s="2"/>
       <c r="J244" s="2"/>
     </row>
-    <row r="245" spans="2:10" ht="15.75" thickBot="1">
+    <row r="245" spans="2:10" ht="15" thickBot="1">
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -5151,7 +5152,7 @@
       <c r="I245" s="2"/>
       <c r="J245" s="2"/>
     </row>
-    <row r="246" spans="2:10" ht="15.75" thickBot="1">
+    <row r="246" spans="2:10" ht="15" thickBot="1">
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -5162,7 +5163,7 @@
       <c r="I246" s="2"/>
       <c r="J246" s="2"/>
     </row>
-    <row r="247" spans="2:10" ht="15.75" thickBot="1">
+    <row r="247" spans="2:10" ht="15" thickBot="1">
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -5173,7 +5174,7 @@
       <c r="I247" s="2"/>
       <c r="J247" s="2"/>
     </row>
-    <row r="248" spans="2:10" ht="15.75" thickBot="1">
+    <row r="248" spans="2:10" ht="15" thickBot="1">
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -5184,7 +5185,7 @@
       <c r="I248" s="2"/>
       <c r="J248" s="2"/>
     </row>
-    <row r="249" spans="2:10" ht="15.75" thickBot="1">
+    <row r="249" spans="2:10" ht="15" thickBot="1">
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -5195,7 +5196,7 @@
       <c r="I249" s="2"/>
       <c r="J249" s="2"/>
     </row>
-    <row r="250" spans="2:10" ht="15.75" thickBot="1">
+    <row r="250" spans="2:10" ht="15" thickBot="1">
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -5206,7 +5207,7 @@
       <c r="I250" s="2"/>
       <c r="J250" s="2"/>
     </row>
-    <row r="251" spans="2:10" ht="15.75" thickBot="1">
+    <row r="251" spans="2:10" ht="15" thickBot="1">
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -5217,7 +5218,7 @@
       <c r="I251" s="2"/>
       <c r="J251" s="2"/>
     </row>
-    <row r="252" spans="2:10" ht="15.75" thickBot="1">
+    <row r="252" spans="2:10" ht="15" thickBot="1">
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -5228,7 +5229,7 @@
       <c r="I252" s="2"/>
       <c r="J252" s="2"/>
     </row>
-    <row r="253" spans="2:10" ht="15.75" thickBot="1">
+    <row r="253" spans="2:10" ht="15" thickBot="1">
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -5239,7 +5240,7 @@
       <c r="I253" s="2"/>
       <c r="J253" s="2"/>
     </row>
-    <row r="254" spans="2:10" ht="15.75" thickBot="1">
+    <row r="254" spans="2:10" ht="15" thickBot="1">
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -5250,7 +5251,7 @@
       <c r="I254" s="2"/>
       <c r="J254" s="2"/>
     </row>
-    <row r="255" spans="2:10" ht="15.75" thickBot="1">
+    <row r="255" spans="2:10" ht="15" thickBot="1">
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -5261,7 +5262,7 @@
       <c r="I255" s="2"/>
       <c r="J255" s="2"/>
     </row>
-    <row r="256" spans="2:10" ht="15.75" thickBot="1">
+    <row r="256" spans="2:10" ht="15" thickBot="1">
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -5272,7 +5273,7 @@
       <c r="I256" s="2"/>
       <c r="J256" s="2"/>
     </row>
-    <row r="257" spans="2:10" ht="15.75" thickBot="1">
+    <row r="257" spans="2:10" ht="15" thickBot="1">
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -5283,7 +5284,7 @@
       <c r="I257" s="2"/>
       <c r="J257" s="2"/>
     </row>
-    <row r="258" spans="2:10" ht="15.75" thickBot="1">
+    <row r="258" spans="2:10" ht="15" thickBot="1">
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -5294,7 +5295,7 @@
       <c r="I258" s="2"/>
       <c r="J258" s="2"/>
     </row>
-    <row r="259" spans="2:10" ht="15.75" thickBot="1">
+    <row r="259" spans="2:10" ht="15" thickBot="1">
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -5305,7 +5306,7 @@
       <c r="I259" s="2"/>
       <c r="J259" s="2"/>
     </row>
-    <row r="260" spans="2:10" ht="15.75" thickBot="1">
+    <row r="260" spans="2:10" ht="15" thickBot="1">
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -5316,7 +5317,7 @@
       <c r="I260" s="2"/>
       <c r="J260" s="2"/>
     </row>
-    <row r="261" spans="2:10" ht="15.75" thickBot="1">
+    <row r="261" spans="2:10" ht="15" thickBot="1">
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -5327,7 +5328,7 @@
       <c r="I261" s="2"/>
       <c r="J261" s="2"/>
     </row>
-    <row r="262" spans="2:10" ht="15.75" thickBot="1">
+    <row r="262" spans="2:10" ht="15" thickBot="1">
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -5338,7 +5339,7 @@
       <c r="I262" s="2"/>
       <c r="J262" s="2"/>
     </row>
-    <row r="263" spans="2:10" ht="15.75" thickBot="1">
+    <row r="263" spans="2:10" ht="15" thickBot="1">
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -5349,7 +5350,7 @@
       <c r="I263" s="2"/>
       <c r="J263" s="2"/>
     </row>
-    <row r="264" spans="2:10" ht="15.75" thickBot="1">
+    <row r="264" spans="2:10" ht="15" thickBot="1">
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -5360,7 +5361,7 @@
       <c r="I264" s="2"/>
       <c r="J264" s="2"/>
     </row>
-    <row r="265" spans="2:10" ht="15.75" thickBot="1">
+    <row r="265" spans="2:10" ht="15" thickBot="1">
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
@@ -5371,7 +5372,7 @@
       <c r="I265" s="2"/>
       <c r="J265" s="2"/>
     </row>
-    <row r="266" spans="2:10" ht="15.75" thickBot="1">
+    <row r="266" spans="2:10" ht="15" thickBot="1">
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -5382,7 +5383,7 @@
       <c r="I266" s="2"/>
       <c r="J266" s="2"/>
     </row>
-    <row r="267" spans="2:10" ht="15.75" thickBot="1">
+    <row r="267" spans="2:10" ht="15" thickBot="1">
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
@@ -5393,7 +5394,7 @@
       <c r="I267" s="2"/>
       <c r="J267" s="2"/>
     </row>
-    <row r="268" spans="2:10" ht="15.75" thickBot="1">
+    <row r="268" spans="2:10" ht="15" thickBot="1">
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -5404,7 +5405,7 @@
       <c r="I268" s="2"/>
       <c r="J268" s="2"/>
     </row>
-    <row r="269" spans="2:10" ht="15.75" thickBot="1">
+    <row r="269" spans="2:10" ht="15" thickBot="1">
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -5415,7 +5416,7 @@
       <c r="I269" s="2"/>
       <c r="J269" s="2"/>
     </row>
-    <row r="270" spans="2:10" ht="15.75" thickBot="1">
+    <row r="270" spans="2:10" ht="15" thickBot="1">
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -5426,7 +5427,7 @@
       <c r="I270" s="2"/>
       <c r="J270" s="2"/>
     </row>
-    <row r="271" spans="2:10" ht="15.75" thickBot="1">
+    <row r="271" spans="2:10" ht="15" thickBot="1">
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
@@ -5437,7 +5438,7 @@
       <c r="I271" s="2"/>
       <c r="J271" s="2"/>
     </row>
-    <row r="272" spans="2:10" ht="15.75" thickBot="1">
+    <row r="272" spans="2:10" ht="15" thickBot="1">
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
@@ -5448,7 +5449,7 @@
       <c r="I272" s="2"/>
       <c r="J272" s="2"/>
     </row>
-    <row r="273" spans="2:10" ht="15.75" thickBot="1">
+    <row r="273" spans="2:10" ht="15" thickBot="1">
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -5459,7 +5460,7 @@
       <c r="I273" s="2"/>
       <c r="J273" s="2"/>
     </row>
-    <row r="274" spans="2:10" ht="15.75" thickBot="1">
+    <row r="274" spans="2:10" ht="15" thickBot="1">
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -5470,7 +5471,7 @@
       <c r="I274" s="2"/>
       <c r="J274" s="2"/>
     </row>
-    <row r="275" spans="2:10" ht="15.75" thickBot="1">
+    <row r="275" spans="2:10" ht="15" thickBot="1">
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -5481,7 +5482,7 @@
       <c r="I275" s="2"/>
       <c r="J275" s="2"/>
     </row>
-    <row r="276" spans="2:10" ht="15.75" thickBot="1">
+    <row r="276" spans="2:10" ht="15" thickBot="1">
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -5492,7 +5493,7 @@
       <c r="I276" s="2"/>
       <c r="J276" s="2"/>
     </row>
-    <row r="277" spans="2:10" ht="15.75" thickBot="1">
+    <row r="277" spans="2:10" ht="15" thickBot="1">
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -5503,7 +5504,7 @@
       <c r="I277" s="2"/>
       <c r="J277" s="2"/>
     </row>
-    <row r="278" spans="2:10" ht="15.75" thickBot="1">
+    <row r="278" spans="2:10" ht="15" thickBot="1">
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -5514,7 +5515,7 @@
       <c r="I278" s="2"/>
       <c r="J278" s="2"/>
     </row>
-    <row r="279" spans="2:10" ht="15.75" thickBot="1">
+    <row r="279" spans="2:10" ht="15" thickBot="1">
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
@@ -5525,7 +5526,7 @@
       <c r="I279" s="2"/>
       <c r="J279" s="2"/>
     </row>
-    <row r="280" spans="2:10" ht="15.75" thickBot="1">
+    <row r="280" spans="2:10" ht="15" thickBot="1">
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -5536,7 +5537,7 @@
       <c r="I280" s="2"/>
       <c r="J280" s="2"/>
     </row>
-    <row r="281" spans="2:10" ht="15.75" thickBot="1">
+    <row r="281" spans="2:10" ht="15" thickBot="1">
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -5547,7 +5548,7 @@
       <c r="I281" s="2"/>
       <c r="J281" s="2"/>
     </row>
-    <row r="282" spans="2:10" ht="15.75" thickBot="1">
+    <row r="282" spans="2:10" ht="15" thickBot="1">
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -5558,7 +5559,7 @@
       <c r="I282" s="2"/>
       <c r="J282" s="2"/>
     </row>
-    <row r="283" spans="2:10" ht="15.75" thickBot="1">
+    <row r="283" spans="2:10" ht="15" thickBot="1">
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -5569,7 +5570,7 @@
       <c r="I283" s="2"/>
       <c r="J283" s="2"/>
     </row>
-    <row r="284" spans="2:10" ht="15.75" thickBot="1">
+    <row r="284" spans="2:10" ht="15" thickBot="1">
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -5580,7 +5581,7 @@
       <c r="I284" s="2"/>
       <c r="J284" s="2"/>
     </row>
-    <row r="285" spans="2:10" ht="15.75" thickBot="1">
+    <row r="285" spans="2:10" ht="15" thickBot="1">
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -5591,7 +5592,7 @@
       <c r="I285" s="2"/>
       <c r="J285" s="2"/>
     </row>
-    <row r="286" spans="2:10" ht="15.75" thickBot="1">
+    <row r="286" spans="2:10" ht="15" thickBot="1">
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -5602,7 +5603,7 @@
       <c r="I286" s="2"/>
       <c r="J286" s="2"/>
     </row>
-    <row r="287" spans="2:10" ht="15.75" thickBot="1">
+    <row r="287" spans="2:10" ht="15" thickBot="1">
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -5613,7 +5614,7 @@
       <c r="I287" s="2"/>
       <c r="J287" s="2"/>
     </row>
-    <row r="288" spans="2:10" ht="15.75" thickBot="1">
+    <row r="288" spans="2:10" ht="15" thickBot="1">
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -5624,7 +5625,7 @@
       <c r="I288" s="2"/>
       <c r="J288" s="2"/>
     </row>
-    <row r="289" spans="2:10" ht="15.75" thickBot="1">
+    <row r="289" spans="2:10" ht="15" thickBot="1">
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -5635,7 +5636,7 @@
       <c r="I289" s="2"/>
       <c r="J289" s="2"/>
     </row>
-    <row r="290" spans="2:10" ht="15.75" thickBot="1">
+    <row r="290" spans="2:10" ht="15" thickBot="1">
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -5646,7 +5647,7 @@
       <c r="I290" s="2"/>
       <c r="J290" s="2"/>
     </row>
-    <row r="291" spans="2:10" ht="15.75" thickBot="1">
+    <row r="291" spans="2:10" ht="15" thickBot="1">
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -5657,7 +5658,7 @@
       <c r="I291" s="2"/>
       <c r="J291" s="2"/>
     </row>
-    <row r="292" spans="2:10" ht="15.75" thickBot="1">
+    <row r="292" spans="2:10" ht="15" thickBot="1">
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -5668,7 +5669,7 @@
       <c r="I292" s="2"/>
       <c r="J292" s="2"/>
     </row>
-    <row r="293" spans="2:10" ht="15.75" thickBot="1">
+    <row r="293" spans="2:10" ht="15" thickBot="1">
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -5679,7 +5680,7 @@
       <c r="I293" s="2"/>
       <c r="J293" s="2"/>
     </row>
-    <row r="294" spans="2:10" ht="15.75" thickBot="1">
+    <row r="294" spans="2:10" ht="15" thickBot="1">
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -5690,7 +5691,7 @@
       <c r="I294" s="2"/>
       <c r="J294" s="2"/>
     </row>
-    <row r="295" spans="2:10" ht="15.75" thickBot="1">
+    <row r="295" spans="2:10" ht="15" thickBot="1">
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -5701,7 +5702,7 @@
       <c r="I295" s="2"/>
       <c r="J295" s="2"/>
     </row>
-    <row r="296" spans="2:10" ht="15.75" thickBot="1">
+    <row r="296" spans="2:10" ht="15" thickBot="1">
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -5712,7 +5713,7 @@
       <c r="I296" s="2"/>
       <c r="J296" s="2"/>
     </row>
-    <row r="297" spans="2:10" ht="15.75" thickBot="1">
+    <row r="297" spans="2:10" ht="15" thickBot="1">
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -5723,7 +5724,7 @@
       <c r="I297" s="2"/>
       <c r="J297" s="2"/>
     </row>
-    <row r="298" spans="2:10" ht="15.75" thickBot="1">
+    <row r="298" spans="2:10" ht="15" thickBot="1">
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -5734,7 +5735,7 @@
       <c r="I298" s="2"/>
       <c r="J298" s="2"/>
     </row>
-    <row r="299" spans="2:10" ht="15.75" thickBot="1">
+    <row r="299" spans="2:10" ht="15" thickBot="1">
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -5745,7 +5746,7 @@
       <c r="I299" s="2"/>
       <c r="J299" s="2"/>
     </row>
-    <row r="300" spans="2:10" ht="15.75" thickBot="1">
+    <row r="300" spans="2:10" ht="15" thickBot="1">
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -5756,7 +5757,7 @@
       <c r="I300" s="2"/>
       <c r="J300" s="2"/>
     </row>
-    <row r="301" spans="2:10" ht="15.75" thickBot="1">
+    <row r="301" spans="2:10" ht="15" thickBot="1">
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -5767,7 +5768,7 @@
       <c r="I301" s="2"/>
       <c r="J301" s="2"/>
     </row>
-    <row r="302" spans="2:10" ht="15.75" thickBot="1">
+    <row r="302" spans="2:10" ht="15" thickBot="1">
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
@@ -5778,7 +5779,7 @@
       <c r="I302" s="2"/>
       <c r="J302" s="2"/>
     </row>
-    <row r="303" spans="2:10" ht="15.75" thickBot="1">
+    <row r="303" spans="2:10" ht="15" thickBot="1">
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -5789,7 +5790,7 @@
       <c r="I303" s="2"/>
       <c r="J303" s="2"/>
     </row>
-    <row r="304" spans="2:10" ht="15.75" thickBot="1">
+    <row r="304" spans="2:10" ht="15" thickBot="1">
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -5800,7 +5801,7 @@
       <c r="I304" s="2"/>
       <c r="J304" s="2"/>
     </row>
-    <row r="305" spans="2:10" ht="15.75" thickBot="1">
+    <row r="305" spans="2:10" ht="15" thickBot="1">
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -5811,7 +5812,7 @@
       <c r="I305" s="2"/>
       <c r="J305" s="2"/>
     </row>
-    <row r="306" spans="2:10" ht="15.75" thickBot="1">
+    <row r="306" spans="2:10" ht="15" thickBot="1">
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
@@ -5822,7 +5823,7 @@
       <c r="I306" s="2"/>
       <c r="J306" s="2"/>
     </row>
-    <row r="307" spans="2:10" ht="15.75" thickBot="1">
+    <row r="307" spans="2:10" ht="15" thickBot="1">
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -5833,7 +5834,7 @@
       <c r="I307" s="2"/>
       <c r="J307" s="2"/>
     </row>
-    <row r="308" spans="2:10" ht="15.75" thickBot="1">
+    <row r="308" spans="2:10" ht="15" thickBot="1">
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -5844,7 +5845,7 @@
       <c r="I308" s="2"/>
       <c r="J308" s="2"/>
     </row>
-    <row r="309" spans="2:10" ht="15.75" thickBot="1">
+    <row r="309" spans="2:10" ht="15" thickBot="1">
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -5855,7 +5856,7 @@
       <c r="I309" s="2"/>
       <c r="J309" s="2"/>
     </row>
-    <row r="310" spans="2:10" ht="15.75" thickBot="1">
+    <row r="310" spans="2:10" ht="15" thickBot="1">
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -5866,7 +5867,7 @@
       <c r="I310" s="2"/>
       <c r="J310" s="2"/>
     </row>
-    <row r="311" spans="2:10" ht="15.75" thickBot="1">
+    <row r="311" spans="2:10" ht="15" thickBot="1">
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -5877,7 +5878,7 @@
       <c r="I311" s="2"/>
       <c r="J311" s="2"/>
     </row>
-    <row r="312" spans="2:10" ht="15.75" thickBot="1">
+    <row r="312" spans="2:10" ht="15" thickBot="1">
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -5888,7 +5889,7 @@
       <c r="I312" s="2"/>
       <c r="J312" s="2"/>
     </row>
-    <row r="313" spans="2:10" ht="15.75" thickBot="1">
+    <row r="313" spans="2:10" ht="15" thickBot="1">
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
@@ -5899,7 +5900,7 @@
       <c r="I313" s="2"/>
       <c r="J313" s="2"/>
     </row>
-    <row r="314" spans="2:10" ht="15.75" thickBot="1">
+    <row r="314" spans="2:10" ht="15" thickBot="1">
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -5910,7 +5911,7 @@
       <c r="I314" s="2"/>
       <c r="J314" s="2"/>
     </row>
-    <row r="315" spans="2:10" ht="15.75" thickBot="1">
+    <row r="315" spans="2:10" ht="15" thickBot="1">
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
@@ -5921,7 +5922,7 @@
       <c r="I315" s="2"/>
       <c r="J315" s="2"/>
     </row>
-    <row r="316" spans="2:10" ht="15.75" thickBot="1">
+    <row r="316" spans="2:10" ht="15" thickBot="1">
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
@@ -5932,7 +5933,7 @@
       <c r="I316" s="2"/>
       <c r="J316" s="2"/>
     </row>
-    <row r="317" spans="2:10" ht="15.75" thickBot="1">
+    <row r="317" spans="2:10" ht="15" thickBot="1">
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
@@ -5943,7 +5944,7 @@
       <c r="I317" s="2"/>
       <c r="J317" s="2"/>
     </row>
-    <row r="318" spans="2:10" ht="15.75" thickBot="1">
+    <row r="318" spans="2:10" ht="15" thickBot="1">
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -5954,7 +5955,7 @@
       <c r="I318" s="2"/>
       <c r="J318" s="2"/>
     </row>
-    <row r="319" spans="2:10" ht="15.75" thickBot="1">
+    <row r="319" spans="2:10" ht="15" thickBot="1">
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -5965,7 +5966,7 @@
       <c r="I319" s="2"/>
       <c r="J319" s="2"/>
     </row>
-    <row r="320" spans="2:10" ht="15.75" thickBot="1">
+    <row r="320" spans="2:10" ht="15" thickBot="1">
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -5976,7 +5977,7 @@
       <c r="I320" s="2"/>
       <c r="J320" s="2"/>
     </row>
-    <row r="321" spans="2:10" ht="15.75" thickBot="1">
+    <row r="321" spans="2:10" ht="15" thickBot="1">
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -5987,7 +5988,7 @@
       <c r="I321" s="2"/>
       <c r="J321" s="2"/>
     </row>
-    <row r="322" spans="2:10" ht="15.75" thickBot="1">
+    <row r="322" spans="2:10" ht="15" thickBot="1">
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -5998,7 +5999,7 @@
       <c r="I322" s="2"/>
       <c r="J322" s="2"/>
     </row>
-    <row r="323" spans="2:10" ht="15.75" thickBot="1">
+    <row r="323" spans="2:10" ht="15" thickBot="1">
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -6009,7 +6010,7 @@
       <c r="I323" s="2"/>
       <c r="J323" s="2"/>
     </row>
-    <row r="324" spans="2:10" ht="15.75" thickBot="1">
+    <row r="324" spans="2:10" ht="15" thickBot="1">
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -6020,7 +6021,7 @@
       <c r="I324" s="2"/>
       <c r="J324" s="2"/>
     </row>
-    <row r="325" spans="2:10" ht="15.75" thickBot="1">
+    <row r="325" spans="2:10" ht="15" thickBot="1">
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -6031,7 +6032,7 @@
       <c r="I325" s="2"/>
       <c r="J325" s="2"/>
     </row>
-    <row r="326" spans="2:10" ht="15.75" thickBot="1">
+    <row r="326" spans="2:10" ht="15" thickBot="1">
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -6042,7 +6043,7 @@
       <c r="I326" s="2"/>
       <c r="J326" s="2"/>
     </row>
-    <row r="327" spans="2:10" ht="15.75" thickBot="1">
+    <row r="327" spans="2:10" ht="15" thickBot="1">
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -6053,7 +6054,7 @@
       <c r="I327" s="2"/>
       <c r="J327" s="2"/>
     </row>
-    <row r="328" spans="2:10" ht="15.75" thickBot="1">
+    <row r="328" spans="2:10" ht="15" thickBot="1">
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -6064,7 +6065,7 @@
       <c r="I328" s="2"/>
       <c r="J328" s="2"/>
     </row>
-    <row r="329" spans="2:10" ht="15.75" thickBot="1">
+    <row r="329" spans="2:10" ht="15" thickBot="1">
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
@@ -6075,7 +6076,7 @@
       <c r="I329" s="2"/>
       <c r="J329" s="2"/>
     </row>
-    <row r="330" spans="2:10" ht="15.75" thickBot="1">
+    <row r="330" spans="2:10" ht="15" thickBot="1">
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -6086,7 +6087,7 @@
       <c r="I330" s="2"/>
       <c r="J330" s="2"/>
     </row>
-    <row r="331" spans="2:10" ht="15.75" thickBot="1">
+    <row r="331" spans="2:10" ht="15" thickBot="1">
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -6097,7 +6098,7 @@
       <c r="I331" s="2"/>
       <c r="J331" s="2"/>
     </row>
-    <row r="332" spans="2:10" ht="15.75" thickBot="1">
+    <row r="332" spans="2:10" ht="15" thickBot="1">
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -6108,7 +6109,7 @@
       <c r="I332" s="2"/>
       <c r="J332" s="2"/>
     </row>
-    <row r="333" spans="2:10" ht="15.75" thickBot="1">
+    <row r="333" spans="2:10" ht="15" thickBot="1">
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -6119,7 +6120,7 @@
       <c r="I333" s="2"/>
       <c r="J333" s="2"/>
     </row>
-    <row r="334" spans="2:10" ht="15.75" thickBot="1">
+    <row r="334" spans="2:10" ht="15" thickBot="1">
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
@@ -6130,7 +6131,7 @@
       <c r="I334" s="2"/>
       <c r="J334" s="2"/>
     </row>
-    <row r="335" spans="2:10" ht="15.75" thickBot="1">
+    <row r="335" spans="2:10" ht="15" thickBot="1">
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
@@ -6141,7 +6142,7 @@
       <c r="I335" s="2"/>
       <c r="J335" s="2"/>
     </row>
-    <row r="336" spans="2:10" ht="15.75" thickBot="1">
+    <row r="336" spans="2:10" ht="15" thickBot="1">
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -6152,7 +6153,7 @@
       <c r="I336" s="2"/>
       <c r="J336" s="2"/>
     </row>
-    <row r="337" spans="2:10" ht="15.75" thickBot="1">
+    <row r="337" spans="2:10" ht="15" thickBot="1">
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -6163,7 +6164,7 @@
       <c r="I337" s="2"/>
       <c r="J337" s="2"/>
     </row>
-    <row r="338" spans="2:10" ht="15.75" thickBot="1">
+    <row r="338" spans="2:10" ht="15" thickBot="1">
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -6174,7 +6175,7 @@
       <c r="I338" s="2"/>
       <c r="J338" s="2"/>
     </row>
-    <row r="339" spans="2:10" ht="15.75" thickBot="1">
+    <row r="339" spans="2:10" ht="15" thickBot="1">
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -6185,7 +6186,7 @@
       <c r="I339" s="2"/>
       <c r="J339" s="2"/>
     </row>
-    <row r="340" spans="2:10" ht="15.75" thickBot="1">
+    <row r="340" spans="2:10" ht="15" thickBot="1">
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -6196,7 +6197,7 @@
       <c r="I340" s="2"/>
       <c r="J340" s="2"/>
     </row>
-    <row r="341" spans="2:10" ht="15.75" thickBot="1">
+    <row r="341" spans="2:10" ht="15" thickBot="1">
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -6207,7 +6208,7 @@
       <c r="I341" s="2"/>
       <c r="J341" s="2"/>
     </row>
-    <row r="342" spans="2:10" ht="15.75" thickBot="1">
+    <row r="342" spans="2:10" ht="15" thickBot="1">
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
@@ -6218,7 +6219,7 @@
       <c r="I342" s="2"/>
       <c r="J342" s="2"/>
     </row>
-    <row r="343" spans="2:10" ht="15.75" thickBot="1">
+    <row r="343" spans="2:10" ht="15" thickBot="1">
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -6229,7 +6230,7 @@
       <c r="I343" s="2"/>
       <c r="J343" s="2"/>
     </row>
-    <row r="344" spans="2:10" ht="15.75" thickBot="1">
+    <row r="344" spans="2:10" ht="15" thickBot="1">
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -6240,7 +6241,7 @@
       <c r="I344" s="2"/>
       <c r="J344" s="2"/>
     </row>
-    <row r="345" spans="2:10" ht="15.75" thickBot="1">
+    <row r="345" spans="2:10" ht="15" thickBot="1">
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -6251,7 +6252,7 @@
       <c r="I345" s="2"/>
       <c r="J345" s="2"/>
     </row>
-    <row r="346" spans="2:10" ht="15.75" thickBot="1">
+    <row r="346" spans="2:10" ht="15" thickBot="1">
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -6262,7 +6263,7 @@
       <c r="I346" s="2"/>
       <c r="J346" s="2"/>
     </row>
-    <row r="347" spans="2:10" ht="15.75" thickBot="1">
+    <row r="347" spans="2:10" ht="15" thickBot="1">
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -6273,7 +6274,7 @@
       <c r="I347" s="2"/>
       <c r="J347" s="2"/>
     </row>
-    <row r="348" spans="2:10" ht="15.75" thickBot="1">
+    <row r="348" spans="2:10" ht="15" thickBot="1">
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
@@ -6284,7 +6285,7 @@
       <c r="I348" s="2"/>
       <c r="J348" s="2"/>
     </row>
-    <row r="349" spans="2:10" ht="15.75" thickBot="1">
+    <row r="349" spans="2:10" ht="15" thickBot="1">
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
@@ -6295,7 +6296,7 @@
       <c r="I349" s="2"/>
       <c r="J349" s="2"/>
     </row>
-    <row r="350" spans="2:10" ht="15.75" thickBot="1">
+    <row r="350" spans="2:10" ht="15" thickBot="1">
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -6306,7 +6307,7 @@
       <c r="I350" s="2"/>
       <c r="J350" s="2"/>
     </row>
-    <row r="351" spans="2:10" ht="15.75" thickBot="1">
+    <row r="351" spans="2:10" ht="15" thickBot="1">
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -6317,7 +6318,7 @@
       <c r="I351" s="2"/>
       <c r="J351" s="2"/>
     </row>
-    <row r="352" spans="2:10" ht="15.75" thickBot="1">
+    <row r="352" spans="2:10" ht="15" thickBot="1">
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -6328,7 +6329,7 @@
       <c r="I352" s="2"/>
       <c r="J352" s="2"/>
     </row>
-    <row r="353" spans="2:10" ht="15.75" thickBot="1">
+    <row r="353" spans="2:10" ht="15" thickBot="1">
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -6339,7 +6340,7 @@
       <c r="I353" s="2"/>
       <c r="J353" s="2"/>
     </row>
-    <row r="354" spans="2:10" ht="15.75" thickBot="1">
+    <row r="354" spans="2:10" ht="15" thickBot="1">
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -6350,7 +6351,7 @@
       <c r="I354" s="2"/>
       <c r="J354" s="2"/>
     </row>
-    <row r="355" spans="2:10" ht="15.75" thickBot="1">
+    <row r="355" spans="2:10" ht="15" thickBot="1">
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
@@ -6361,7 +6362,7 @@
       <c r="I355" s="2"/>
       <c r="J355" s="2"/>
     </row>
-    <row r="356" spans="2:10" ht="15.75" thickBot="1">
+    <row r="356" spans="2:10" ht="15" thickBot="1">
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -6372,7 +6373,7 @@
       <c r="I356" s="2"/>
       <c r="J356" s="2"/>
     </row>
-    <row r="357" spans="2:10" ht="15.75" thickBot="1">
+    <row r="357" spans="2:10" ht="15" thickBot="1">
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -6383,7 +6384,7 @@
       <c r="I357" s="2"/>
       <c r="J357" s="2"/>
     </row>
-    <row r="358" spans="2:10" ht="15.75" thickBot="1">
+    <row r="358" spans="2:10" ht="15" thickBot="1">
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -6394,7 +6395,7 @@
       <c r="I358" s="2"/>
       <c r="J358" s="2"/>
     </row>
-    <row r="359" spans="2:10" ht="15.75" thickBot="1">
+    <row r="359" spans="2:10" ht="15" thickBot="1">
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -6405,7 +6406,7 @@
       <c r="I359" s="2"/>
       <c r="J359" s="2"/>
     </row>
-    <row r="360" spans="2:10" ht="15.75" thickBot="1">
+    <row r="360" spans="2:10" ht="15" thickBot="1">
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
@@ -6416,7 +6417,7 @@
       <c r="I360" s="2"/>
       <c r="J360" s="2"/>
     </row>
-    <row r="361" spans="2:10" ht="15.75" thickBot="1">
+    <row r="361" spans="2:10" ht="15" thickBot="1">
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -6427,7 +6428,7 @@
       <c r="I361" s="2"/>
       <c r="J361" s="2"/>
     </row>
-    <row r="362" spans="2:10" ht="15.75" thickBot="1">
+    <row r="362" spans="2:10" ht="15" thickBot="1">
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -6438,7 +6439,7 @@
       <c r="I362" s="2"/>
       <c r="J362" s="2"/>
     </row>
-    <row r="363" spans="2:10" ht="15.75" thickBot="1">
+    <row r="363" spans="2:10" ht="15" thickBot="1">
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
@@ -6449,7 +6450,7 @@
       <c r="I363" s="2"/>
       <c r="J363" s="2"/>
     </row>
-    <row r="364" spans="2:10" ht="15.75" thickBot="1">
+    <row r="364" spans="2:10" ht="15" thickBot="1">
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -6460,7 +6461,7 @@
       <c r="I364" s="2"/>
       <c r="J364" s="2"/>
     </row>
-    <row r="365" spans="2:10" ht="15.75" thickBot="1">
+    <row r="365" spans="2:10" ht="15" thickBot="1">
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -6471,7 +6472,7 @@
       <c r="I365" s="2"/>
       <c r="J365" s="2"/>
     </row>
-    <row r="366" spans="2:10" ht="15.75" thickBot="1">
+    <row r="366" spans="2:10" ht="15" thickBot="1">
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -6482,7 +6483,7 @@
       <c r="I366" s="2"/>
       <c r="J366" s="2"/>
     </row>
-    <row r="367" spans="2:10" ht="15.75" thickBot="1">
+    <row r="367" spans="2:10" ht="15" thickBot="1">
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -6493,7 +6494,7 @@
       <c r="I367" s="2"/>
       <c r="J367" s="2"/>
     </row>
-    <row r="368" spans="2:10" ht="15.75" thickBot="1">
+    <row r="368" spans="2:10" ht="15" thickBot="1">
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
@@ -6504,7 +6505,7 @@
       <c r="I368" s="2"/>
       <c r="J368" s="2"/>
     </row>
-    <row r="369" spans="2:10" ht="15.75" thickBot="1">
+    <row r="369" spans="2:10" ht="15" thickBot="1">
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
@@ -6515,7 +6516,7 @@
       <c r="I369" s="2"/>
       <c r="J369" s="2"/>
     </row>
-    <row r="370" spans="2:10" ht="15.75" thickBot="1">
+    <row r="370" spans="2:10" ht="15" thickBot="1">
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
@@ -6526,7 +6527,7 @@
       <c r="I370" s="2"/>
       <c r="J370" s="2"/>
     </row>
-    <row r="371" spans="2:10" ht="15.75" thickBot="1">
+    <row r="371" spans="2:10" ht="15" thickBot="1">
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -6537,7 +6538,7 @@
       <c r="I371" s="2"/>
       <c r="J371" s="2"/>
     </row>
-    <row r="372" spans="2:10" ht="15.75" thickBot="1">
+    <row r="372" spans="2:10" ht="15" thickBot="1">
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -6548,7 +6549,7 @@
       <c r="I372" s="2"/>
       <c r="J372" s="2"/>
     </row>
-    <row r="373" spans="2:10" ht="15.75" thickBot="1">
+    <row r="373" spans="2:10" ht="15" thickBot="1">
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -6559,7 +6560,7 @@
       <c r="I373" s="2"/>
       <c r="J373" s="2"/>
     </row>
-    <row r="374" spans="2:10" ht="15.75" thickBot="1">
+    <row r="374" spans="2:10" ht="15" thickBot="1">
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -6570,7 +6571,7 @@
       <c r="I374" s="2"/>
       <c r="J374" s="2"/>
     </row>
-    <row r="375" spans="2:10" ht="15.75" thickBot="1">
+    <row r="375" spans="2:10" ht="15" thickBot="1">
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -6581,7 +6582,7 @@
       <c r="I375" s="2"/>
       <c r="J375" s="2"/>
     </row>
-    <row r="376" spans="2:10" ht="15.75" thickBot="1">
+    <row r="376" spans="2:10" ht="15" thickBot="1">
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
@@ -6592,7 +6593,7 @@
       <c r="I376" s="2"/>
       <c r="J376" s="2"/>
     </row>
-    <row r="377" spans="2:10" ht="15.75" thickBot="1">
+    <row r="377" spans="2:10" ht="15" thickBot="1">
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
@@ -6603,7 +6604,7 @@
       <c r="I377" s="2"/>
       <c r="J377" s="2"/>
     </row>
-    <row r="378" spans="2:10" ht="15.75" thickBot="1">
+    <row r="378" spans="2:10" ht="15" thickBot="1">
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -6614,7 +6615,7 @@
       <c r="I378" s="2"/>
       <c r="J378" s="2"/>
     </row>
-    <row r="379" spans="2:10" ht="15.75" thickBot="1">
+    <row r="379" spans="2:10" ht="15" thickBot="1">
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -6625,7 +6626,7 @@
       <c r="I379" s="2"/>
       <c r="J379" s="2"/>
     </row>
-    <row r="380" spans="2:10" ht="15.75" thickBot="1">
+    <row r="380" spans="2:10" ht="15" thickBot="1">
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -6636,7 +6637,7 @@
       <c r="I380" s="2"/>
       <c r="J380" s="2"/>
     </row>
-    <row r="381" spans="2:10" ht="15.75" thickBot="1">
+    <row r="381" spans="2:10" ht="15" thickBot="1">
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -6647,7 +6648,7 @@
       <c r="I381" s="2"/>
       <c r="J381" s="2"/>
     </row>
-    <row r="382" spans="2:10" ht="15.75" thickBot="1">
+    <row r="382" spans="2:10" ht="15" thickBot="1">
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -6658,7 +6659,7 @@
       <c r="I382" s="2"/>
       <c r="J382" s="2"/>
     </row>
-    <row r="383" spans="2:10" ht="15.75" thickBot="1">
+    <row r="383" spans="2:10" ht="15" thickBot="1">
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
@@ -6669,7 +6670,7 @@
       <c r="I383" s="2"/>
       <c r="J383" s="2"/>
     </row>
-    <row r="384" spans="2:10" ht="15.75" thickBot="1">
+    <row r="384" spans="2:10" ht="15" thickBot="1">
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
@@ -6680,7 +6681,7 @@
       <c r="I384" s="2"/>
       <c r="J384" s="2"/>
     </row>
-    <row r="385" spans="2:10" ht="15.75" thickBot="1">
+    <row r="385" spans="2:10" ht="15" thickBot="1">
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -6691,7 +6692,7 @@
       <c r="I385" s="2"/>
       <c r="J385" s="2"/>
     </row>
-    <row r="386" spans="2:10" ht="15.75" thickBot="1">
+    <row r="386" spans="2:10" ht="15" thickBot="1">
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -6702,7 +6703,7 @@
       <c r="I386" s="2"/>
       <c r="J386" s="2"/>
     </row>
-    <row r="387" spans="2:10" ht="15.75" thickBot="1">
+    <row r="387" spans="2:10" ht="15" thickBot="1">
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -6713,7 +6714,7 @@
       <c r="I387" s="2"/>
       <c r="J387" s="2"/>
     </row>
-    <row r="388" spans="2:10" ht="15.75" thickBot="1">
+    <row r="388" spans="2:10" ht="15" thickBot="1">
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -6724,7 +6725,7 @@
       <c r="I388" s="2"/>
       <c r="J388" s="2"/>
     </row>
-    <row r="389" spans="2:10" ht="15.75" thickBot="1">
+    <row r="389" spans="2:10" ht="15" thickBot="1">
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -6735,7 +6736,7 @@
       <c r="I389" s="2"/>
       <c r="J389" s="2"/>
     </row>
-    <row r="390" spans="2:10" ht="15.75" thickBot="1">
+    <row r="390" spans="2:10" ht="15" thickBot="1">
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
@@ -6746,7 +6747,7 @@
       <c r="I390" s="2"/>
       <c r="J390" s="2"/>
     </row>
-    <row r="391" spans="2:10" ht="15.75" thickBot="1">
+    <row r="391" spans="2:10" ht="15" thickBot="1">
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -6757,7 +6758,7 @@
       <c r="I391" s="2"/>
       <c r="J391" s="2"/>
     </row>
-    <row r="392" spans="2:10" ht="15.75" thickBot="1">
+    <row r="392" spans="2:10" ht="15" thickBot="1">
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -6768,7 +6769,7 @@
       <c r="I392" s="2"/>
       <c r="J392" s="2"/>
     </row>
-    <row r="393" spans="2:10" ht="15.75" thickBot="1">
+    <row r="393" spans="2:10" ht="15" thickBot="1">
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -6779,7 +6780,7 @@
       <c r="I393" s="2"/>
       <c r="J393" s="2"/>
     </row>
-    <row r="394" spans="2:10" ht="15.75" thickBot="1">
+    <row r="394" spans="2:10" ht="15" thickBot="1">
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -6790,7 +6791,7 @@
       <c r="I394" s="2"/>
       <c r="J394" s="2"/>
     </row>
-    <row r="395" spans="2:10" ht="15.75" thickBot="1">
+    <row r="395" spans="2:10" ht="15" thickBot="1">
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -6801,7 +6802,7 @@
       <c r="I395" s="2"/>
       <c r="J395" s="2"/>
     </row>
-    <row r="396" spans="2:10" ht="15.75" thickBot="1">
+    <row r="396" spans="2:10" ht="15" thickBot="1">
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -6812,7 +6813,7 @@
       <c r="I396" s="2"/>
       <c r="J396" s="2"/>
     </row>
-    <row r="397" spans="2:10" ht="15.75" thickBot="1">
+    <row r="397" spans="2:10" ht="15" thickBot="1">
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -6823,7 +6824,7 @@
       <c r="I397" s="2"/>
       <c r="J397" s="2"/>
     </row>
-    <row r="398" spans="2:10" ht="15.75" thickBot="1">
+    <row r="398" spans="2:10" ht="15" thickBot="1">
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -6834,7 +6835,7 @@
       <c r="I398" s="2"/>
       <c r="J398" s="2"/>
     </row>
-    <row r="399" spans="2:10" ht="15.75" thickBot="1">
+    <row r="399" spans="2:10" ht="15" thickBot="1">
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -6845,7 +6846,7 @@
       <c r="I399" s="2"/>
       <c r="J399" s="2"/>
     </row>
-    <row r="400" spans="2:10" ht="15.75" thickBot="1">
+    <row r="400" spans="2:10" ht="15" thickBot="1">
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -6856,7 +6857,7 @@
       <c r="I400" s="2"/>
       <c r="J400" s="2"/>
     </row>
-    <row r="401" spans="2:10" ht="15.75" thickBot="1">
+    <row r="401" spans="2:10" ht="15" thickBot="1">
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -6867,7 +6868,7 @@
       <c r="I401" s="2"/>
       <c r="J401" s="2"/>
     </row>
-    <row r="402" spans="2:10" ht="15.75" thickBot="1">
+    <row r="402" spans="2:10" ht="15" thickBot="1">
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -6878,7 +6879,7 @@
       <c r="I402" s="2"/>
       <c r="J402" s="2"/>
     </row>
-    <row r="403" spans="2:10" ht="15.75" thickBot="1">
+    <row r="403" spans="2:10" ht="15" thickBot="1">
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -6889,7 +6890,7 @@
       <c r="I403" s="2"/>
       <c r="J403" s="2"/>
     </row>
-    <row r="404" spans="2:10" ht="15.75" thickBot="1">
+    <row r="404" spans="2:10" ht="15" thickBot="1">
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -6900,7 +6901,7 @@
       <c r="I404" s="2"/>
       <c r="J404" s="2"/>
     </row>
-    <row r="405" spans="2:10" ht="15.75" thickBot="1">
+    <row r="405" spans="2:10" ht="15" thickBot="1">
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -6911,7 +6912,7 @@
       <c r="I405" s="2"/>
       <c r="J405" s="2"/>
     </row>
-    <row r="406" spans="2:10" ht="15.75" thickBot="1">
+    <row r="406" spans="2:10" ht="15" thickBot="1">
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -6922,7 +6923,7 @@
       <c r="I406" s="2"/>
       <c r="J406" s="2"/>
     </row>
-    <row r="407" spans="2:10" ht="15.75" thickBot="1">
+    <row r="407" spans="2:10" ht="15" thickBot="1">
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -6933,7 +6934,7 @@
       <c r="I407" s="2"/>
       <c r="J407" s="2"/>
     </row>
-    <row r="408" spans="2:10" ht="15.75" thickBot="1">
+    <row r="408" spans="2:10" ht="15" thickBot="1">
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -6944,7 +6945,7 @@
       <c r="I408" s="2"/>
       <c r="J408" s="2"/>
     </row>
-    <row r="409" spans="2:10" ht="15.75" thickBot="1">
+    <row r="409" spans="2:10" ht="15" thickBot="1">
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -6955,7 +6956,7 @@
       <c r="I409" s="2"/>
       <c r="J409" s="2"/>
     </row>
-    <row r="410" spans="2:10" ht="15.75" thickBot="1">
+    <row r="410" spans="2:10" ht="15" thickBot="1">
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -6966,7 +6967,7 @@
       <c r="I410" s="2"/>
       <c r="J410" s="2"/>
     </row>
-    <row r="411" spans="2:10" ht="15.75" thickBot="1">
+    <row r="411" spans="2:10" ht="15" thickBot="1">
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -6977,7 +6978,7 @@
       <c r="I411" s="2"/>
       <c r="J411" s="2"/>
     </row>
-    <row r="412" spans="2:10" ht="15.75" thickBot="1">
+    <row r="412" spans="2:10" ht="15" thickBot="1">
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
@@ -6988,7 +6989,7 @@
       <c r="I412" s="2"/>
       <c r="J412" s="2"/>
     </row>
-    <row r="413" spans="2:10" ht="15.75" thickBot="1">
+    <row r="413" spans="2:10" ht="15" thickBot="1">
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -6999,7 +7000,7 @@
       <c r="I413" s="2"/>
       <c r="J413" s="2"/>
     </row>
-    <row r="414" spans="2:10" ht="15.75" thickBot="1">
+    <row r="414" spans="2:10" ht="15" thickBot="1">
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -7010,7 +7011,7 @@
       <c r="I414" s="2"/>
       <c r="J414" s="2"/>
     </row>
-    <row r="415" spans="2:10" ht="15.75" thickBot="1">
+    <row r="415" spans="2:10" ht="15" thickBot="1">
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -7021,7 +7022,7 @@
       <c r="I415" s="2"/>
       <c r="J415" s="2"/>
     </row>
-    <row r="416" spans="2:10" ht="15.75" thickBot="1">
+    <row r="416" spans="2:10" ht="15" thickBot="1">
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -7032,7 +7033,7 @@
       <c r="I416" s="2"/>
       <c r="J416" s="2"/>
     </row>
-    <row r="417" spans="2:10" ht="15.75" thickBot="1">
+    <row r="417" spans="2:10" ht="15" thickBot="1">
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -7043,7 +7044,7 @@
       <c r="I417" s="2"/>
       <c r="J417" s="2"/>
     </row>
-    <row r="418" spans="2:10" ht="15.75" thickBot="1">
+    <row r="418" spans="2:10" ht="15" thickBot="1">
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -7054,7 +7055,7 @@
       <c r="I418" s="2"/>
       <c r="J418" s="2"/>
     </row>
-    <row r="419" spans="2:10" ht="15.75" thickBot="1">
+    <row r="419" spans="2:10" ht="15" thickBot="1">
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -7065,7 +7066,7 @@
       <c r="I419" s="2"/>
       <c r="J419" s="2"/>
     </row>
-    <row r="420" spans="2:10" ht="15.75" thickBot="1">
+    <row r="420" spans="2:10" ht="15" thickBot="1">
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -7076,7 +7077,7 @@
       <c r="I420" s="2"/>
       <c r="J420" s="2"/>
     </row>
-    <row r="421" spans="2:10" ht="15.75" thickBot="1">
+    <row r="421" spans="2:10" ht="15" thickBot="1">
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -7087,7 +7088,7 @@
       <c r="I421" s="2"/>
       <c r="J421" s="2"/>
     </row>
-    <row r="422" spans="2:10" ht="15.75" thickBot="1">
+    <row r="422" spans="2:10" ht="15" thickBot="1">
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -7098,7 +7099,7 @@
       <c r="I422" s="2"/>
       <c r="J422" s="2"/>
     </row>
-    <row r="423" spans="2:10" ht="15.75" thickBot="1">
+    <row r="423" spans="2:10" ht="15" thickBot="1">
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -7109,7 +7110,7 @@
       <c r="I423" s="2"/>
       <c r="J423" s="2"/>
     </row>
-    <row r="424" spans="2:10" ht="15.75" thickBot="1">
+    <row r="424" spans="2:10" ht="15" thickBot="1">
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -7120,7 +7121,7 @@
       <c r="I424" s="2"/>
       <c r="J424" s="2"/>
     </row>
-    <row r="425" spans="2:10" ht="15.75" thickBot="1">
+    <row r="425" spans="2:10" ht="15" thickBot="1">
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
@@ -7131,7 +7132,7 @@
       <c r="I425" s="2"/>
       <c r="J425" s="2"/>
     </row>
-    <row r="426" spans="2:10" ht="15.75" thickBot="1">
+    <row r="426" spans="2:10" ht="15" thickBot="1">
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
@@ -7142,7 +7143,7 @@
       <c r="I426" s="2"/>
       <c r="J426" s="2"/>
     </row>
-    <row r="427" spans="2:10" ht="15.75" thickBot="1">
+    <row r="427" spans="2:10" ht="15" thickBot="1">
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
@@ -7153,7 +7154,7 @@
       <c r="I427" s="2"/>
       <c r="J427" s="2"/>
     </row>
-    <row r="428" spans="2:10" ht="15.75" thickBot="1">
+    <row r="428" spans="2:10" ht="15" thickBot="1">
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
@@ -7164,7 +7165,7 @@
       <c r="I428" s="2"/>
       <c r="J428" s="2"/>
     </row>
-    <row r="429" spans="2:10" ht="15.75" thickBot="1">
+    <row r="429" spans="2:10" ht="15" thickBot="1">
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -7175,7 +7176,7 @@
       <c r="I429" s="2"/>
       <c r="J429" s="2"/>
     </row>
-    <row r="430" spans="2:10" ht="15.75" thickBot="1">
+    <row r="430" spans="2:10" ht="15" thickBot="1">
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -7186,7 +7187,7 @@
       <c r="I430" s="2"/>
       <c r="J430" s="2"/>
     </row>
-    <row r="431" spans="2:10" ht="15.75" thickBot="1">
+    <row r="431" spans="2:10" ht="15" thickBot="1">
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -7197,7 +7198,7 @@
       <c r="I431" s="2"/>
       <c r="J431" s="2"/>
     </row>
-    <row r="432" spans="2:10" ht="15.75" thickBot="1">
+    <row r="432" spans="2:10" ht="15" thickBot="1">
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -7208,7 +7209,7 @@
       <c r="I432" s="2"/>
       <c r="J432" s="2"/>
     </row>
-    <row r="433" spans="2:10" ht="15.75" thickBot="1">
+    <row r="433" spans="2:10" ht="15" thickBot="1">
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -7219,7 +7220,7 @@
       <c r="I433" s="2"/>
       <c r="J433" s="2"/>
     </row>
-    <row r="434" spans="2:10" ht="15.75" thickBot="1">
+    <row r="434" spans="2:10" ht="15" thickBot="1">
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -7230,7 +7231,7 @@
       <c r="I434" s="2"/>
       <c r="J434" s="2"/>
     </row>
-    <row r="435" spans="2:10" ht="15.75" thickBot="1">
+    <row r="435" spans="2:10" ht="15" thickBot="1">
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -7241,7 +7242,7 @@
       <c r="I435" s="2"/>
       <c r="J435" s="2"/>
     </row>
-    <row r="436" spans="2:10" ht="15.75" thickBot="1">
+    <row r="436" spans="2:10" ht="15" thickBot="1">
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -7252,7 +7253,7 @@
       <c r="I436" s="2"/>
       <c r="J436" s="2"/>
     </row>
-    <row r="437" spans="2:10" ht="15.75" thickBot="1">
+    <row r="437" spans="2:10" ht="15" thickBot="1">
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -7263,7 +7264,7 @@
       <c r="I437" s="2"/>
       <c r="J437" s="2"/>
     </row>
-    <row r="438" spans="2:10" ht="15.75" thickBot="1">
+    <row r="438" spans="2:10" ht="15" thickBot="1">
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -7274,7 +7275,7 @@
       <c r="I438" s="2"/>
       <c r="J438" s="2"/>
     </row>
-    <row r="439" spans="2:10" ht="15.75" thickBot="1">
+    <row r="439" spans="2:10" ht="15" thickBot="1">
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
@@ -7285,7 +7286,7 @@
       <c r="I439" s="2"/>
       <c r="J439" s="2"/>
     </row>
-    <row r="440" spans="2:10" ht="15.75" thickBot="1">
+    <row r="440" spans="2:10" ht="15" thickBot="1">
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -7296,7 +7297,7 @@
       <c r="I440" s="2"/>
       <c r="J440" s="2"/>
     </row>
-    <row r="441" spans="2:10" ht="15.75" thickBot="1">
+    <row r="441" spans="2:10" ht="15" thickBot="1">
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
@@ -7307,7 +7308,7 @@
       <c r="I441" s="2"/>
       <c r="J441" s="2"/>
     </row>
-    <row r="442" spans="2:10" ht="15.75" thickBot="1">
+    <row r="442" spans="2:10" ht="15" thickBot="1">
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -7318,7 +7319,7 @@
       <c r="I442" s="2"/>
       <c r="J442" s="2"/>
     </row>
-    <row r="443" spans="2:10" ht="15.75" thickBot="1">
+    <row r="443" spans="2:10" ht="15" thickBot="1">
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -7329,7 +7330,7 @@
       <c r="I443" s="2"/>
       <c r="J443" s="2"/>
     </row>
-    <row r="444" spans="2:10" ht="15.75" thickBot="1">
+    <row r="444" spans="2:10" ht="15" thickBot="1">
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -7340,7 +7341,7 @@
       <c r="I444" s="2"/>
       <c r="J444" s="2"/>
     </row>
-    <row r="445" spans="2:10" ht="15.75" thickBot="1">
+    <row r="445" spans="2:10" ht="15" thickBot="1">
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -7351,7 +7352,7 @@
       <c r="I445" s="2"/>
       <c r="J445" s="2"/>
     </row>
-    <row r="446" spans="2:10" ht="15.75" thickBot="1">
+    <row r="446" spans="2:10" ht="15" thickBot="1">
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
@@ -7362,7 +7363,7 @@
       <c r="I446" s="2"/>
       <c r="J446" s="2"/>
     </row>
-    <row r="447" spans="2:10" ht="15.75" thickBot="1">
+    <row r="447" spans="2:10" ht="15" thickBot="1">
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
@@ -7373,7 +7374,7 @@
       <c r="I447" s="2"/>
       <c r="J447" s="2"/>
     </row>
-    <row r="448" spans="2:10" ht="15.75" thickBot="1">
+    <row r="448" spans="2:10" ht="15" thickBot="1">
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -7384,7 +7385,7 @@
       <c r="I448" s="2"/>
       <c r="J448" s="2"/>
     </row>
-    <row r="449" spans="2:10" ht="15.75" thickBot="1">
+    <row r="449" spans="2:10" ht="15" thickBot="1">
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -7395,7 +7396,7 @@
       <c r="I449" s="2"/>
       <c r="J449" s="2"/>
     </row>
-    <row r="450" spans="2:10" ht="15.75" thickBot="1">
+    <row r="450" spans="2:10" ht="15" thickBot="1">
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
@@ -7406,7 +7407,7 @@
       <c r="I450" s="2"/>
       <c r="J450" s="2"/>
     </row>
-    <row r="451" spans="2:10" ht="15.75" thickBot="1">
+    <row r="451" spans="2:10" ht="15" thickBot="1">
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -7417,7 +7418,7 @@
       <c r="I451" s="2"/>
       <c r="J451" s="2"/>
     </row>
-    <row r="452" spans="2:10" ht="15.75" thickBot="1">
+    <row r="452" spans="2:10" ht="15" thickBot="1">
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
@@ -7428,7 +7429,7 @@
       <c r="I452" s="2"/>
       <c r="J452" s="2"/>
     </row>
-    <row r="453" spans="2:10" ht="15.75" thickBot="1">
+    <row r="453" spans="2:10" ht="15" thickBot="1">
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
@@ -7439,7 +7440,7 @@
       <c r="I453" s="2"/>
       <c r="J453" s="2"/>
     </row>
-    <row r="454" spans="2:10" ht="15.75" thickBot="1">
+    <row r="454" spans="2:10" ht="15" thickBot="1">
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
@@ -7450,7 +7451,7 @@
       <c r="I454" s="2"/>
       <c r="J454" s="2"/>
     </row>
-    <row r="455" spans="2:10" ht="15.75" thickBot="1">
+    <row r="455" spans="2:10" ht="15" thickBot="1">
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -7461,7 +7462,7 @@
       <c r="I455" s="2"/>
       <c r="J455" s="2"/>
     </row>
-    <row r="456" spans="2:10" ht="15.75" thickBot="1">
+    <row r="456" spans="2:10" ht="15" thickBot="1">
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
@@ -7472,7 +7473,7 @@
       <c r="I456" s="2"/>
       <c r="J456" s="2"/>
     </row>
-    <row r="457" spans="2:10" ht="15.75" thickBot="1">
+    <row r="457" spans="2:10" ht="15" thickBot="1">
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -7483,7 +7484,7 @@
       <c r="I457" s="2"/>
       <c r="J457" s="2"/>
     </row>
-    <row r="458" spans="2:10" ht="15.75" thickBot="1">
+    <row r="458" spans="2:10" ht="15" thickBot="1">
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -7494,7 +7495,7 @@
       <c r="I458" s="2"/>
       <c r="J458" s="2"/>
     </row>
-    <row r="459" spans="2:10" ht="15.75" thickBot="1">
+    <row r="459" spans="2:10" ht="15" thickBot="1">
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -7505,7 +7506,7 @@
       <c r="I459" s="2"/>
       <c r="J459" s="2"/>
     </row>
-    <row r="460" spans="2:10" ht="15.75" thickBot="1">
+    <row r="460" spans="2:10" ht="15" thickBot="1">
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -7516,7 +7517,7 @@
       <c r="I460" s="2"/>
       <c r="J460" s="2"/>
     </row>
-    <row r="461" spans="2:10" ht="15.75" thickBot="1">
+    <row r="461" spans="2:10" ht="15" thickBot="1">
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -7527,7 +7528,7 @@
       <c r="I461" s="2"/>
       <c r="J461" s="2"/>
     </row>
-    <row r="462" spans="2:10" ht="15.75" thickBot="1">
+    <row r="462" spans="2:10" ht="15" thickBot="1">
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
@@ -7538,7 +7539,7 @@
       <c r="I462" s="2"/>
       <c r="J462" s="2"/>
     </row>
-    <row r="463" spans="2:10" ht="15.75" thickBot="1">
+    <row r="463" spans="2:10" ht="15" thickBot="1">
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
@@ -7549,7 +7550,7 @@
       <c r="I463" s="2"/>
       <c r="J463" s="2"/>
     </row>
-    <row r="464" spans="2:10" ht="15.75" thickBot="1">
+    <row r="464" spans="2:10" ht="15" thickBot="1">
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -7560,7 +7561,7 @@
       <c r="I464" s="2"/>
       <c r="J464" s="2"/>
     </row>
-    <row r="465" spans="2:10" ht="15.75" thickBot="1">
+    <row r="465" spans="2:10" ht="15" thickBot="1">
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
@@ -7571,7 +7572,7 @@
       <c r="I465" s="2"/>
       <c r="J465" s="2"/>
     </row>
-    <row r="466" spans="2:10" ht="15.75" thickBot="1">
+    <row r="466" spans="2:10" ht="15" thickBot="1">
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -7582,7 +7583,7 @@
       <c r="I466" s="2"/>
       <c r="J466" s="2"/>
     </row>
-    <row r="467" spans="2:10" ht="15.75" thickBot="1">
+    <row r="467" spans="2:10" ht="15" thickBot="1">
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -7593,7 +7594,7 @@
       <c r="I467" s="2"/>
       <c r="J467" s="2"/>
     </row>
-    <row r="468" spans="2:10" ht="15.75" thickBot="1">
+    <row r="468" spans="2:10" ht="15" thickBot="1">
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -7604,7 +7605,7 @@
       <c r="I468" s="2"/>
       <c r="J468" s="2"/>
     </row>
-    <row r="469" spans="2:10" ht="15.75" thickBot="1">
+    <row r="469" spans="2:10" ht="15" thickBot="1">
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -7615,7 +7616,7 @@
       <c r="I469" s="2"/>
       <c r="J469" s="2"/>
     </row>
-    <row r="470" spans="2:10" ht="15.75" thickBot="1">
+    <row r="470" spans="2:10" ht="15" thickBot="1">
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
@@ -7626,7 +7627,7 @@
       <c r="I470" s="2"/>
       <c r="J470" s="2"/>
     </row>
-    <row r="471" spans="2:10" ht="15.75" thickBot="1">
+    <row r="471" spans="2:10" ht="15" thickBot="1">
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -7637,7 +7638,7 @@
       <c r="I471" s="2"/>
       <c r="J471" s="2"/>
     </row>
-    <row r="472" spans="2:10" ht="15.75" thickBot="1">
+    <row r="472" spans="2:10" ht="15" thickBot="1">
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -7648,7 +7649,7 @@
       <c r="I472" s="2"/>
       <c r="J472" s="2"/>
     </row>
-    <row r="473" spans="2:10" ht="15.75" thickBot="1">
+    <row r="473" spans="2:10" ht="15" thickBot="1">
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -7659,7 +7660,7 @@
       <c r="I473" s="2"/>
       <c r="J473" s="2"/>
     </row>
-    <row r="474" spans="2:10" ht="15.75" thickBot="1">
+    <row r="474" spans="2:10" ht="15" thickBot="1">
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -7670,7 +7671,7 @@
       <c r="I474" s="2"/>
       <c r="J474" s="2"/>
     </row>
-    <row r="475" spans="2:10" ht="15.75" thickBot="1">
+    <row r="475" spans="2:10" ht="15" thickBot="1">
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -7681,7 +7682,7 @@
       <c r="I475" s="2"/>
       <c r="J475" s="2"/>
     </row>
-    <row r="476" spans="2:10" ht="15.75" thickBot="1">
+    <row r="476" spans="2:10" ht="15" thickBot="1">
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
@@ -7692,7 +7693,7 @@
       <c r="I476" s="2"/>
       <c r="J476" s="2"/>
     </row>
-    <row r="477" spans="2:10" ht="15.75" thickBot="1">
+    <row r="477" spans="2:10" ht="15" thickBot="1">
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -7703,7 +7704,7 @@
       <c r="I477" s="2"/>
       <c r="J477" s="2"/>
     </row>
-    <row r="478" spans="2:10" ht="15.75" thickBot="1">
+    <row r="478" spans="2:10" ht="15" thickBot="1">
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -7714,7 +7715,7 @@
       <c r="I478" s="2"/>
       <c r="J478" s="2"/>
     </row>
-    <row r="479" spans="2:10" ht="15.75" thickBot="1">
+    <row r="479" spans="2:10" ht="15" thickBot="1">
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -7725,7 +7726,7 @@
       <c r="I479" s="2"/>
       <c r="J479" s="2"/>
     </row>
-    <row r="480" spans="2:10" ht="15.75" thickBot="1">
+    <row r="480" spans="2:10" ht="15" thickBot="1">
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
@@ -7736,7 +7737,7 @@
       <c r="I480" s="2"/>
       <c r="J480" s="2"/>
     </row>
-    <row r="481" spans="2:10" ht="15.75" thickBot="1">
+    <row r="481" spans="2:10" ht="15" thickBot="1">
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
@@ -7747,7 +7748,7 @@
       <c r="I481" s="2"/>
       <c r="J481" s="2"/>
     </row>
-    <row r="482" spans="2:10" ht="15.75" thickBot="1">
+    <row r="482" spans="2:10" ht="15" thickBot="1">
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -7758,7 +7759,7 @@
       <c r="I482" s="2"/>
       <c r="J482" s="2"/>
     </row>
-    <row r="483" spans="2:10" ht="15.75" thickBot="1">
+    <row r="483" spans="2:10" ht="15" thickBot="1">
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -7769,7 +7770,7 @@
       <c r="I483" s="2"/>
       <c r="J483" s="2"/>
     </row>
-    <row r="484" spans="2:10" ht="15.75" thickBot="1">
+    <row r="484" spans="2:10" ht="15" thickBot="1">
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -7780,7 +7781,7 @@
       <c r="I484" s="2"/>
       <c r="J484" s="2"/>
     </row>
-    <row r="485" spans="2:10" ht="15.75" thickBot="1">
+    <row r="485" spans="2:10" ht="15" thickBot="1">
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -7791,7 +7792,7 @@
       <c r="I485" s="2"/>
       <c r="J485" s="2"/>
     </row>
-    <row r="486" spans="2:10" ht="15.75" thickBot="1">
+    <row r="486" spans="2:10" ht="15" thickBot="1">
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
@@ -7802,7 +7803,7 @@
       <c r="I486" s="2"/>
       <c r="J486" s="2"/>
     </row>
-    <row r="487" spans="2:10" ht="15.75" thickBot="1">
+    <row r="487" spans="2:10" ht="15" thickBot="1">
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -7813,7 +7814,7 @@
       <c r="I487" s="2"/>
       <c r="J487" s="2"/>
     </row>
-    <row r="488" spans="2:10" ht="15.75" thickBot="1">
+    <row r="488" spans="2:10" ht="15" thickBot="1">
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -7824,7 +7825,7 @@
       <c r="I488" s="2"/>
       <c r="J488" s="2"/>
     </row>
-    <row r="489" spans="2:10" ht="15.75" thickBot="1">
+    <row r="489" spans="2:10" ht="15" thickBot="1">
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -7835,7 +7836,7 @@
       <c r="I489" s="2"/>
       <c r="J489" s="2"/>
     </row>
-    <row r="490" spans="2:10" ht="15.75" thickBot="1">
+    <row r="490" spans="2:10" ht="15" thickBot="1">
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
@@ -7846,7 +7847,7 @@
       <c r="I490" s="2"/>
       <c r="J490" s="2"/>
     </row>
-    <row r="491" spans="2:10" ht="15.75" thickBot="1">
+    <row r="491" spans="2:10" ht="15" thickBot="1">
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
@@ -7857,7 +7858,7 @@
       <c r="I491" s="2"/>
       <c r="J491" s="2"/>
     </row>
-    <row r="492" spans="2:10" ht="15.75" thickBot="1">
+    <row r="492" spans="2:10" ht="15" thickBot="1">
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
@@ -7868,7 +7869,7 @@
       <c r="I492" s="2"/>
       <c r="J492" s="2"/>
     </row>
-    <row r="493" spans="2:10" ht="15.75" thickBot="1">
+    <row r="493" spans="2:10" ht="15" thickBot="1">
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
@@ -7879,7 +7880,7 @@
       <c r="I493" s="2"/>
       <c r="J493" s="2"/>
     </row>
-    <row r="494" spans="2:10" ht="15.75" thickBot="1">
+    <row r="494" spans="2:10" ht="15" thickBot="1">
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
@@ -7890,7 +7891,7 @@
       <c r="I494" s="2"/>
       <c r="J494" s="2"/>
     </row>
-    <row r="495" spans="2:10" ht="15.75" thickBot="1">
+    <row r="495" spans="2:10" ht="15" thickBot="1">
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
@@ -7901,7 +7902,7 @@
       <c r="I495" s="2"/>
       <c r="J495" s="2"/>
     </row>
-    <row r="496" spans="2:10" ht="15.75" thickBot="1">
+    <row r="496" spans="2:10" ht="15" thickBot="1">
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
@@ -7912,7 +7913,7 @@
       <c r="I496" s="2"/>
       <c r="J496" s="2"/>
     </row>
-    <row r="497" spans="2:10" ht="15.75" thickBot="1">
+    <row r="497" spans="2:10" ht="15" thickBot="1">
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
@@ -7923,7 +7924,7 @@
       <c r="I497" s="2"/>
       <c r="J497" s="2"/>
     </row>
-    <row r="498" spans="2:10" ht="15.75" thickBot="1">
+    <row r="498" spans="2:10" ht="15" thickBot="1">
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -7934,7 +7935,7 @@
       <c r="I498" s="2"/>
       <c r="J498" s="2"/>
     </row>
-    <row r="499" spans="2:10" ht="15.75" thickBot="1">
+    <row r="499" spans="2:10" ht="15" thickBot="1">
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -7945,7 +7946,7 @@
       <c r="I499" s="2"/>
       <c r="J499" s="2"/>
     </row>
-    <row r="500" spans="2:10" ht="15.75" thickBot="1">
+    <row r="500" spans="2:10" ht="15" thickBot="1">
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -7956,7 +7957,7 @@
       <c r="I500" s="2"/>
       <c r="J500" s="2"/>
     </row>
-    <row r="501" spans="2:10" ht="15.75" thickBot="1">
+    <row r="501" spans="2:10" ht="15" thickBot="1">
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -7967,7 +7968,7 @@
       <c r="I501" s="2"/>
       <c r="J501" s="2"/>
     </row>
-    <row r="502" spans="2:10" ht="15.75" thickBot="1">
+    <row r="502" spans="2:10" ht="15" thickBot="1">
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -7978,7 +7979,7 @@
       <c r="I502" s="2"/>
       <c r="J502" s="2"/>
     </row>
-    <row r="503" spans="2:10" ht="15.75" thickBot="1">
+    <row r="503" spans="2:10" ht="15" thickBot="1">
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -7989,7 +7990,7 @@
       <c r="I503" s="2"/>
       <c r="J503" s="2"/>
     </row>
-    <row r="504" spans="2:10" ht="15.75" thickBot="1">
+    <row r="504" spans="2:10" ht="15" thickBot="1">
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -8000,7 +8001,7 @@
       <c r="I504" s="2"/>
       <c r="J504" s="2"/>
     </row>
-    <row r="505" spans="2:10" ht="15.75" thickBot="1">
+    <row r="505" spans="2:10" ht="15" thickBot="1">
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -8011,7 +8012,7 @@
       <c r="I505" s="2"/>
       <c r="J505" s="2"/>
     </row>
-    <row r="506" spans="2:10" ht="15.75" thickBot="1">
+    <row r="506" spans="2:10" ht="15" thickBot="1">
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -8022,7 +8023,7 @@
       <c r="I506" s="2"/>
       <c r="J506" s="2"/>
     </row>
-    <row r="507" spans="2:10" ht="15.75" thickBot="1">
+    <row r="507" spans="2:10" ht="15" thickBot="1">
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -8033,7 +8034,7 @@
       <c r="I507" s="2"/>
       <c r="J507" s="2"/>
     </row>
-    <row r="508" spans="2:10" ht="15.75" thickBot="1">
+    <row r="508" spans="2:10" ht="15" thickBot="1">
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -8044,7 +8045,7 @@
       <c r="I508" s="2"/>
       <c r="J508" s="2"/>
     </row>
-    <row r="509" spans="2:10" ht="15.75" thickBot="1">
+    <row r="509" spans="2:10" ht="15" thickBot="1">
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -8055,7 +8056,7 @@
       <c r="I509" s="2"/>
       <c r="J509" s="2"/>
     </row>
-    <row r="510" spans="2:10" ht="15.75" thickBot="1">
+    <row r="510" spans="2:10" ht="15" thickBot="1">
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -8066,7 +8067,7 @@
       <c r="I510" s="2"/>
       <c r="J510" s="2"/>
     </row>
-    <row r="511" spans="2:10" ht="15.75" thickBot="1">
+    <row r="511" spans="2:10" ht="15" thickBot="1">
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -8077,7 +8078,7 @@
       <c r="I511" s="2"/>
       <c r="J511" s="2"/>
     </row>
-    <row r="512" spans="2:10" ht="15.75" thickBot="1">
+    <row r="512" spans="2:10" ht="15" thickBot="1">
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -8088,7 +8089,7 @@
       <c r="I512" s="2"/>
       <c r="J512" s="2"/>
     </row>
-    <row r="513" spans="2:10" ht="15.75" thickBot="1">
+    <row r="513" spans="2:10" ht="15" thickBot="1">
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -8099,7 +8100,7 @@
       <c r="I513" s="2"/>
       <c r="J513" s="2"/>
     </row>
-    <row r="514" spans="2:10" ht="15.75" thickBot="1">
+    <row r="514" spans="2:10" ht="15" thickBot="1">
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -8110,7 +8111,7 @@
       <c r="I514" s="2"/>
       <c r="J514" s="2"/>
     </row>
-    <row r="515" spans="2:10" ht="15.75" thickBot="1">
+    <row r="515" spans="2:10" ht="15" thickBot="1">
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -8121,7 +8122,7 @@
       <c r="I515" s="2"/>
       <c r="J515" s="2"/>
     </row>
-    <row r="516" spans="2:10" ht="15.75" thickBot="1">
+    <row r="516" spans="2:10" ht="15" thickBot="1">
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -8132,7 +8133,7 @@
       <c r="I516" s="2"/>
       <c r="J516" s="2"/>
     </row>
-    <row r="517" spans="2:10" ht="15.75" thickBot="1">
+    <row r="517" spans="2:10" ht="15" thickBot="1">
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -8143,7 +8144,7 @@
       <c r="I517" s="2"/>
       <c r="J517" s="2"/>
     </row>
-    <row r="518" spans="2:10" ht="15.75" thickBot="1">
+    <row r="518" spans="2:10" ht="15" thickBot="1">
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -8154,7 +8155,7 @@
       <c r="I518" s="2"/>
       <c r="J518" s="2"/>
     </row>
-    <row r="519" spans="2:10" ht="15.75" thickBot="1">
+    <row r="519" spans="2:10" ht="15" thickBot="1">
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -8165,7 +8166,7 @@
       <c r="I519" s="2"/>
       <c r="J519" s="2"/>
     </row>
-    <row r="520" spans="2:10" ht="15.75" thickBot="1">
+    <row r="520" spans="2:10" ht="15" thickBot="1">
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -8176,7 +8177,7 @@
       <c r="I520" s="2"/>
       <c r="J520" s="2"/>
     </row>
-    <row r="521" spans="2:10" ht="15.75" thickBot="1">
+    <row r="521" spans="2:10" ht="15" thickBot="1">
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -8187,7 +8188,7 @@
       <c r="I521" s="2"/>
       <c r="J521" s="2"/>
     </row>
-    <row r="522" spans="2:10" ht="15.75" thickBot="1">
+    <row r="522" spans="2:10" ht="15" thickBot="1">
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -8198,7 +8199,7 @@
       <c r="I522" s="2"/>
       <c r="J522" s="2"/>
     </row>
-    <row r="523" spans="2:10" ht="15.75" thickBot="1">
+    <row r="523" spans="2:10" ht="15" thickBot="1">
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -8209,7 +8210,7 @@
       <c r="I523" s="2"/>
       <c r="J523" s="2"/>
     </row>
-    <row r="524" spans="2:10" ht="15.75" thickBot="1">
+    <row r="524" spans="2:10" ht="15" thickBot="1">
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -8220,7 +8221,7 @@
       <c r="I524" s="2"/>
       <c r="J524" s="2"/>
     </row>
-    <row r="525" spans="2:10" ht="15.75" thickBot="1">
+    <row r="525" spans="2:10" ht="15" thickBot="1">
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -8231,7 +8232,7 @@
       <c r="I525" s="2"/>
       <c r="J525" s="2"/>
     </row>
-    <row r="526" spans="2:10" ht="15.75" thickBot="1">
+    <row r="526" spans="2:10" ht="15" thickBot="1">
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -8242,7 +8243,7 @@
       <c r="I526" s="2"/>
       <c r="J526" s="2"/>
     </row>
-    <row r="527" spans="2:10" ht="15.75" thickBot="1">
+    <row r="527" spans="2:10" ht="15" thickBot="1">
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -8253,7 +8254,7 @@
       <c r="I527" s="2"/>
       <c r="J527" s="2"/>
     </row>
-    <row r="528" spans="2:10" ht="15.75" thickBot="1">
+    <row r="528" spans="2:10" ht="15" thickBot="1">
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -8264,7 +8265,7 @@
       <c r="I528" s="2"/>
       <c r="J528" s="2"/>
     </row>
-    <row r="529" spans="2:10" ht="15.75" thickBot="1">
+    <row r="529" spans="2:10" ht="15" thickBot="1">
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -8275,7 +8276,7 @@
       <c r="I529" s="2"/>
       <c r="J529" s="2"/>
     </row>
-    <row r="530" spans="2:10" ht="15.75" thickBot="1">
+    <row r="530" spans="2:10" ht="15" thickBot="1">
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -8286,7 +8287,7 @@
       <c r="I530" s="2"/>
       <c r="J530" s="2"/>
     </row>
-    <row r="531" spans="2:10" ht="15.75" thickBot="1">
+    <row r="531" spans="2:10" ht="15" thickBot="1">
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -8297,7 +8298,7 @@
       <c r="I531" s="2"/>
       <c r="J531" s="2"/>
     </row>
-    <row r="532" spans="2:10" ht="15.75" thickBot="1">
+    <row r="532" spans="2:10" ht="15" thickBot="1">
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -8308,7 +8309,7 @@
       <c r="I532" s="2"/>
       <c r="J532" s="2"/>
     </row>
-    <row r="533" spans="2:10" ht="15.75" thickBot="1">
+    <row r="533" spans="2:10" ht="15" thickBot="1">
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -8319,7 +8320,7 @@
       <c r="I533" s="2"/>
       <c r="J533" s="2"/>
     </row>
-    <row r="534" spans="2:10" ht="15.75" thickBot="1">
+    <row r="534" spans="2:10" ht="15" thickBot="1">
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -8330,7 +8331,7 @@
       <c r="I534" s="2"/>
       <c r="J534" s="2"/>
     </row>
-    <row r="535" spans="2:10" ht="15.75" thickBot="1">
+    <row r="535" spans="2:10" ht="15" thickBot="1">
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -8341,7 +8342,7 @@
       <c r="I535" s="2"/>
       <c r="J535" s="2"/>
     </row>
-    <row r="536" spans="2:10" ht="15.75" thickBot="1">
+    <row r="536" spans="2:10" ht="15" thickBot="1">
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -8352,7 +8353,7 @@
       <c r="I536" s="2"/>
       <c r="J536" s="2"/>
     </row>
-    <row r="537" spans="2:10" ht="15.75" thickBot="1">
+    <row r="537" spans="2:10" ht="15" thickBot="1">
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
@@ -8363,7 +8364,7 @@
       <c r="I537" s="2"/>
       <c r="J537" s="2"/>
     </row>
-    <row r="538" spans="2:10" ht="15.75" thickBot="1">
+    <row r="538" spans="2:10" ht="15" thickBot="1">
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
@@ -8374,7 +8375,7 @@
       <c r="I538" s="2"/>
       <c r="J538" s="2"/>
     </row>
-    <row r="539" spans="2:10" ht="15.75" thickBot="1">
+    <row r="539" spans="2:10" ht="15" thickBot="1">
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -8385,7 +8386,7 @@
       <c r="I539" s="2"/>
       <c r="J539" s="2"/>
     </row>
-    <row r="540" spans="2:10" ht="15.75" thickBot="1">
+    <row r="540" spans="2:10" ht="15" thickBot="1">
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -8396,7 +8397,7 @@
       <c r="I540" s="2"/>
       <c r="J540" s="2"/>
     </row>
-    <row r="541" spans="2:10" ht="15.75" thickBot="1">
+    <row r="541" spans="2:10" ht="15" thickBot="1">
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -8407,7 +8408,7 @@
       <c r="I541" s="2"/>
       <c r="J541" s="2"/>
     </row>
-    <row r="542" spans="2:10" ht="15.75" thickBot="1">
+    <row r="542" spans="2:10" ht="15" thickBot="1">
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -8418,7 +8419,7 @@
       <c r="I542" s="2"/>
       <c r="J542" s="2"/>
     </row>
-    <row r="543" spans="2:10" ht="15.75" thickBot="1">
+    <row r="543" spans="2:10" ht="15" thickBot="1">
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -8429,7 +8430,7 @@
       <c r="I543" s="2"/>
       <c r="J543" s="2"/>
     </row>
-    <row r="544" spans="2:10" ht="15.75" thickBot="1">
+    <row r="544" spans="2:10" ht="15" thickBot="1">
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
@@ -8440,7 +8441,7 @@
       <c r="I544" s="2"/>
       <c r="J544" s="2"/>
     </row>
-    <row r="545" spans="2:10" ht="15.75" thickBot="1">
+    <row r="545" spans="2:10" ht="15" thickBot="1">
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
@@ -8451,7 +8452,7 @@
       <c r="I545" s="2"/>
       <c r="J545" s="2"/>
     </row>
-    <row r="546" spans="2:10" ht="15.75" thickBot="1">
+    <row r="546" spans="2:10" ht="15" thickBot="1">
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
@@ -8462,7 +8463,7 @@
       <c r="I546" s="2"/>
       <c r="J546" s="2"/>
     </row>
-    <row r="547" spans="2:10" ht="15.75" thickBot="1">
+    <row r="547" spans="2:10" ht="15" thickBot="1">
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
@@ -8473,7 +8474,7 @@
       <c r="I547" s="2"/>
       <c r="J547" s="2"/>
     </row>
-    <row r="548" spans="2:10" ht="15.75" thickBot="1">
+    <row r="548" spans="2:10" ht="15" thickBot="1">
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -8484,7 +8485,7 @@
       <c r="I548" s="2"/>
       <c r="J548" s="2"/>
     </row>
-    <row r="549" spans="2:10" ht="15.75" thickBot="1">
+    <row r="549" spans="2:10" ht="15" thickBot="1">
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
@@ -8495,7 +8496,7 @@
       <c r="I549" s="2"/>
       <c r="J549" s="2"/>
     </row>
-    <row r="550" spans="2:10" ht="15.75" thickBot="1">
+    <row r="550" spans="2:10" ht="15" thickBot="1">
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
@@ -8506,7 +8507,7 @@
       <c r="I550" s="2"/>
       <c r="J550" s="2"/>
     </row>
-    <row r="551" spans="2:10" ht="15.75" thickBot="1">
+    <row r="551" spans="2:10" ht="15" thickBot="1">
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
@@ -8517,7 +8518,7 @@
       <c r="I551" s="2"/>
       <c r="J551" s="2"/>
     </row>
-    <row r="552" spans="2:10" ht="15.75" thickBot="1">
+    <row r="552" spans="2:10" ht="15" thickBot="1">
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
@@ -8528,7 +8529,7 @@
       <c r="I552" s="2"/>
       <c r="J552" s="2"/>
     </row>
-    <row r="553" spans="2:10" ht="15.75" thickBot="1">
+    <row r="553" spans="2:10" ht="15" thickBot="1">
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -8539,7 +8540,7 @@
       <c r="I553" s="2"/>
       <c r="J553" s="2"/>
     </row>
-    <row r="554" spans="2:10" ht="15.75" thickBot="1">
+    <row r="554" spans="2:10" ht="15" thickBot="1">
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -8550,7 +8551,7 @@
       <c r="I554" s="2"/>
       <c r="J554" s="2"/>
     </row>
-    <row r="555" spans="2:10" ht="15.75" thickBot="1">
+    <row r="555" spans="2:10" ht="15" thickBot="1">
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -8561,7 +8562,7 @@
       <c r="I555" s="2"/>
       <c r="J555" s="2"/>
     </row>
-    <row r="556" spans="2:10" ht="15.75" thickBot="1">
+    <row r="556" spans="2:10" ht="15" thickBot="1">
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -8572,7 +8573,7 @@
       <c r="I556" s="2"/>
       <c r="J556" s="2"/>
     </row>
-    <row r="557" spans="2:10" ht="15.75" thickBot="1">
+    <row r="557" spans="2:10" ht="15" thickBot="1">
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -8583,7 +8584,7 @@
       <c r="I557" s="2"/>
       <c r="J557" s="2"/>
     </row>
-    <row r="558" spans="2:10" ht="15.75" thickBot="1">
+    <row r="558" spans="2:10" ht="15" thickBot="1">
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
@@ -8594,7 +8595,7 @@
       <c r="I558" s="2"/>
       <c r="J558" s="2"/>
     </row>
-    <row r="559" spans="2:10" ht="15.75" thickBot="1">
+    <row r="559" spans="2:10" ht="15" thickBot="1">
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
@@ -8605,7 +8606,7 @@
       <c r="I559" s="2"/>
       <c r="J559" s="2"/>
     </row>
-    <row r="560" spans="2:10" ht="15.75" thickBot="1">
+    <row r="560" spans="2:10" ht="15" thickBot="1">
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -8616,7 +8617,7 @@
       <c r="I560" s="2"/>
       <c r="J560" s="2"/>
     </row>
-    <row r="561" spans="2:10" ht="15.75" thickBot="1">
+    <row r="561" spans="2:10" ht="15" thickBot="1">
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -8627,7 +8628,7 @@
       <c r="I561" s="2"/>
       <c r="J561" s="2"/>
     </row>
-    <row r="562" spans="2:10" ht="15.75" thickBot="1">
+    <row r="562" spans="2:10" ht="15" thickBot="1">
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
@@ -8638,7 +8639,7 @@
       <c r="I562" s="2"/>
       <c r="J562" s="2"/>
     </row>
-    <row r="563" spans="2:10" ht="15.75" thickBot="1">
+    <row r="563" spans="2:10" ht="15" thickBot="1">
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -8649,7 +8650,7 @@
       <c r="I563" s="2"/>
       <c r="J563" s="2"/>
     </row>
-    <row r="564" spans="2:10" ht="15.75" thickBot="1">
+    <row r="564" spans="2:10" ht="15" thickBot="1">
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -8660,7 +8661,7 @@
       <c r="I564" s="2"/>
       <c r="J564" s="2"/>
     </row>
-    <row r="565" spans="2:10" ht="15.75" thickBot="1">
+    <row r="565" spans="2:10" ht="15" thickBot="1">
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -8671,7 +8672,7 @@
       <c r="I565" s="2"/>
       <c r="J565" s="2"/>
     </row>
-    <row r="566" spans="2:10" ht="15.75" thickBot="1">
+    <row r="566" spans="2:10" ht="15" thickBot="1">
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -8682,7 +8683,7 @@
       <c r="I566" s="2"/>
       <c r="J566" s="2"/>
     </row>
-    <row r="567" spans="2:10" ht="15.75" thickBot="1">
+    <row r="567" spans="2:10" ht="15" thickBot="1">
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -8693,7 +8694,7 @@
       <c r="I567" s="2"/>
       <c r="J567" s="2"/>
     </row>
-    <row r="568" spans="2:10" ht="15.75" thickBot="1">
+    <row r="568" spans="2:10" ht="15" thickBot="1">
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -8704,7 +8705,7 @@
       <c r="I568" s="2"/>
       <c r="J568" s="2"/>
     </row>
-    <row r="569" spans="2:10" ht="15.75" thickBot="1">
+    <row r="569" spans="2:10" ht="15" thickBot="1">
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -8715,7 +8716,7 @@
       <c r="I569" s="2"/>
       <c r="J569" s="2"/>
     </row>
-    <row r="570" spans="2:10" ht="15.75" thickBot="1">
+    <row r="570" spans="2:10" ht="15" thickBot="1">
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -8726,7 +8727,7 @@
       <c r="I570" s="2"/>
       <c r="J570" s="2"/>
     </row>
-    <row r="571" spans="2:10" ht="15.75" thickBot="1">
+    <row r="571" spans="2:10" ht="15" thickBot="1">
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -8737,7 +8738,7 @@
       <c r="I571" s="2"/>
       <c r="J571" s="2"/>
     </row>
-    <row r="572" spans="2:10" ht="15.75" thickBot="1">
+    <row r="572" spans="2:10" ht="15" thickBot="1">
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -8748,7 +8749,7 @@
       <c r="I572" s="2"/>
       <c r="J572" s="2"/>
     </row>
-    <row r="573" spans="2:10" ht="15.75" thickBot="1">
+    <row r="573" spans="2:10" ht="15" thickBot="1">
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -8759,7 +8760,7 @@
       <c r="I573" s="2"/>
       <c r="J573" s="2"/>
     </row>
-    <row r="574" spans="2:10" ht="15.75" thickBot="1">
+    <row r="574" spans="2:10" ht="15" thickBot="1">
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -8770,7 +8771,7 @@
       <c r="I574" s="2"/>
       <c r="J574" s="2"/>
     </row>
-    <row r="575" spans="2:10" ht="15.75" thickBot="1">
+    <row r="575" spans="2:10" ht="15" thickBot="1">
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -8781,7 +8782,7 @@
       <c r="I575" s="2"/>
       <c r="J575" s="2"/>
     </row>
-    <row r="576" spans="2:10" ht="15.75" thickBot="1">
+    <row r="576" spans="2:10" ht="15" thickBot="1">
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -8792,7 +8793,7 @@
       <c r="I576" s="2"/>
       <c r="J576" s="2"/>
     </row>
-    <row r="577" spans="2:10" ht="15.75" thickBot="1">
+    <row r="577" spans="2:10" ht="15" thickBot="1">
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -8803,7 +8804,7 @@
       <c r="I577" s="2"/>
       <c r="J577" s="2"/>
     </row>
-    <row r="578" spans="2:10" ht="15.75" thickBot="1">
+    <row r="578" spans="2:10" ht="15" thickBot="1">
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -8814,7 +8815,7 @@
       <c r="I578" s="2"/>
       <c r="J578" s="2"/>
     </row>
-    <row r="579" spans="2:10" ht="15.75" thickBot="1">
+    <row r="579" spans="2:10" ht="15" thickBot="1">
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -8825,7 +8826,7 @@
       <c r="I579" s="2"/>
       <c r="J579" s="2"/>
     </row>
-    <row r="580" spans="2:10" ht="15.75" thickBot="1">
+    <row r="580" spans="2:10" ht="15" thickBot="1">
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -8836,7 +8837,7 @@
       <c r="I580" s="2"/>
       <c r="J580" s="2"/>
     </row>
-    <row r="581" spans="2:10" ht="15.75" thickBot="1">
+    <row r="581" spans="2:10" ht="15" thickBot="1">
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -8847,7 +8848,7 @@
       <c r="I581" s="2"/>
       <c r="J581" s="2"/>
     </row>
-    <row r="582" spans="2:10" ht="15.75" thickBot="1">
+    <row r="582" spans="2:10" ht="15" thickBot="1">
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -8858,7 +8859,7 @@
       <c r="I582" s="2"/>
       <c r="J582" s="2"/>
     </row>
-    <row r="583" spans="2:10" ht="15.75" thickBot="1">
+    <row r="583" spans="2:10" ht="15" thickBot="1">
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -8869,7 +8870,7 @@
       <c r="I583" s="2"/>
       <c r="J583" s="2"/>
     </row>
-    <row r="584" spans="2:10" ht="15.75" thickBot="1">
+    <row r="584" spans="2:10" ht="15" thickBot="1">
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -8880,7 +8881,7 @@
       <c r="I584" s="2"/>
       <c r="J584" s="2"/>
     </row>
-    <row r="585" spans="2:10" ht="15.75" thickBot="1">
+    <row r="585" spans="2:10" ht="15" thickBot="1">
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -8891,7 +8892,7 @@
       <c r="I585" s="2"/>
       <c r="J585" s="2"/>
     </row>
-    <row r="586" spans="2:10" ht="15.75" thickBot="1">
+    <row r="586" spans="2:10" ht="15" thickBot="1">
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -8902,7 +8903,7 @@
       <c r="I586" s="2"/>
       <c r="J586" s="2"/>
     </row>
-    <row r="587" spans="2:10" ht="15.75" thickBot="1">
+    <row r="587" spans="2:10" ht="15" thickBot="1">
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -8913,7 +8914,7 @@
       <c r="I587" s="2"/>
       <c r="J587" s="2"/>
     </row>
-    <row r="588" spans="2:10" ht="15.75" thickBot="1">
+    <row r="588" spans="2:10" ht="15" thickBot="1">
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -8924,7 +8925,7 @@
       <c r="I588" s="2"/>
       <c r="J588" s="2"/>
     </row>
-    <row r="589" spans="2:10" ht="15.75" thickBot="1">
+    <row r="589" spans="2:10" ht="15" thickBot="1">
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -8935,7 +8936,7 @@
       <c r="I589" s="2"/>
       <c r="J589" s="2"/>
     </row>
-    <row r="590" spans="2:10" ht="15.75" thickBot="1">
+    <row r="590" spans="2:10" ht="15" thickBot="1">
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -8946,7 +8947,7 @@
       <c r="I590" s="2"/>
       <c r="J590" s="2"/>
     </row>
-    <row r="591" spans="2:10" ht="15.75" thickBot="1">
+    <row r="591" spans="2:10" ht="15" thickBot="1">
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -8957,7 +8958,7 @@
       <c r="I591" s="2"/>
       <c r="J591" s="2"/>
     </row>
-    <row r="592" spans="2:10" ht="15.75" thickBot="1">
+    <row r="592" spans="2:10" ht="15" thickBot="1">
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -8968,7 +8969,7 @@
       <c r="I592" s="2"/>
       <c r="J592" s="2"/>
     </row>
-    <row r="593" spans="2:10" ht="15.75" thickBot="1">
+    <row r="593" spans="2:10" ht="15" thickBot="1">
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -8979,7 +8980,7 @@
       <c r="I593" s="2"/>
       <c r="J593" s="2"/>
     </row>
-    <row r="594" spans="2:10" ht="15.75" thickBot="1">
+    <row r="594" spans="2:10" ht="15" thickBot="1">
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -8990,7 +8991,7 @@
       <c r="I594" s="2"/>
       <c r="J594" s="2"/>
     </row>
-    <row r="595" spans="2:10" ht="15.75" thickBot="1">
+    <row r="595" spans="2:10" ht="15" thickBot="1">
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -9001,7 +9002,7 @@
       <c r="I595" s="2"/>
       <c r="J595" s="2"/>
     </row>
-    <row r="596" spans="2:10" ht="15.75" thickBot="1">
+    <row r="596" spans="2:10" ht="15" thickBot="1">
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -9012,7 +9013,7 @@
       <c r="I596" s="2"/>
       <c r="J596" s="2"/>
     </row>
-    <row r="597" spans="2:10" ht="15.75" thickBot="1">
+    <row r="597" spans="2:10" ht="15" thickBot="1">
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -9023,7 +9024,7 @@
       <c r="I597" s="2"/>
       <c r="J597" s="2"/>
     </row>
-    <row r="598" spans="2:10" ht="15.75" thickBot="1">
+    <row r="598" spans="2:10" ht="15" thickBot="1">
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -9034,7 +9035,7 @@
       <c r="I598" s="2"/>
       <c r="J598" s="2"/>
     </row>
-    <row r="599" spans="2:10" ht="15.75" thickBot="1">
+    <row r="599" spans="2:10" ht="15" thickBot="1">
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -9045,7 +9046,7 @@
       <c r="I599" s="2"/>
       <c r="J599" s="2"/>
     </row>
-    <row r="600" spans="2:10" ht="15.75" thickBot="1">
+    <row r="600" spans="2:10" ht="15" thickBot="1">
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -9056,7 +9057,7 @@
       <c r="I600" s="2"/>
       <c r="J600" s="2"/>
     </row>
-    <row r="601" spans="2:10" ht="15.75" thickBot="1">
+    <row r="601" spans="2:10" ht="15" thickBot="1">
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -9067,7 +9068,7 @@
       <c r="I601" s="2"/>
       <c r="J601" s="2"/>
     </row>
-    <row r="602" spans="2:10" ht="15.75" thickBot="1">
+    <row r="602" spans="2:10" ht="15" thickBot="1">
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -9078,7 +9079,7 @@
       <c r="I602" s="2"/>
       <c r="J602" s="2"/>
     </row>
-    <row r="603" spans="2:10" ht="15.75" thickBot="1">
+    <row r="603" spans="2:10" ht="15" thickBot="1">
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -9089,7 +9090,7 @@
       <c r="I603" s="2"/>
       <c r="J603" s="2"/>
     </row>
-    <row r="604" spans="2:10" ht="15.75" thickBot="1">
+    <row r="604" spans="2:10" ht="15" thickBot="1">
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -9100,7 +9101,7 @@
       <c r="I604" s="2"/>
       <c r="J604" s="2"/>
     </row>
-    <row r="605" spans="2:10" ht="15.75" thickBot="1">
+    <row r="605" spans="2:10" ht="15" thickBot="1">
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -9111,7 +9112,7 @@
       <c r="I605" s="2"/>
       <c r="J605" s="2"/>
     </row>
-    <row r="606" spans="2:10" ht="15.75" thickBot="1">
+    <row r="606" spans="2:10" ht="15" thickBot="1">
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -9122,7 +9123,7 @@
       <c r="I606" s="2"/>
       <c r="J606" s="2"/>
     </row>
-    <row r="607" spans="2:10" ht="15.75" thickBot="1">
+    <row r="607" spans="2:10" ht="15" thickBot="1">
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -9133,7 +9134,7 @@
       <c r="I607" s="2"/>
       <c r="J607" s="2"/>
     </row>
-    <row r="608" spans="2:10" ht="15.75" thickBot="1">
+    <row r="608" spans="2:10" ht="15" thickBot="1">
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -9144,7 +9145,7 @@
       <c r="I608" s="2"/>
       <c r="J608" s="2"/>
     </row>
-    <row r="609" spans="2:10" ht="15.75" thickBot="1">
+    <row r="609" spans="2:10" ht="15" thickBot="1">
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -9155,7 +9156,7 @@
       <c r="I609" s="2"/>
       <c r="J609" s="2"/>
     </row>
-    <row r="610" spans="2:10" ht="15.75" thickBot="1">
+    <row r="610" spans="2:10" ht="15" thickBot="1">
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -9166,7 +9167,7 @@
       <c r="I610" s="2"/>
       <c r="J610" s="2"/>
     </row>
-    <row r="611" spans="2:10" ht="15.75" thickBot="1">
+    <row r="611" spans="2:10" ht="15" thickBot="1">
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -9177,7 +9178,7 @@
       <c r="I611" s="2"/>
       <c r="J611" s="2"/>
     </row>
-    <row r="612" spans="2:10" ht="15.75" thickBot="1">
+    <row r="612" spans="2:10" ht="15" thickBot="1">
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -9188,7 +9189,7 @@
       <c r="I612" s="2"/>
       <c r="J612" s="2"/>
     </row>
-    <row r="613" spans="2:10" ht="15.75" thickBot="1">
+    <row r="613" spans="2:10" ht="15" thickBot="1">
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -9199,7 +9200,7 @@
       <c r="I613" s="2"/>
       <c r="J613" s="2"/>
     </row>
-    <row r="614" spans="2:10" ht="15.75" thickBot="1">
+    <row r="614" spans="2:10" ht="15" thickBot="1">
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -9210,7 +9211,7 @@
       <c r="I614" s="2"/>
       <c r="J614" s="2"/>
     </row>
-    <row r="615" spans="2:10" ht="15.75" thickBot="1">
+    <row r="615" spans="2:10" ht="15" thickBot="1">
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -9221,7 +9222,7 @@
       <c r="I615" s="2"/>
       <c r="J615" s="2"/>
     </row>
-    <row r="616" spans="2:10" ht="15.75" thickBot="1">
+    <row r="616" spans="2:10" ht="15" thickBot="1">
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -9232,7 +9233,7 @@
       <c r="I616" s="2"/>
       <c r="J616" s="2"/>
     </row>
-    <row r="617" spans="2:10" ht="15.75" thickBot="1">
+    <row r="617" spans="2:10" ht="15" thickBot="1">
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -9243,7 +9244,7 @@
       <c r="I617" s="2"/>
       <c r="J617" s="2"/>
     </row>
-    <row r="618" spans="2:10" ht="15.75" thickBot="1">
+    <row r="618" spans="2:10" ht="15" thickBot="1">
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -9254,7 +9255,7 @@
       <c r="I618" s="2"/>
       <c r="J618" s="2"/>
     </row>
-    <row r="619" spans="2:10" ht="15.75" thickBot="1">
+    <row r="619" spans="2:10" ht="15" thickBot="1">
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -9265,7 +9266,7 @@
       <c r="I619" s="2"/>
       <c r="J619" s="2"/>
     </row>
-    <row r="620" spans="2:10" ht="15.75" thickBot="1">
+    <row r="620" spans="2:10" ht="15" thickBot="1">
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -9276,7 +9277,7 @@
       <c r="I620" s="2"/>
       <c r="J620" s="2"/>
     </row>
-    <row r="621" spans="2:10" ht="15.75" thickBot="1">
+    <row r="621" spans="2:10" ht="15" thickBot="1">
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -9287,7 +9288,7 @@
       <c r="I621" s="2"/>
       <c r="J621" s="2"/>
     </row>
-    <row r="622" spans="2:10" ht="15.75" thickBot="1">
+    <row r="622" spans="2:10" ht="15" thickBot="1">
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -9298,7 +9299,7 @@
       <c r="I622" s="2"/>
       <c r="J622" s="2"/>
     </row>
-    <row r="623" spans="2:10" ht="15.75" thickBot="1">
+    <row r="623" spans="2:10" ht="15" thickBot="1">
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -9309,7 +9310,7 @@
       <c r="I623" s="2"/>
       <c r="J623" s="2"/>
     </row>
-    <row r="624" spans="2:10" ht="15.75" thickBot="1">
+    <row r="624" spans="2:10" ht="15" thickBot="1">
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -9320,7 +9321,7 @@
       <c r="I624" s="2"/>
       <c r="J624" s="2"/>
     </row>
-    <row r="625" spans="2:10" ht="15.75" thickBot="1">
+    <row r="625" spans="2:10" ht="15" thickBot="1">
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -9331,7 +9332,7 @@
       <c r="I625" s="2"/>
       <c r="J625" s="2"/>
     </row>
-    <row r="626" spans="2:10" ht="15.75" thickBot="1">
+    <row r="626" spans="2:10" ht="15" thickBot="1">
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -9342,7 +9343,7 @@
       <c r="I626" s="2"/>
       <c r="J626" s="2"/>
     </row>
-    <row r="627" spans="2:10" ht="15.75" thickBot="1">
+    <row r="627" spans="2:10" ht="15" thickBot="1">
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -9353,7 +9354,7 @@
       <c r="I627" s="2"/>
       <c r="J627" s="2"/>
     </row>
-    <row r="628" spans="2:10" ht="15.75" thickBot="1">
+    <row r="628" spans="2:10" ht="15" thickBot="1">
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -9364,7 +9365,7 @@
       <c r="I628" s="2"/>
       <c r="J628" s="2"/>
     </row>
-    <row r="629" spans="2:10" ht="15.75" thickBot="1">
+    <row r="629" spans="2:10" ht="15" thickBot="1">
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -9375,7 +9376,7 @@
       <c r="I629" s="2"/>
       <c r="J629" s="2"/>
     </row>
-    <row r="630" spans="2:10" ht="15.75" thickBot="1">
+    <row r="630" spans="2:10" ht="15" thickBot="1">
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -9386,7 +9387,7 @@
       <c r="I630" s="2"/>
       <c r="J630" s="2"/>
     </row>
-    <row r="631" spans="2:10" ht="15.75" thickBot="1">
+    <row r="631" spans="2:10" ht="15" thickBot="1">
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -9397,7 +9398,7 @@
       <c r="I631" s="2"/>
       <c r="J631" s="2"/>
     </row>
-    <row r="632" spans="2:10" ht="15.75" thickBot="1">
+    <row r="632" spans="2:10" ht="15" thickBot="1">
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -9408,7 +9409,7 @@
       <c r="I632" s="2"/>
       <c r="J632" s="2"/>
     </row>
-    <row r="633" spans="2:10" ht="15.75" thickBot="1">
+    <row r="633" spans="2:10" ht="15" thickBot="1">
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -9419,7 +9420,7 @@
       <c r="I633" s="2"/>
       <c r="J633" s="2"/>
     </row>
-    <row r="634" spans="2:10" ht="15.75" thickBot="1">
+    <row r="634" spans="2:10" ht="15" thickBot="1">
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -9430,7 +9431,7 @@
       <c r="I634" s="2"/>
       <c r="J634" s="2"/>
     </row>
-    <row r="635" spans="2:10" ht="15.75" thickBot="1">
+    <row r="635" spans="2:10" ht="15" thickBot="1">
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -9441,7 +9442,7 @@
       <c r="I635" s="2"/>
       <c r="J635" s="2"/>
     </row>
-    <row r="636" spans="2:10" ht="15.75" thickBot="1">
+    <row r="636" spans="2:10" ht="15" thickBot="1">
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -9452,7 +9453,7 @@
       <c r="I636" s="2"/>
       <c r="J636" s="2"/>
     </row>
-    <row r="637" spans="2:10" ht="15.75" thickBot="1">
+    <row r="637" spans="2:10" ht="15" thickBot="1">
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -9463,7 +9464,7 @@
       <c r="I637" s="2"/>
       <c r="J637" s="2"/>
     </row>
-    <row r="638" spans="2:10" ht="15.75" thickBot="1">
+    <row r="638" spans="2:10" ht="15" thickBot="1">
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -9474,7 +9475,7 @@
       <c r="I638" s="2"/>
       <c r="J638" s="2"/>
     </row>
-    <row r="639" spans="2:10" ht="15.75" thickBot="1">
+    <row r="639" spans="2:10" ht="15" thickBot="1">
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -9485,7 +9486,7 @@
       <c r="I639" s="2"/>
       <c r="J639" s="2"/>
     </row>
-    <row r="640" spans="2:10" ht="15.75" thickBot="1">
+    <row r="640" spans="2:10" ht="15" thickBot="1">
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -9496,7 +9497,7 @@
       <c r="I640" s="2"/>
       <c r="J640" s="2"/>
     </row>
-    <row r="641" spans="2:10" ht="15.75" thickBot="1">
+    <row r="641" spans="2:10" ht="15" thickBot="1">
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -9507,7 +9508,7 @@
       <c r="I641" s="2"/>
       <c r="J641" s="2"/>
     </row>
-    <row r="642" spans="2:10" ht="15.75" thickBot="1">
+    <row r="642" spans="2:10" ht="15" thickBot="1">
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -9518,7 +9519,7 @@
       <c r="I642" s="2"/>
       <c r="J642" s="2"/>
     </row>
-    <row r="643" spans="2:10" ht="15.75" thickBot="1">
+    <row r="643" spans="2:10" ht="15" thickBot="1">
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -9529,7 +9530,7 @@
       <c r="I643" s="2"/>
       <c r="J643" s="2"/>
     </row>
-    <row r="644" spans="2:10" ht="15.75" thickBot="1">
+    <row r="644" spans="2:10" ht="15" thickBot="1">
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -9540,7 +9541,7 @@
       <c r="I644" s="2"/>
       <c r="J644" s="2"/>
     </row>
-    <row r="645" spans="2:10" ht="15.75" thickBot="1">
+    <row r="645" spans="2:10" ht="15" thickBot="1">
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -9551,7 +9552,7 @@
       <c r="I645" s="2"/>
       <c r="J645" s="2"/>
     </row>
-    <row r="646" spans="2:10" ht="15.75" thickBot="1">
+    <row r="646" spans="2:10" ht="15" thickBot="1">
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -9562,7 +9563,7 @@
       <c r="I646" s="2"/>
       <c r="J646" s="2"/>
     </row>
-    <row r="647" spans="2:10" ht="15.75" thickBot="1">
+    <row r="647" spans="2:10" ht="15" thickBot="1">
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -9573,7 +9574,7 @@
       <c r="I647" s="2"/>
       <c r="J647" s="2"/>
     </row>
-    <row r="648" spans="2:10" ht="15.75" thickBot="1">
+    <row r="648" spans="2:10" ht="15" thickBot="1">
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -9584,7 +9585,7 @@
       <c r="I648" s="2"/>
       <c r="J648" s="2"/>
     </row>
-    <row r="649" spans="2:10" ht="15.75" thickBot="1">
+    <row r="649" spans="2:10" ht="15" thickBot="1">
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -9595,7 +9596,7 @@
       <c r="I649" s="2"/>
       <c r="J649" s="2"/>
     </row>
-    <row r="650" spans="2:10" ht="15.75" thickBot="1">
+    <row r="650" spans="2:10" ht="15" thickBot="1">
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -9606,7 +9607,7 @@
       <c r="I650" s="2"/>
       <c r="J650" s="2"/>
     </row>
-    <row r="651" spans="2:10" ht="15.75" thickBot="1">
+    <row r="651" spans="2:10" ht="15" thickBot="1">
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -9617,7 +9618,7 @@
       <c r="I651" s="2"/>
       <c r="J651" s="2"/>
     </row>
-    <row r="652" spans="2:10" ht="15.75" thickBot="1">
+    <row r="652" spans="2:10" ht="15" thickBot="1">
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -9628,7 +9629,7 @@
       <c r="I652" s="2"/>
       <c r="J652" s="2"/>
     </row>
-    <row r="653" spans="2:10" ht="15.75" thickBot="1">
+    <row r="653" spans="2:10" ht="15" thickBot="1">
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -9639,7 +9640,7 @@
       <c r="I653" s="2"/>
       <c r="J653" s="2"/>
     </row>
-    <row r="654" spans="2:10" ht="15.75" thickBot="1">
+    <row r="654" spans="2:10" ht="15" thickBot="1">
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -9650,7 +9651,7 @@
       <c r="I654" s="2"/>
       <c r="J654" s="2"/>
     </row>
-    <row r="655" spans="2:10" ht="15.75" thickBot="1">
+    <row r="655" spans="2:10" ht="15" thickBot="1">
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -9661,7 +9662,7 @@
       <c r="I655" s="2"/>
       <c r="J655" s="2"/>
     </row>
-    <row r="656" spans="2:10" ht="15.75" thickBot="1">
+    <row r="656" spans="2:10" ht="15" thickBot="1">
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -9672,7 +9673,7 @@
       <c r="I656" s="2"/>
       <c r="J656" s="2"/>
     </row>
-    <row r="657" spans="2:10" ht="15.75" thickBot="1">
+    <row r="657" spans="2:10" ht="15" thickBot="1">
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -9683,7 +9684,7 @@
       <c r="I657" s="2"/>
       <c r="J657" s="2"/>
     </row>
-    <row r="658" spans="2:10" ht="15.75" thickBot="1">
+    <row r="658" spans="2:10" ht="15" thickBot="1">
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -9694,7 +9695,7 @@
       <c r="I658" s="2"/>
       <c r="J658" s="2"/>
     </row>
-    <row r="659" spans="2:10" ht="15.75" thickBot="1">
+    <row r="659" spans="2:10" ht="15" thickBot="1">
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -9705,7 +9706,7 @@
       <c r="I659" s="2"/>
       <c r="J659" s="2"/>
     </row>
-    <row r="660" spans="2:10" ht="15.75" thickBot="1">
+    <row r="660" spans="2:10" ht="15" thickBot="1">
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -9716,7 +9717,7 @@
       <c r="I660" s="2"/>
       <c r="J660" s="2"/>
     </row>
-    <row r="661" spans="2:10" ht="15.75" thickBot="1">
+    <row r="661" spans="2:10" ht="15" thickBot="1">
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -9727,7 +9728,7 @@
       <c r="I661" s="2"/>
       <c r="J661" s="2"/>
     </row>
-    <row r="662" spans="2:10" ht="15.75" thickBot="1">
+    <row r="662" spans="2:10" ht="15" thickBot="1">
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -9738,7 +9739,7 @@
       <c r="I662" s="2"/>
       <c r="J662" s="2"/>
     </row>
-    <row r="663" spans="2:10" ht="15.75" thickBot="1">
+    <row r="663" spans="2:10" ht="15" thickBot="1">
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -9749,7 +9750,7 @@
       <c r="I663" s="2"/>
       <c r="J663" s="2"/>
     </row>
-    <row r="664" spans="2:10" ht="15.75" thickBot="1">
+    <row r="664" spans="2:10" ht="15" thickBot="1">
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -9760,7 +9761,7 @@
       <c r="I664" s="2"/>
       <c r="J664" s="2"/>
     </row>
-    <row r="665" spans="2:10" ht="15.75" thickBot="1">
+    <row r="665" spans="2:10" ht="15" thickBot="1">
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -9771,7 +9772,7 @@
       <c r="I665" s="2"/>
       <c r="J665" s="2"/>
     </row>
-    <row r="666" spans="2:10" ht="15.75" thickBot="1">
+    <row r="666" spans="2:10" ht="15" thickBot="1">
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -9782,7 +9783,7 @@
       <c r="I666" s="2"/>
       <c r="J666" s="2"/>
     </row>
-    <row r="667" spans="2:10" ht="15.75" thickBot="1">
+    <row r="667" spans="2:10" ht="15" thickBot="1">
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -9793,7 +9794,7 @@
       <c r="I667" s="2"/>
       <c r="J667" s="2"/>
     </row>
-    <row r="668" spans="2:10" ht="15.75" thickBot="1">
+    <row r="668" spans="2:10" ht="15" thickBot="1">
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -9804,7 +9805,7 @@
       <c r="I668" s="2"/>
       <c r="J668" s="2"/>
     </row>
-    <row r="669" spans="2:10" ht="15.75" thickBot="1">
+    <row r="669" spans="2:10" ht="15" thickBot="1">
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -9815,7 +9816,7 @@
       <c r="I669" s="2"/>
       <c r="J669" s="2"/>
     </row>
-    <row r="670" spans="2:10" ht="15.75" thickBot="1">
+    <row r="670" spans="2:10" ht="15" thickBot="1">
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -9826,7 +9827,7 @@
       <c r="I670" s="2"/>
       <c r="J670" s="2"/>
     </row>
-    <row r="671" spans="2:10" ht="15.75" thickBot="1">
+    <row r="671" spans="2:10" ht="15" thickBot="1">
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -9837,7 +9838,7 @@
       <c r="I671" s="2"/>
       <c r="J671" s="2"/>
     </row>
-    <row r="672" spans="2:10" ht="15.75" thickBot="1">
+    <row r="672" spans="2:10" ht="15" thickBot="1">
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -9848,7 +9849,7 @@
       <c r="I672" s="2"/>
       <c r="J672" s="2"/>
     </row>
-    <row r="673" spans="2:10" ht="15.75" thickBot="1">
+    <row r="673" spans="2:10" ht="15" thickBot="1">
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -9859,7 +9860,7 @@
       <c r="I673" s="2"/>
       <c r="J673" s="2"/>
     </row>
-    <row r="674" spans="2:10" ht="15.75" thickBot="1">
+    <row r="674" spans="2:10" ht="15" thickBot="1">
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -9870,7 +9871,7 @@
       <c r="I674" s="2"/>
       <c r="J674" s="2"/>
     </row>
-    <row r="675" spans="2:10" ht="15.75" thickBot="1">
+    <row r="675" spans="2:10" ht="15" thickBot="1">
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -9881,7 +9882,7 @@
       <c r="I675" s="2"/>
       <c r="J675" s="2"/>
     </row>
-    <row r="676" spans="2:10" ht="15.75" thickBot="1">
+    <row r="676" spans="2:10" ht="15" thickBot="1">
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -9892,7 +9893,7 @@
       <c r="I676" s="2"/>
       <c r="J676" s="2"/>
     </row>
-    <row r="677" spans="2:10" ht="15.75" thickBot="1">
+    <row r="677" spans="2:10" ht="15" thickBot="1">
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -9903,7 +9904,7 @@
       <c r="I677" s="2"/>
       <c r="J677" s="2"/>
     </row>
-    <row r="678" spans="2:10" ht="15.75" thickBot="1">
+    <row r="678" spans="2:10" ht="15" thickBot="1">
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -9914,7 +9915,7 @@
       <c r="I678" s="2"/>
       <c r="J678" s="2"/>
     </row>
-    <row r="679" spans="2:10" ht="15.75" thickBot="1">
+    <row r="679" spans="2:10" ht="15" thickBot="1">
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -9925,7 +9926,7 @@
       <c r="I679" s="2"/>
       <c r="J679" s="2"/>
     </row>
-    <row r="680" spans="2:10" ht="15.75" thickBot="1">
+    <row r="680" spans="2:10" ht="15" thickBot="1">
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -9936,7 +9937,7 @@
       <c r="I680" s="2"/>
       <c r="J680" s="2"/>
     </row>
-    <row r="681" spans="2:10" ht="15.75" thickBot="1">
+    <row r="681" spans="2:10" ht="15" thickBot="1">
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -9947,7 +9948,7 @@
       <c r="I681" s="2"/>
       <c r="J681" s="2"/>
     </row>
-    <row r="682" spans="2:10" ht="15.75" thickBot="1">
+    <row r="682" spans="2:10" ht="15" thickBot="1">
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -9958,7 +9959,7 @@
       <c r="I682" s="2"/>
       <c r="J682" s="2"/>
     </row>
-    <row r="683" spans="2:10" ht="15.75" thickBot="1">
+    <row r="683" spans="2:10" ht="15" thickBot="1">
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -9969,7 +9970,7 @@
       <c r="I683" s="2"/>
       <c r="J683" s="2"/>
     </row>
-    <row r="684" spans="2:10" ht="15.75" thickBot="1">
+    <row r="684" spans="2:10" ht="15" thickBot="1">
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -9980,7 +9981,7 @@
       <c r="I684" s="2"/>
       <c r="J684" s="2"/>
     </row>
-    <row r="685" spans="2:10" ht="15.75" thickBot="1">
+    <row r="685" spans="2:10" ht="15" thickBot="1">
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -9991,7 +9992,7 @@
       <c r="I685" s="2"/>
       <c r="J685" s="2"/>
     </row>
-    <row r="686" spans="2:10" ht="15.75" thickBot="1">
+    <row r="686" spans="2:10" ht="15" thickBot="1">
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -10002,7 +10003,7 @@
       <c r="I686" s="2"/>
       <c r="J686" s="2"/>
     </row>
-    <row r="687" spans="2:10" ht="15.75" thickBot="1">
+    <row r="687" spans="2:10" ht="15" thickBot="1">
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -10013,7 +10014,7 @@
       <c r="I687" s="2"/>
       <c r="J687" s="2"/>
     </row>
-    <row r="688" spans="2:10" ht="15.75" thickBot="1">
+    <row r="688" spans="2:10" ht="15" thickBot="1">
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -10024,7 +10025,7 @@
       <c r="I688" s="2"/>
       <c r="J688" s="2"/>
     </row>
-    <row r="689" spans="2:10" ht="15.75" thickBot="1">
+    <row r="689" spans="2:10" ht="15" thickBot="1">
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -10035,7 +10036,7 @@
       <c r="I689" s="2"/>
       <c r="J689" s="2"/>
     </row>
-    <row r="690" spans="2:10" ht="15.75" thickBot="1">
+    <row r="690" spans="2:10" ht="15" thickBot="1">
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -10046,7 +10047,7 @@
       <c r="I690" s="2"/>
       <c r="J690" s="2"/>
     </row>
-    <row r="691" spans="2:10" ht="15.75" thickBot="1">
+    <row r="691" spans="2:10" ht="15" thickBot="1">
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -10057,7 +10058,7 @@
       <c r="I691" s="2"/>
       <c r="J691" s="2"/>
     </row>
-    <row r="692" spans="2:10" ht="15.75" thickBot="1">
+    <row r="692" spans="2:10" ht="15" thickBot="1">
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -10068,7 +10069,7 @@
       <c r="I692" s="2"/>
       <c r="J692" s="2"/>
     </row>
-    <row r="693" spans="2:10" ht="15.75" thickBot="1">
+    <row r="693" spans="2:10" ht="15" thickBot="1">
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -10079,7 +10080,7 @@
       <c r="I693" s="2"/>
       <c r="J693" s="2"/>
     </row>
-    <row r="694" spans="2:10" ht="15.75" thickBot="1">
+    <row r="694" spans="2:10" ht="15" thickBot="1">
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -10090,7 +10091,7 @@
       <c r="I694" s="2"/>
       <c r="J694" s="2"/>
     </row>
-    <row r="695" spans="2:10" ht="15.75" thickBot="1">
+    <row r="695" spans="2:10" ht="15" thickBot="1">
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -10101,7 +10102,7 @@
       <c r="I695" s="2"/>
       <c r="J695" s="2"/>
     </row>
-    <row r="696" spans="2:10" ht="15.75" thickBot="1">
+    <row r="696" spans="2:10" ht="15" thickBot="1">
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -10112,7 +10113,7 @@
       <c r="I696" s="2"/>
       <c r="J696" s="2"/>
     </row>
-    <row r="697" spans="2:10" ht="15.75" thickBot="1">
+    <row r="697" spans="2:10" ht="15" thickBot="1">
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -10123,7 +10124,7 @@
       <c r="I697" s="2"/>
       <c r="J697" s="2"/>
     </row>
-    <row r="698" spans="2:10" ht="15.75" thickBot="1">
+    <row r="698" spans="2:10" ht="15" thickBot="1">
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -10134,7 +10135,7 @@
       <c r="I698" s="2"/>
       <c r="J698" s="2"/>
     </row>
-    <row r="699" spans="2:10" ht="15.75" thickBot="1">
+    <row r="699" spans="2:10" ht="15" thickBot="1">
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -10145,7 +10146,7 @@
       <c r="I699" s="2"/>
       <c r="J699" s="2"/>
     </row>
-    <row r="700" spans="2:10" ht="15.75" thickBot="1">
+    <row r="700" spans="2:10" ht="15" thickBot="1">
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -10156,7 +10157,7 @@
       <c r="I700" s="2"/>
       <c r="J700" s="2"/>
     </row>
-    <row r="701" spans="2:10" ht="15.75" thickBot="1">
+    <row r="701" spans="2:10" ht="15" thickBot="1">
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -10167,7 +10168,7 @@
       <c r="I701" s="2"/>
       <c r="J701" s="2"/>
     </row>
-    <row r="702" spans="2:10" ht="15.75" thickBot="1">
+    <row r="702" spans="2:10" ht="15" thickBot="1">
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -10178,7 +10179,7 @@
       <c r="I702" s="2"/>
       <c r="J702" s="2"/>
     </row>
-    <row r="703" spans="2:10" ht="15.75" thickBot="1">
+    <row r="703" spans="2:10" ht="15" thickBot="1">
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -10189,7 +10190,7 @@
       <c r="I703" s="2"/>
       <c r="J703" s="2"/>
     </row>
-    <row r="704" spans="2:10" ht="15.75" thickBot="1">
+    <row r="704" spans="2:10" ht="15" thickBot="1">
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -10200,7 +10201,7 @@
       <c r="I704" s="2"/>
       <c r="J704" s="2"/>
     </row>
-    <row r="705" spans="2:10" ht="15.75" thickBot="1">
+    <row r="705" spans="2:10" ht="15" thickBot="1">
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -10211,7 +10212,7 @@
       <c r="I705" s="2"/>
       <c r="J705" s="2"/>
     </row>
-    <row r="706" spans="2:10" ht="15.75" thickBot="1">
+    <row r="706" spans="2:10" ht="15" thickBot="1">
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -10222,7 +10223,7 @@
       <c r="I706" s="2"/>
       <c r="J706" s="2"/>
     </row>
-    <row r="707" spans="2:10" ht="15.75" thickBot="1">
+    <row r="707" spans="2:10" ht="15" thickBot="1">
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -10233,7 +10234,7 @@
       <c r="I707" s="2"/>
       <c r="J707" s="2"/>
     </row>
-    <row r="708" spans="2:10" ht="15.75" thickBot="1">
+    <row r="708" spans="2:10" ht="15" thickBot="1">
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -10244,7 +10245,7 @@
       <c r="I708" s="2"/>
       <c r="J708" s="2"/>
     </row>
-    <row r="709" spans="2:10" ht="15.75" thickBot="1">
+    <row r="709" spans="2:10" ht="15" thickBot="1">
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -10255,7 +10256,7 @@
       <c r="I709" s="2"/>
       <c r="J709" s="2"/>
     </row>
-    <row r="710" spans="2:10" ht="15.75" thickBot="1">
+    <row r="710" spans="2:10" ht="15" thickBot="1">
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -10266,7 +10267,7 @@
       <c r="I710" s="2"/>
       <c r="J710" s="2"/>
     </row>
-    <row r="711" spans="2:10" ht="15.75" thickBot="1">
+    <row r="711" spans="2:10" ht="15" thickBot="1">
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -10277,7 +10278,7 @@
       <c r="I711" s="2"/>
       <c r="J711" s="2"/>
     </row>
-    <row r="712" spans="2:10" ht="15.75" thickBot="1">
+    <row r="712" spans="2:10" ht="15" thickBot="1">
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -10288,7 +10289,7 @@
       <c r="I712" s="2"/>
       <c r="J712" s="2"/>
     </row>
-    <row r="713" spans="2:10" ht="15.75" thickBot="1">
+    <row r="713" spans="2:10" ht="15" thickBot="1">
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -10299,7 +10300,7 @@
       <c r="I713" s="2"/>
       <c r="J713" s="2"/>
     </row>
-    <row r="714" spans="2:10" ht="15.75" thickBot="1">
+    <row r="714" spans="2:10" ht="15" thickBot="1">
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -10310,7 +10311,7 @@
       <c r="I714" s="2"/>
       <c r="J714" s="2"/>
     </row>
-    <row r="715" spans="2:10" ht="15.75" thickBot="1">
+    <row r="715" spans="2:10" ht="15" thickBot="1">
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -10321,7 +10322,7 @@
       <c r="I715" s="2"/>
       <c r="J715" s="2"/>
     </row>
-    <row r="716" spans="2:10" ht="15.75" thickBot="1">
+    <row r="716" spans="2:10" ht="15" thickBot="1">
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -10332,7 +10333,7 @@
       <c r="I716" s="2"/>
       <c r="J716" s="2"/>
     </row>
-    <row r="717" spans="2:10" ht="15.75" thickBot="1">
+    <row r="717" spans="2:10" ht="15" thickBot="1">
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -10343,7 +10344,7 @@
       <c r="I717" s="2"/>
       <c r="J717" s="2"/>
     </row>
-    <row r="718" spans="2:10" ht="15.75" thickBot="1">
+    <row r="718" spans="2:10" ht="15" thickBot="1">
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -10354,7 +10355,7 @@
       <c r="I718" s="2"/>
       <c r="J718" s="2"/>
     </row>
-    <row r="719" spans="2:10" ht="15.75" thickBot="1">
+    <row r="719" spans="2:10" ht="15" thickBot="1">
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -10365,7 +10366,7 @@
       <c r="I719" s="2"/>
       <c r="J719" s="2"/>
     </row>
-    <row r="720" spans="2:10" ht="15.75" thickBot="1">
+    <row r="720" spans="2:10" ht="15" thickBot="1">
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -10376,7 +10377,7 @@
       <c r="I720" s="2"/>
       <c r="J720" s="2"/>
     </row>
-    <row r="721" spans="2:10" ht="15.75" thickBot="1">
+    <row r="721" spans="2:10" ht="15" thickBot="1">
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -10387,7 +10388,7 @@
       <c r="I721" s="2"/>
       <c r="J721" s="2"/>
     </row>
-    <row r="722" spans="2:10" ht="15.75" thickBot="1">
+    <row r="722" spans="2:10" ht="15" thickBot="1">
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -10398,7 +10399,7 @@
       <c r="I722" s="2"/>
       <c r="J722" s="2"/>
     </row>
-    <row r="723" spans="2:10" ht="15.75" thickBot="1">
+    <row r="723" spans="2:10" ht="15" thickBot="1">
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -10409,7 +10410,7 @@
       <c r="I723" s="2"/>
       <c r="J723" s="2"/>
     </row>
-    <row r="724" spans="2:10" ht="15.75" thickBot="1">
+    <row r="724" spans="2:10" ht="15" thickBot="1">
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -10420,7 +10421,7 @@
       <c r="I724" s="2"/>
       <c r="J724" s="2"/>
     </row>
-    <row r="725" spans="2:10" ht="15.75" thickBot="1">
+    <row r="725" spans="2:10" ht="15" thickBot="1">
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -10431,7 +10432,7 @@
       <c r="I725" s="2"/>
       <c r="J725" s="2"/>
     </row>
-    <row r="726" spans="2:10" ht="15.75" thickBot="1">
+    <row r="726" spans="2:10" ht="15" thickBot="1">
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -10442,7 +10443,7 @@
       <c r="I726" s="2"/>
       <c r="J726" s="2"/>
     </row>
-    <row r="727" spans="2:10" ht="15.75" thickBot="1">
+    <row r="727" spans="2:10" ht="15" thickBot="1">
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -10453,7 +10454,7 @@
       <c r="I727" s="2"/>
       <c r="J727" s="2"/>
     </row>
-    <row r="728" spans="2:10" ht="15.75" thickBot="1">
+    <row r="728" spans="2:10" ht="15" thickBot="1">
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -10464,7 +10465,7 @@
       <c r="I728" s="2"/>
       <c r="J728" s="2"/>
     </row>
-    <row r="729" spans="2:10" ht="15.75" thickBot="1">
+    <row r="729" spans="2:10" ht="15" thickBot="1">
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -10475,7 +10476,7 @@
       <c r="I729" s="2"/>
       <c r="J729" s="2"/>
     </row>
-    <row r="730" spans="2:10" ht="15.75" thickBot="1">
+    <row r="730" spans="2:10" ht="15" thickBot="1">
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -10486,7 +10487,7 @@
       <c r="I730" s="2"/>
       <c r="J730" s="2"/>
     </row>
-    <row r="731" spans="2:10" ht="15.75" thickBot="1">
+    <row r="731" spans="2:10" ht="15" thickBot="1">
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -10497,7 +10498,7 @@
       <c r="I731" s="2"/>
       <c r="J731" s="2"/>
     </row>
-    <row r="732" spans="2:10" ht="15.75" thickBot="1">
+    <row r="732" spans="2:10" ht="15" thickBot="1">
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -10508,7 +10509,7 @@
       <c r="I732" s="2"/>
       <c r="J732" s="2"/>
     </row>
-    <row r="733" spans="2:10" ht="15.75" thickBot="1">
+    <row r="733" spans="2:10" ht="15" thickBot="1">
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -10519,7 +10520,7 @@
       <c r="I733" s="2"/>
       <c r="J733" s="2"/>
     </row>
-    <row r="734" spans="2:10" ht="15.75" thickBot="1">
+    <row r="734" spans="2:10" ht="15" thickBot="1">
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -10530,7 +10531,7 @@
       <c r="I734" s="2"/>
       <c r="J734" s="2"/>
     </row>
-    <row r="735" spans="2:10" ht="15.75" thickBot="1">
+    <row r="735" spans="2:10" ht="15" thickBot="1">
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -10541,7 +10542,7 @@
       <c r="I735" s="2"/>
       <c r="J735" s="2"/>
     </row>
-    <row r="736" spans="2:10" ht="15.75" thickBot="1">
+    <row r="736" spans="2:10" ht="15" thickBot="1">
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -10552,7 +10553,7 @@
       <c r="I736" s="2"/>
       <c r="J736" s="2"/>
     </row>
-    <row r="737" spans="2:10" ht="15.75" thickBot="1">
+    <row r="737" spans="2:10" ht="15" thickBot="1">
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -10563,7 +10564,7 @@
       <c r="I737" s="2"/>
       <c r="J737" s="2"/>
     </row>
-    <row r="738" spans="2:10" ht="15.75" thickBot="1">
+    <row r="738" spans="2:10" ht="15" thickBot="1">
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -10574,7 +10575,7 @@
       <c r="I738" s="2"/>
       <c r="J738" s="2"/>
     </row>
-    <row r="739" spans="2:10" ht="15.75" thickBot="1">
+    <row r="739" spans="2:10" ht="15" thickBot="1">
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -10585,7 +10586,7 @@
       <c r="I739" s="2"/>
       <c r="J739" s="2"/>
     </row>
-    <row r="740" spans="2:10" ht="15.75" thickBot="1">
+    <row r="740" spans="2:10" ht="15" thickBot="1">
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -10596,7 +10597,7 @@
       <c r="I740" s="2"/>
       <c r="J740" s="2"/>
     </row>
-    <row r="741" spans="2:10" ht="15.75" thickBot="1">
+    <row r="741" spans="2:10" ht="15" thickBot="1">
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -10607,7 +10608,7 @@
       <c r="I741" s="2"/>
       <c r="J741" s="2"/>
     </row>
-    <row r="742" spans="2:10" ht="15.75" thickBot="1">
+    <row r="742" spans="2:10" ht="15" thickBot="1">
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -10618,7 +10619,7 @@
       <c r="I742" s="2"/>
       <c r="J742" s="2"/>
     </row>
-    <row r="743" spans="2:10" ht="15.75" thickBot="1">
+    <row r="743" spans="2:10" ht="15" thickBot="1">
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -10629,7 +10630,7 @@
       <c r="I743" s="2"/>
       <c r="J743" s="2"/>
     </row>
-    <row r="744" spans="2:10" ht="15.75" thickBot="1">
+    <row r="744" spans="2:10" ht="15" thickBot="1">
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -10640,7 +10641,7 @@
       <c r="I744" s="2"/>
       <c r="J744" s="2"/>
     </row>
-    <row r="745" spans="2:10" ht="15.75" thickBot="1">
+    <row r="745" spans="2:10" ht="15" thickBot="1">
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -10651,7 +10652,7 @@
       <c r="I745" s="2"/>
       <c r="J745" s="2"/>
     </row>
-    <row r="746" spans="2:10" ht="15.75" thickBot="1">
+    <row r="746" spans="2:10" ht="15" thickBot="1">
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -10662,7 +10663,7 @@
       <c r="I746" s="2"/>
       <c r="J746" s="2"/>
     </row>
-    <row r="747" spans="2:10" ht="15.75" thickBot="1">
+    <row r="747" spans="2:10" ht="15" thickBot="1">
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -10673,7 +10674,7 @@
       <c r="I747" s="2"/>
       <c r="J747" s="2"/>
     </row>
-    <row r="748" spans="2:10" ht="15.75" thickBot="1">
+    <row r="748" spans="2:10" ht="15" thickBot="1">
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -10684,7 +10685,7 @@
       <c r="I748" s="2"/>
       <c r="J748" s="2"/>
     </row>
-    <row r="749" spans="2:10" ht="15.75" thickBot="1">
+    <row r="749" spans="2:10" ht="15" thickBot="1">
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -10695,7 +10696,7 @@
       <c r="I749" s="2"/>
       <c r="J749" s="2"/>
     </row>
-    <row r="750" spans="2:10" ht="15.75" thickBot="1">
+    <row r="750" spans="2:10" ht="15" thickBot="1">
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -10706,7 +10707,7 @@
       <c r="I750" s="2"/>
       <c r="J750" s="2"/>
     </row>
-    <row r="751" spans="2:10" ht="15.75" thickBot="1">
+    <row r="751" spans="2:10" ht="15" thickBot="1">
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -10717,7 +10718,7 @@
       <c r="I751" s="2"/>
       <c r="J751" s="2"/>
     </row>
-    <row r="752" spans="2:10" ht="15.75" thickBot="1">
+    <row r="752" spans="2:10" ht="15" thickBot="1">
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -10728,7 +10729,7 @@
       <c r="I752" s="2"/>
       <c r="J752" s="2"/>
     </row>
-    <row r="753" spans="2:10" ht="15.75" thickBot="1">
+    <row r="753" spans="2:10" ht="15" thickBot="1">
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -10739,7 +10740,7 @@
       <c r="I753" s="2"/>
       <c r="J753" s="2"/>
     </row>
-    <row r="754" spans="2:10" ht="15.75" thickBot="1">
+    <row r="754" spans="2:10" ht="15" thickBot="1">
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -10750,7 +10751,7 @@
       <c r="I754" s="2"/>
       <c r="J754" s="2"/>
     </row>
-    <row r="755" spans="2:10" ht="15.75" thickBot="1">
+    <row r="755" spans="2:10" ht="15" thickBot="1">
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -10761,7 +10762,7 @@
       <c r="I755" s="2"/>
       <c r="J755" s="2"/>
     </row>
-    <row r="756" spans="2:10" ht="15.75" thickBot="1">
+    <row r="756" spans="2:10" ht="15" thickBot="1">
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -10772,7 +10773,7 @@
       <c r="I756" s="2"/>
       <c r="J756" s="2"/>
     </row>
-    <row r="757" spans="2:10" ht="15.75" thickBot="1">
+    <row r="757" spans="2:10" ht="15" thickBot="1">
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -10783,7 +10784,7 @@
       <c r="I757" s="2"/>
       <c r="J757" s="2"/>
     </row>
-    <row r="758" spans="2:10" ht="15.75" thickBot="1">
+    <row r="758" spans="2:10" ht="15" thickBot="1">
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -10794,7 +10795,7 @@
       <c r="I758" s="2"/>
       <c r="J758" s="2"/>
     </row>
-    <row r="759" spans="2:10" ht="15.75" thickBot="1">
+    <row r="759" spans="2:10" ht="15" thickBot="1">
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -10805,7 +10806,7 @@
       <c r="I759" s="2"/>
       <c r="J759" s="2"/>
     </row>
-    <row r="760" spans="2:10" ht="15.75" thickBot="1">
+    <row r="760" spans="2:10" ht="15" thickBot="1">
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -10816,7 +10817,7 @@
       <c r="I760" s="2"/>
       <c r="J760" s="2"/>
     </row>
-    <row r="761" spans="2:10" ht="15.75" thickBot="1">
+    <row r="761" spans="2:10" ht="15" thickBot="1">
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -10827,7 +10828,7 @@
       <c r="I761" s="2"/>
       <c r="J761" s="2"/>
     </row>
-    <row r="762" spans="2:10" ht="15.75" thickBot="1">
+    <row r="762" spans="2:10" ht="15" thickBot="1">
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -10838,7 +10839,7 @@
       <c r="I762" s="2"/>
       <c r="J762" s="2"/>
     </row>
-    <row r="763" spans="2:10" ht="15.75" thickBot="1">
+    <row r="763" spans="2:10" ht="15" thickBot="1">
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -10849,7 +10850,7 @@
       <c r="I763" s="2"/>
       <c r="J763" s="2"/>
     </row>
-    <row r="764" spans="2:10" ht="15.75" thickBot="1">
+    <row r="764" spans="2:10" ht="15" thickBot="1">
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -10860,7 +10861,7 @@
       <c r="I764" s="2"/>
       <c r="J764" s="2"/>
     </row>
-    <row r="765" spans="2:10" ht="15.75" thickBot="1">
+    <row r="765" spans="2:10" ht="15" thickBot="1">
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -10871,7 +10872,7 @@
       <c r="I765" s="2"/>
       <c r="J765" s="2"/>
     </row>
-    <row r="766" spans="2:10" ht="15.75" thickBot="1">
+    <row r="766" spans="2:10" ht="15" thickBot="1">
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -10882,7 +10883,7 @@
       <c r="I766" s="2"/>
       <c r="J766" s="2"/>
     </row>
-    <row r="767" spans="2:10" ht="15.75" thickBot="1">
+    <row r="767" spans="2:10" ht="15" thickBot="1">
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -10893,7 +10894,7 @@
       <c r="I767" s="2"/>
       <c r="J767" s="2"/>
     </row>
-    <row r="768" spans="2:10" ht="15.75" thickBot="1">
+    <row r="768" spans="2:10" ht="15" thickBot="1">
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -10904,7 +10905,7 @@
       <c r="I768" s="2"/>
       <c r="J768" s="2"/>
     </row>
-    <row r="769" spans="2:10" ht="15.75" thickBot="1">
+    <row r="769" spans="2:10" ht="15" thickBot="1">
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -10915,7 +10916,7 @@
       <c r="I769" s="2"/>
       <c r="J769" s="2"/>
     </row>
-    <row r="770" spans="2:10" ht="15.75" thickBot="1">
+    <row r="770" spans="2:10" ht="15" thickBot="1">
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -10926,7 +10927,7 @@
       <c r="I770" s="2"/>
       <c r="J770" s="2"/>
     </row>
-    <row r="771" spans="2:10" ht="15.75" thickBot="1">
+    <row r="771" spans="2:10" ht="15" thickBot="1">
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -10937,7 +10938,7 @@
       <c r="I771" s="2"/>
       <c r="J771" s="2"/>
     </row>
-    <row r="772" spans="2:10" ht="15.75" thickBot="1">
+    <row r="772" spans="2:10" ht="15" thickBot="1">
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -10948,7 +10949,7 @@
       <c r="I772" s="2"/>
       <c r="J772" s="2"/>
     </row>
-    <row r="773" spans="2:10" ht="15.75" thickBot="1">
+    <row r="773" spans="2:10" ht="15" thickBot="1">
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -10959,7 +10960,7 @@
       <c r="I773" s="2"/>
       <c r="J773" s="2"/>
     </row>
-    <row r="774" spans="2:10" ht="15.75" thickBot="1">
+    <row r="774" spans="2:10" ht="15" thickBot="1">
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -10970,7 +10971,7 @@
       <c r="I774" s="2"/>
       <c r="J774" s="2"/>
     </row>
-    <row r="775" spans="2:10" ht="15.75" thickBot="1">
+    <row r="775" spans="2:10" ht="15" thickBot="1">
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
@@ -10981,7 +10982,7 @@
       <c r="I775" s="2"/>
       <c r="J775" s="2"/>
     </row>
-    <row r="776" spans="2:10" ht="15.75" thickBot="1">
+    <row r="776" spans="2:10" ht="15" thickBot="1">
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
@@ -10992,7 +10993,7 @@
       <c r="I776" s="2"/>
       <c r="J776" s="2"/>
     </row>
-    <row r="777" spans="2:10" ht="15.75" thickBot="1">
+    <row r="777" spans="2:10" ht="15" thickBot="1">
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
@@ -11003,7 +11004,7 @@
       <c r="I777" s="2"/>
       <c r="J777" s="2"/>
     </row>
-    <row r="778" spans="2:10" ht="15.75" thickBot="1">
+    <row r="778" spans="2:10" ht="15" thickBot="1">
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
@@ -11014,7 +11015,7 @@
       <c r="I778" s="2"/>
       <c r="J778" s="2"/>
     </row>
-    <row r="779" spans="2:10" ht="15.75" thickBot="1">
+    <row r="779" spans="2:10" ht="15" thickBot="1">
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
@@ -11025,7 +11026,7 @@
       <c r="I779" s="2"/>
       <c r="J779" s="2"/>
     </row>
-    <row r="780" spans="2:10" ht="15.75" thickBot="1">
+    <row r="780" spans="2:10" ht="15" thickBot="1">
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
@@ -11036,7 +11037,7 @@
       <c r="I780" s="2"/>
       <c r="J780" s="2"/>
     </row>
-    <row r="781" spans="2:10" ht="15.75" thickBot="1">
+    <row r="781" spans="2:10" ht="15" thickBot="1">
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
@@ -11047,7 +11048,7 @@
       <c r="I781" s="2"/>
       <c r="J781" s="2"/>
     </row>
-    <row r="782" spans="2:10" ht="15.75" thickBot="1">
+    <row r="782" spans="2:10" ht="15" thickBot="1">
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
@@ -11058,7 +11059,7 @@
       <c r="I782" s="2"/>
       <c r="J782" s="2"/>
     </row>
-    <row r="783" spans="2:10" ht="15.75" thickBot="1">
+    <row r="783" spans="2:10" ht="15" thickBot="1">
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
@@ -11069,7 +11070,7 @@
       <c r="I783" s="2"/>
       <c r="J783" s="2"/>
     </row>
-    <row r="784" spans="2:10" ht="15.75" thickBot="1">
+    <row r="784" spans="2:10" ht="15" thickBot="1">
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
@@ -11080,7 +11081,7 @@
       <c r="I784" s="2"/>
       <c r="J784" s="2"/>
     </row>
-    <row r="785" spans="2:10" ht="15.75" thickBot="1">
+    <row r="785" spans="2:10" ht="15" thickBot="1">
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -11091,7 +11092,7 @@
       <c r="I785" s="2"/>
       <c r="J785" s="2"/>
     </row>
-    <row r="786" spans="2:10" ht="15.75" thickBot="1">
+    <row r="786" spans="2:10" ht="15" thickBot="1">
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
@@ -11102,7 +11103,7 @@
       <c r="I786" s="2"/>
       <c r="J786" s="2"/>
     </row>
-    <row r="787" spans="2:10" ht="15.75" thickBot="1">
+    <row r="787" spans="2:10" ht="15" thickBot="1">
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
@@ -11113,7 +11114,7 @@
       <c r="I787" s="2"/>
       <c r="J787" s="2"/>
     </row>
-    <row r="788" spans="2:10" ht="15.75" thickBot="1">
+    <row r="788" spans="2:10" ht="15" thickBot="1">
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
@@ -11124,7 +11125,7 @@
       <c r="I788" s="2"/>
       <c r="J788" s="2"/>
     </row>
-    <row r="789" spans="2:10" ht="15.75" thickBot="1">
+    <row r="789" spans="2:10" ht="15" thickBot="1">
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
@@ -11135,7 +11136,7 @@
       <c r="I789" s="2"/>
       <c r="J789" s="2"/>
     </row>
-    <row r="790" spans="2:10" ht="15.75" thickBot="1">
+    <row r="790" spans="2:10" ht="15" thickBot="1">
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
@@ -11146,7 +11147,7 @@
       <c r="I790" s="2"/>
       <c r="J790" s="2"/>
     </row>
-    <row r="791" spans="2:10" ht="15.75" thickBot="1">
+    <row r="791" spans="2:10" ht="15" thickBot="1">
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
@@ -11157,7 +11158,7 @@
       <c r="I791" s="2"/>
       <c r="J791" s="2"/>
     </row>
-    <row r="792" spans="2:10" ht="15.75" thickBot="1">
+    <row r="792" spans="2:10" ht="15" thickBot="1">
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
@@ -11168,7 +11169,7 @@
       <c r="I792" s="2"/>
       <c r="J792" s="2"/>
     </row>
-    <row r="793" spans="2:10" ht="15.75" thickBot="1">
+    <row r="793" spans="2:10" ht="15" thickBot="1">
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
@@ -11179,7 +11180,7 @@
       <c r="I793" s="2"/>
       <c r="J793" s="2"/>
     </row>
-    <row r="794" spans="2:10" ht="15.75" thickBot="1">
+    <row r="794" spans="2:10" ht="15" thickBot="1">
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
@@ -11190,7 +11191,7 @@
       <c r="I794" s="2"/>
       <c r="J794" s="2"/>
     </row>
-    <row r="795" spans="2:10" ht="15.75" thickBot="1">
+    <row r="795" spans="2:10" ht="15" thickBot="1">
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
@@ -11201,7 +11202,7 @@
       <c r="I795" s="2"/>
       <c r="J795" s="2"/>
     </row>
-    <row r="796" spans="2:10" ht="15.75" thickBot="1">
+    <row r="796" spans="2:10" ht="15" thickBot="1">
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
@@ -11212,7 +11213,7 @@
       <c r="I796" s="2"/>
       <c r="J796" s="2"/>
     </row>
-    <row r="797" spans="2:10" ht="15.75" thickBot="1">
+    <row r="797" spans="2:10" ht="15" thickBot="1">
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
@@ -11223,7 +11224,7 @@
       <c r="I797" s="2"/>
       <c r="J797" s="2"/>
     </row>
-    <row r="798" spans="2:10" ht="15.75" thickBot="1">
+    <row r="798" spans="2:10" ht="15" thickBot="1">
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
@@ -11234,7 +11235,7 @@
       <c r="I798" s="2"/>
       <c r="J798" s="2"/>
     </row>
-    <row r="799" spans="2:10" ht="15.75" thickBot="1">
+    <row r="799" spans="2:10" ht="15" thickBot="1">
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
@@ -11245,7 +11246,7 @@
       <c r="I799" s="2"/>
       <c r="J799" s="2"/>
     </row>
-    <row r="800" spans="2:10" ht="15.75" thickBot="1">
+    <row r="800" spans="2:10" ht="15" thickBot="1">
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
@@ -11256,7 +11257,7 @@
       <c r="I800" s="2"/>
       <c r="J800" s="2"/>
     </row>
-    <row r="801" spans="2:10" ht="15.75" thickBot="1">
+    <row r="801" spans="2:10" ht="15" thickBot="1">
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
@@ -11267,7 +11268,7 @@
       <c r="I801" s="2"/>
       <c r="J801" s="2"/>
     </row>
-    <row r="802" spans="2:10" ht="15.75" thickBot="1">
+    <row r="802" spans="2:10" ht="15" thickBot="1">
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
@@ -11278,7 +11279,7 @@
       <c r="I802" s="2"/>
       <c r="J802" s="2"/>
     </row>
-    <row r="803" spans="2:10" ht="15.75" thickBot="1">
+    <row r="803" spans="2:10" ht="15" thickBot="1">
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
@@ -11289,7 +11290,7 @@
       <c r="I803" s="2"/>
       <c r="J803" s="2"/>
     </row>
-    <row r="804" spans="2:10" ht="15.75" thickBot="1">
+    <row r="804" spans="2:10" ht="15" thickBot="1">
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
@@ -11300,7 +11301,7 @@
       <c r="I804" s="2"/>
       <c r="J804" s="2"/>
     </row>
-    <row r="805" spans="2:10" ht="15.75" thickBot="1">
+    <row r="805" spans="2:10" ht="15" thickBot="1">
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
@@ -11311,7 +11312,7 @@
       <c r="I805" s="2"/>
       <c r="J805" s="2"/>
     </row>
-    <row r="806" spans="2:10" ht="15.75" thickBot="1">
+    <row r="806" spans="2:10" ht="15" thickBot="1">
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
@@ -11322,7 +11323,7 @@
       <c r="I806" s="2"/>
       <c r="J806" s="2"/>
     </row>
-    <row r="807" spans="2:10" ht="15.75" thickBot="1">
+    <row r="807" spans="2:10" ht="15" thickBot="1">
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
@@ -11333,7 +11334,7 @@
       <c r="I807" s="2"/>
       <c r="J807" s="2"/>
     </row>
-    <row r="808" spans="2:10" ht="15.75" thickBot="1">
+    <row r="808" spans="2:10" ht="15" thickBot="1">
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
@@ -11344,7 +11345,7 @@
       <c r="I808" s="2"/>
       <c r="J808" s="2"/>
     </row>
-    <row r="809" spans="2:10" ht="15.75" thickBot="1">
+    <row r="809" spans="2:10" ht="15" thickBot="1">
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
@@ -11355,7 +11356,7 @@
       <c r="I809" s="2"/>
       <c r="J809" s="2"/>
     </row>
-    <row r="810" spans="2:10" ht="15.75" thickBot="1">
+    <row r="810" spans="2:10" ht="15" thickBot="1">
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
@@ -11366,7 +11367,7 @@
       <c r="I810" s="2"/>
       <c r="J810" s="2"/>
     </row>
-    <row r="811" spans="2:10" ht="15.75" thickBot="1">
+    <row r="811" spans="2:10" ht="15" thickBot="1">
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
@@ -11377,7 +11378,7 @@
       <c r="I811" s="2"/>
       <c r="J811" s="2"/>
     </row>
-    <row r="812" spans="2:10" ht="15.75" thickBot="1">
+    <row r="812" spans="2:10" ht="15" thickBot="1">
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
@@ -11388,7 +11389,7 @@
       <c r="I812" s="2"/>
       <c r="J812" s="2"/>
     </row>
-    <row r="813" spans="2:10" ht="15.75" thickBot="1">
+    <row r="813" spans="2:10" ht="15" thickBot="1">
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
@@ -11399,7 +11400,7 @@
       <c r="I813" s="2"/>
       <c r="J813" s="2"/>
     </row>
-    <row r="814" spans="2:10" ht="15.75" thickBot="1">
+    <row r="814" spans="2:10" ht="15" thickBot="1">
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
@@ -11410,7 +11411,7 @@
       <c r="I814" s="2"/>
       <c r="J814" s="2"/>
     </row>
-    <row r="815" spans="2:10" ht="15.75" thickBot="1">
+    <row r="815" spans="2:10" ht="15" thickBot="1">
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
@@ -11421,7 +11422,7 @@
       <c r="I815" s="2"/>
       <c r="J815" s="2"/>
     </row>
-    <row r="816" spans="2:10" ht="15.75" thickBot="1">
+    <row r="816" spans="2:10" ht="15" thickBot="1">
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
@@ -11432,7 +11433,7 @@
       <c r="I816" s="2"/>
       <c r="J816" s="2"/>
     </row>
-    <row r="817" spans="2:10" ht="15.75" thickBot="1">
+    <row r="817" spans="2:10" ht="15" thickBot="1">
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
@@ -11443,7 +11444,7 @@
       <c r="I817" s="2"/>
       <c r="J817" s="2"/>
     </row>
-    <row r="818" spans="2:10" ht="15.75" thickBot="1">
+    <row r="818" spans="2:10" ht="15" thickBot="1">
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
@@ -11454,7 +11455,7 @@
       <c r="I818" s="2"/>
       <c r="J818" s="2"/>
     </row>
-    <row r="819" spans="2:10" ht="15.75" thickBot="1">
+    <row r="819" spans="2:10" ht="15" thickBot="1">
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
@@ -11465,7 +11466,7 @@
       <c r="I819" s="2"/>
       <c r="J819" s="2"/>
     </row>
-    <row r="820" spans="2:10" ht="15.75" thickBot="1">
+    <row r="820" spans="2:10" ht="15" thickBot="1">
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
@@ -11476,7 +11477,7 @@
       <c r="I820" s="2"/>
       <c r="J820" s="2"/>
     </row>
-    <row r="821" spans="2:10" ht="15.75" thickBot="1">
+    <row r="821" spans="2:10" ht="15" thickBot="1">
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
@@ -11487,7 +11488,7 @@
       <c r="I821" s="2"/>
       <c r="J821" s="2"/>
     </row>
-    <row r="822" spans="2:10" ht="15.75" thickBot="1">
+    <row r="822" spans="2:10" ht="15" thickBot="1">
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
@@ -11498,7 +11499,7 @@
       <c r="I822" s="2"/>
       <c r="J822" s="2"/>
     </row>
-    <row r="823" spans="2:10" ht="15.75" thickBot="1">
+    <row r="823" spans="2:10" ht="15" thickBot="1">
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
@@ -11509,7 +11510,7 @@
       <c r="I823" s="2"/>
       <c r="J823" s="2"/>
     </row>
-    <row r="824" spans="2:10" ht="15.75" thickBot="1">
+    <row r="824" spans="2:10" ht="15" thickBot="1">
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
@@ -11520,7 +11521,7 @@
       <c r="I824" s="2"/>
       <c r="J824" s="2"/>
     </row>
-    <row r="825" spans="2:10" ht="15.75" thickBot="1">
+    <row r="825" spans="2:10" ht="15" thickBot="1">
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
@@ -11531,7 +11532,7 @@
       <c r="I825" s="2"/>
       <c r="J825" s="2"/>
     </row>
-    <row r="826" spans="2:10" ht="15.75" thickBot="1">
+    <row r="826" spans="2:10" ht="15" thickBot="1">
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
@@ -11542,7 +11543,7 @@
       <c r="I826" s="2"/>
       <c r="J826" s="2"/>
     </row>
-    <row r="827" spans="2:10" ht="15.75" thickBot="1">
+    <row r="827" spans="2:10" ht="15" thickBot="1">
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
@@ -11553,7 +11554,7 @@
       <c r="I827" s="2"/>
       <c r="J827" s="2"/>
     </row>
-    <row r="828" spans="2:10" ht="15.75" thickBot="1">
+    <row r="828" spans="2:10" ht="15" thickBot="1">
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
@@ -11564,7 +11565,7 @@
       <c r="I828" s="2"/>
       <c r="J828" s="2"/>
     </row>
-    <row r="829" spans="2:10" ht="15.75" thickBot="1">
+    <row r="829" spans="2:10" ht="15" thickBot="1">
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
@@ -11575,7 +11576,7 @@
       <c r="I829" s="2"/>
       <c r="J829" s="2"/>
     </row>
-    <row r="830" spans="2:10" ht="15.75" thickBot="1">
+    <row r="830" spans="2:10" ht="15" thickBot="1">
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
@@ -11586,7 +11587,7 @@
       <c r="I830" s="2"/>
       <c r="J830" s="2"/>
     </row>
-    <row r="831" spans="2:10" ht="15.75" thickBot="1">
+    <row r="831" spans="2:10" ht="15" thickBot="1">
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
@@ -11597,7 +11598,7 @@
       <c r="I831" s="2"/>
       <c r="J831" s="2"/>
     </row>
-    <row r="832" spans="2:10" ht="15.75" thickBot="1">
+    <row r="832" spans="2:10" ht="15" thickBot="1">
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
@@ -11608,7 +11609,7 @@
       <c r="I832" s="2"/>
       <c r="J832" s="2"/>
     </row>
-    <row r="833" spans="2:10" ht="15.75" thickBot="1">
+    <row r="833" spans="2:10" ht="15" thickBot="1">
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
@@ -11619,7 +11620,7 @@
       <c r="I833" s="2"/>
       <c r="J833" s="2"/>
     </row>
-    <row r="834" spans="2:10" ht="15.75" thickBot="1">
+    <row r="834" spans="2:10" ht="15" thickBot="1">
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
@@ -11630,7 +11631,7 @@
       <c r="I834" s="2"/>
       <c r="J834" s="2"/>
     </row>
-    <row r="835" spans="2:10" ht="15.75" thickBot="1">
+    <row r="835" spans="2:10" ht="15" thickBot="1">
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
@@ -11641,7 +11642,7 @@
       <c r="I835" s="2"/>
       <c r="J835" s="2"/>
     </row>
-    <row r="836" spans="2:10" ht="15.75" thickBot="1">
+    <row r="836" spans="2:10" ht="15" thickBot="1">
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
@@ -11652,7 +11653,7 @@
       <c r="I836" s="2"/>
       <c r="J836" s="2"/>
     </row>
-    <row r="837" spans="2:10" ht="15.75" thickBot="1">
+    <row r="837" spans="2:10" ht="15" thickBot="1">
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
@@ -11663,7 +11664,7 @@
       <c r="I837" s="2"/>
       <c r="J837" s="2"/>
     </row>
-    <row r="838" spans="2:10" ht="15.75" thickBot="1">
+    <row r="838" spans="2:10" ht="15" thickBot="1">
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
@@ -11674,7 +11675,7 @@
       <c r="I838" s="2"/>
       <c r="J838" s="2"/>
     </row>
-    <row r="839" spans="2:10" ht="15.75" thickBot="1">
+    <row r="839" spans="2:10" ht="15" thickBot="1">
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
@@ -11685,7 +11686,7 @@
       <c r="I839" s="2"/>
       <c r="J839" s="2"/>
     </row>
-    <row r="840" spans="2:10" ht="15.75" thickBot="1">
+    <row r="840" spans="2:10" ht="15" thickBot="1">
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
@@ -11696,7 +11697,7 @@
       <c r="I840" s="2"/>
       <c r="J840" s="2"/>
     </row>
-    <row r="841" spans="2:10" ht="15.75" thickBot="1">
+    <row r="841" spans="2:10" ht="15" thickBot="1">
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
@@ -11707,7 +11708,7 @@
       <c r="I841" s="2"/>
       <c r="J841" s="2"/>
     </row>
-    <row r="842" spans="2:10" ht="15.75" thickBot="1">
+    <row r="842" spans="2:10" ht="15" thickBot="1">
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
@@ -11718,7 +11719,7 @@
       <c r="I842" s="2"/>
       <c r="J842" s="2"/>
     </row>
-    <row r="843" spans="2:10" ht="15.75" thickBot="1">
+    <row r="843" spans="2:10" ht="15" thickBot="1">
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
@@ -11729,7 +11730,7 @@
       <c r="I843" s="2"/>
       <c r="J843" s="2"/>
     </row>
-    <row r="844" spans="2:10" ht="15.75" thickBot="1">
+    <row r="844" spans="2:10" ht="15" thickBot="1">
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -11740,7 +11741,7 @@
       <c r="I844" s="2"/>
       <c r="J844" s="2"/>
     </row>
-    <row r="845" spans="2:10" ht="15.75" thickBot="1">
+    <row r="845" spans="2:10" ht="15" thickBot="1">
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -11751,7 +11752,7 @@
       <c r="I845" s="2"/>
       <c r="J845" s="2"/>
     </row>
-    <row r="846" spans="2:10" ht="15.75" thickBot="1">
+    <row r="846" spans="2:10" ht="15" thickBot="1">
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
@@ -11762,7 +11763,7 @@
       <c r="I846" s="2"/>
       <c r="J846" s="2"/>
     </row>
-    <row r="847" spans="2:10" ht="15.75" thickBot="1">
+    <row r="847" spans="2:10" ht="15" thickBot="1">
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
@@ -11773,7 +11774,7 @@
       <c r="I847" s="2"/>
       <c r="J847" s="2"/>
     </row>
-    <row r="848" spans="2:10" ht="15.75" thickBot="1">
+    <row r="848" spans="2:10" ht="15" thickBot="1">
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
@@ -11784,7 +11785,7 @@
       <c r="I848" s="2"/>
       <c r="J848" s="2"/>
     </row>
-    <row r="849" spans="2:10" ht="15.75" thickBot="1">
+    <row r="849" spans="2:10" ht="15" thickBot="1">
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -11795,7 +11796,7 @@
       <c r="I849" s="2"/>
       <c r="J849" s="2"/>
     </row>
-    <row r="850" spans="2:10" ht="15.75" thickBot="1">
+    <row r="850" spans="2:10" ht="15" thickBot="1">
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -11806,7 +11807,7 @@
       <c r="I850" s="2"/>
       <c r="J850" s="2"/>
     </row>
-    <row r="851" spans="2:10" ht="15.75" thickBot="1">
+    <row r="851" spans="2:10" ht="15" thickBot="1">
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -11817,7 +11818,7 @@
       <c r="I851" s="2"/>
       <c r="J851" s="2"/>
     </row>
-    <row r="852" spans="2:10" ht="15.75" thickBot="1">
+    <row r="852" spans="2:10" ht="15" thickBot="1">
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
@@ -11828,7 +11829,7 @@
       <c r="I852" s="2"/>
       <c r="J852" s="2"/>
     </row>
-    <row r="853" spans="2:10" ht="15.75" thickBot="1">
+    <row r="853" spans="2:10" ht="15" thickBot="1">
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
@@ -11839,7 +11840,7 @@
       <c r="I853" s="2"/>
       <c r="J853" s="2"/>
     </row>
-    <row r="854" spans="2:10" ht="15.75" thickBot="1">
+    <row r="854" spans="2:10" ht="15" thickBot="1">
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
@@ -11850,7 +11851,7 @@
       <c r="I854" s="2"/>
       <c r="J854" s="2"/>
     </row>
-    <row r="855" spans="2:10" ht="15.75" thickBot="1">
+    <row r="855" spans="2:10" ht="15" thickBot="1">
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
@@ -11861,7 +11862,7 @@
       <c r="I855" s="2"/>
       <c r="J855" s="2"/>
     </row>
-    <row r="856" spans="2:10" ht="15.75" thickBot="1">
+    <row r="856" spans="2:10" ht="15" thickBot="1">
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
@@ -11872,7 +11873,7 @@
       <c r="I856" s="2"/>
       <c r="J856" s="2"/>
     </row>
-    <row r="857" spans="2:10" ht="15.75" thickBot="1">
+    <row r="857" spans="2:10" ht="15" thickBot="1">
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
@@ -11883,7 +11884,7 @@
       <c r="I857" s="2"/>
       <c r="J857" s="2"/>
     </row>
-    <row r="858" spans="2:10" ht="15.75" thickBot="1">
+    <row r="858" spans="2:10" ht="15" thickBot="1">
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -11894,7 +11895,7 @@
       <c r="I858" s="2"/>
       <c r="J858" s="2"/>
     </row>
-    <row r="859" spans="2:10" ht="15.75" thickBot="1">
+    <row r="859" spans="2:10" ht="15" thickBot="1">
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -11905,7 +11906,7 @@
       <c r="I859" s="2"/>
       <c r="J859" s="2"/>
     </row>
-    <row r="860" spans="2:10" ht="15.75" thickBot="1">
+    <row r="860" spans="2:10" ht="15" thickBot="1">
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
@@ -11916,7 +11917,7 @@
       <c r="I860" s="2"/>
       <c r="J860" s="2"/>
     </row>
-    <row r="861" spans="2:10" ht="15.75" thickBot="1">
+    <row r="861" spans="2:10" ht="15" thickBot="1">
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
@@ -11927,7 +11928,7 @@
       <c r="I861" s="2"/>
       <c r="J861" s="2"/>
     </row>
-    <row r="862" spans="2:10" ht="15.75" thickBot="1">
+    <row r="862" spans="2:10" ht="15" thickBot="1">
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -11938,7 +11939,7 @@
       <c r="I862" s="2"/>
       <c r="J862" s="2"/>
     </row>
-    <row r="863" spans="2:10" ht="15.75" thickBot="1">
+    <row r="863" spans="2:10" ht="15" thickBot="1">
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -11949,7 +11950,7 @@
       <c r="I863" s="2"/>
       <c r="J863" s="2"/>
     </row>
-    <row r="864" spans="2:10" ht="15.75" thickBot="1">
+    <row r="864" spans="2:10" ht="15" thickBot="1">
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
@@ -11960,7 +11961,7 @@
       <c r="I864" s="2"/>
       <c r="J864" s="2"/>
     </row>
-    <row r="865" spans="2:10" ht="15.75" thickBot="1">
+    <row r="865" spans="2:10" ht="15" thickBot="1">
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
@@ -11971,7 +11972,7 @@
       <c r="I865" s="2"/>
       <c r="J865" s="2"/>
     </row>
-    <row r="866" spans="2:10" ht="15.75" thickBot="1">
+    <row r="866" spans="2:10" ht="15" thickBot="1">
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
@@ -11982,7 +11983,7 @@
       <c r="I866" s="2"/>
       <c r="J866" s="2"/>
     </row>
-    <row r="867" spans="2:10" ht="15.75" thickBot="1">
+    <row r="867" spans="2:10" ht="15" thickBot="1">
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -11993,7 +11994,7 @@
       <c r="I867" s="2"/>
       <c r="J867" s="2"/>
     </row>
-    <row r="868" spans="2:10" ht="15.75" thickBot="1">
+    <row r="868" spans="2:10" ht="15" thickBot="1">
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -12004,7 +12005,7 @@
       <c r="I868" s="2"/>
       <c r="J868" s="2"/>
     </row>
-    <row r="869" spans="2:10" ht="15.75" thickBot="1">
+    <row r="869" spans="2:10" ht="15" thickBot="1">
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
@@ -12015,7 +12016,7 @@
       <c r="I869" s="2"/>
       <c r="J869" s="2"/>
     </row>
-    <row r="870" spans="2:10" ht="15.75" thickBot="1">
+    <row r="870" spans="2:10" ht="15" thickBot="1">
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -12026,7 +12027,7 @@
       <c r="I870" s="2"/>
       <c r="J870" s="2"/>
     </row>
-    <row r="871" spans="2:10" ht="15.75" thickBot="1">
+    <row r="871" spans="2:10" ht="15" thickBot="1">
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
@@ -12037,7 +12038,7 @@
       <c r="I871" s="2"/>
       <c r="J871" s="2"/>
     </row>
-    <row r="872" spans="2:10" ht="15.75" thickBot="1">
+    <row r="872" spans="2:10" ht="15" thickBot="1">
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -12048,7 +12049,7 @@
       <c r="I872" s="2"/>
       <c r="J872" s="2"/>
     </row>
-    <row r="873" spans="2:10" ht="15.75" thickBot="1">
+    <row r="873" spans="2:10" ht="15" thickBot="1">
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
@@ -12059,7 +12060,7 @@
       <c r="I873" s="2"/>
       <c r="J873" s="2"/>
     </row>
-    <row r="874" spans="2:10" ht="15.75" thickBot="1">
+    <row r="874" spans="2:10" ht="15" thickBot="1">
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
@@ -12070,7 +12071,7 @@
       <c r="I874" s="2"/>
       <c r="J874" s="2"/>
     </row>
-    <row r="875" spans="2:10" ht="15.75" thickBot="1">
+    <row r="875" spans="2:10" ht="15" thickBot="1">
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
@@ -12081,7 +12082,7 @@
       <c r="I875" s="2"/>
       <c r="J875" s="2"/>
     </row>
-    <row r="876" spans="2:10" ht="15.75" thickBot="1">
+    <row r="876" spans="2:10" ht="15" thickBot="1">
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
@@ -12092,7 +12093,7 @@
       <c r="I876" s="2"/>
       <c r="J876" s="2"/>
     </row>
-    <row r="877" spans="2:10" ht="15.75" thickBot="1">
+    <row r="877" spans="2:10" ht="15" thickBot="1">
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
@@ -12103,7 +12104,7 @@
       <c r="I877" s="2"/>
       <c r="J877" s="2"/>
     </row>
-    <row r="878" spans="2:10" ht="15.75" thickBot="1">
+    <row r="878" spans="2:10" ht="15" thickBot="1">
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
@@ -12114,7 +12115,7 @@
       <c r="I878" s="2"/>
       <c r="J878" s="2"/>
     </row>
-    <row r="879" spans="2:10" ht="15.75" thickBot="1">
+    <row r="879" spans="2:10" ht="15" thickBot="1">
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
@@ -12125,7 +12126,7 @@
       <c r="I879" s="2"/>
       <c r="J879" s="2"/>
     </row>
-    <row r="880" spans="2:10" ht="15.75" thickBot="1">
+    <row r="880" spans="2:10" ht="15" thickBot="1">
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
@@ -12136,7 +12137,7 @@
       <c r="I880" s="2"/>
       <c r="J880" s="2"/>
     </row>
-    <row r="881" spans="2:10" ht="15.75" thickBot="1">
+    <row r="881" spans="2:10" ht="15" thickBot="1">
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
@@ -12147,7 +12148,7 @@
       <c r="I881" s="2"/>
       <c r="J881" s="2"/>
     </row>
-    <row r="882" spans="2:10" ht="15.75" thickBot="1">
+    <row r="882" spans="2:10" ht="15" thickBot="1">
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
@@ -12158,7 +12159,7 @@
       <c r="I882" s="2"/>
       <c r="J882" s="2"/>
     </row>
-    <row r="883" spans="2:10" ht="15.75" thickBot="1">
+    <row r="883" spans="2:10" ht="15" thickBot="1">
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
@@ -12169,7 +12170,7 @@
       <c r="I883" s="2"/>
       <c r="J883" s="2"/>
     </row>
-    <row r="884" spans="2:10" ht="15.75" thickBot="1">
+    <row r="884" spans="2:10" ht="15" thickBot="1">
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
@@ -12180,7 +12181,7 @@
       <c r="I884" s="2"/>
       <c r="J884" s="2"/>
     </row>
-    <row r="885" spans="2:10" ht="15.75" thickBot="1">
+    <row r="885" spans="2:10" ht="15" thickBot="1">
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
@@ -12191,7 +12192,7 @@
       <c r="I885" s="2"/>
       <c r="J885" s="2"/>
     </row>
-    <row r="886" spans="2:10" ht="15.75" thickBot="1">
+    <row r="886" spans="2:10" ht="15" thickBot="1">
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
       <c r="D886" s="2"/>
@@ -12202,7 +12203,7 @@
       <c r="I886" s="2"/>
       <c r="J886" s="2"/>
     </row>
-    <row r="887" spans="2:10" ht="15.75" thickBot="1">
+    <row r="887" spans="2:10" ht="15" thickBot="1">
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
@@ -12213,7 +12214,7 @@
       <c r="I887" s="2"/>
       <c r="J887" s="2"/>
     </row>
-    <row r="888" spans="2:10" ht="15.75" thickBot="1">
+    <row r="888" spans="2:10" ht="15" thickBot="1">
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
@@ -12224,7 +12225,7 @@
       <c r="I888" s="2"/>
       <c r="J888" s="2"/>
     </row>
-    <row r="889" spans="2:10" ht="15.75" thickBot="1">
+    <row r="889" spans="2:10" ht="15" thickBot="1">
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
@@ -12235,7 +12236,7 @@
       <c r="I889" s="2"/>
       <c r="J889" s="2"/>
     </row>
-    <row r="890" spans="2:10" ht="15.75" thickBot="1">
+    <row r="890" spans="2:10" ht="15" thickBot="1">
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
@@ -12246,7 +12247,7 @@
       <c r="I890" s="2"/>
       <c r="J890" s="2"/>
     </row>
-    <row r="891" spans="2:10" ht="15.75" thickBot="1">
+    <row r="891" spans="2:10" ht="15" thickBot="1">
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
@@ -12257,7 +12258,7 @@
       <c r="I891" s="2"/>
       <c r="J891" s="2"/>
     </row>
-    <row r="892" spans="2:10" ht="15.75" thickBot="1">
+    <row r="892" spans="2:10" ht="15" thickBot="1">
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
@@ -12268,7 +12269,7 @@
       <c r="I892" s="2"/>
       <c r="J892" s="2"/>
     </row>
-    <row r="893" spans="2:10" ht="15.75" thickBot="1">
+    <row r="893" spans="2:10" ht="15" thickBot="1">
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
@@ -12279,7 +12280,7 @@
       <c r="I893" s="2"/>
       <c r="J893" s="2"/>
     </row>
-    <row r="894" spans="2:10" ht="15.75" thickBot="1">
+    <row r="894" spans="2:10" ht="15" thickBot="1">
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
@@ -12290,7 +12291,7 @@
       <c r="I894" s="2"/>
       <c r="J894" s="2"/>
     </row>
-    <row r="895" spans="2:10" ht="15.75" thickBot="1">
+    <row r="895" spans="2:10" ht="15" thickBot="1">
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
@@ -12301,7 +12302,7 @@
       <c r="I895" s="2"/>
       <c r="J895" s="2"/>
     </row>
-    <row r="896" spans="2:10" ht="15.75" thickBot="1">
+    <row r="896" spans="2:10" ht="15" thickBot="1">
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
@@ -12312,7 +12313,7 @@
       <c r="I896" s="2"/>
       <c r="J896" s="2"/>
     </row>
-    <row r="897" spans="2:10" ht="15.75" thickBot="1">
+    <row r="897" spans="2:10" ht="15" thickBot="1">
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
@@ -12323,7 +12324,7 @@
       <c r="I897" s="2"/>
       <c r="J897" s="2"/>
     </row>
-    <row r="898" spans="2:10" ht="15.75" thickBot="1">
+    <row r="898" spans="2:10" ht="15" thickBot="1">
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
@@ -12334,7 +12335,7 @@
       <c r="I898" s="2"/>
       <c r="J898" s="2"/>
     </row>
-    <row r="899" spans="2:10" ht="15.75" thickBot="1">
+    <row r="899" spans="2:10" ht="15" thickBot="1">
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
@@ -12345,7 +12346,7 @@
       <c r="I899" s="2"/>
       <c r="J899" s="2"/>
     </row>
-    <row r="900" spans="2:10" ht="15.75" thickBot="1">
+    <row r="900" spans="2:10" ht="15" thickBot="1">
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
@@ -12356,7 +12357,7 @@
       <c r="I900" s="2"/>
       <c r="J900" s="2"/>
     </row>
-    <row r="901" spans="2:10" ht="15.75" thickBot="1">
+    <row r="901" spans="2:10" ht="15" thickBot="1">
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
@@ -12367,7 +12368,7 @@
       <c r="I901" s="2"/>
       <c r="J901" s="2"/>
     </row>
-    <row r="902" spans="2:10" ht="15.75" thickBot="1">
+    <row r="902" spans="2:10" ht="15" thickBot="1">
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
@@ -12378,7 +12379,7 @@
       <c r="I902" s="2"/>
       <c r="J902" s="2"/>
     </row>
-    <row r="903" spans="2:10" ht="15.75" thickBot="1">
+    <row r="903" spans="2:10" ht="15" thickBot="1">
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
@@ -12389,7 +12390,7 @@
       <c r="I903" s="2"/>
       <c r="J903" s="2"/>
     </row>
-    <row r="904" spans="2:10" ht="15.75" thickBot="1">
+    <row r="904" spans="2:10" ht="15" thickBot="1">
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
@@ -12400,7 +12401,7 @@
       <c r="I904" s="2"/>
       <c r="J904" s="2"/>
     </row>
-    <row r="905" spans="2:10" ht="15.75" thickBot="1">
+    <row r="905" spans="2:10" ht="15" thickBot="1">
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
@@ -12411,7 +12412,7 @@
       <c r="I905" s="2"/>
       <c r="J905" s="2"/>
     </row>
-    <row r="906" spans="2:10" ht="15.75" thickBot="1">
+    <row r="906" spans="2:10" ht="15" thickBot="1">
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
@@ -12422,7 +12423,7 @@
       <c r="I906" s="2"/>
       <c r="J906" s="2"/>
     </row>
-    <row r="907" spans="2:10" ht="15.75" thickBot="1">
+    <row r="907" spans="2:10" ht="15" thickBot="1">
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
@@ -12433,7 +12434,7 @@
       <c r="I907" s="2"/>
       <c r="J907" s="2"/>
     </row>
-    <row r="908" spans="2:10" ht="15.75" thickBot="1">
+    <row r="908" spans="2:10" ht="15" thickBot="1">
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
@@ -12444,7 +12445,7 @@
       <c r="I908" s="2"/>
       <c r="J908" s="2"/>
     </row>
-    <row r="909" spans="2:10" ht="15.75" thickBot="1">
+    <row r="909" spans="2:10" ht="15" thickBot="1">
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
@@ -12455,7 +12456,7 @@
       <c r="I909" s="2"/>
       <c r="J909" s="2"/>
     </row>
-    <row r="910" spans="2:10" ht="15.75" thickBot="1">
+    <row r="910" spans="2:10" ht="15" thickBot="1">
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
@@ -12466,7 +12467,7 @@
       <c r="I910" s="2"/>
       <c r="J910" s="2"/>
     </row>
-    <row r="911" spans="2:10" ht="15.75" thickBot="1">
+    <row r="911" spans="2:10" ht="15" thickBot="1">
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
@@ -12477,7 +12478,7 @@
       <c r="I911" s="2"/>
       <c r="J911" s="2"/>
     </row>
-    <row r="912" spans="2:10" ht="15.75" thickBot="1">
+    <row r="912" spans="2:10" ht="15" thickBot="1">
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
@@ -12488,7 +12489,7 @@
       <c r="I912" s="2"/>
       <c r="J912" s="2"/>
     </row>
-    <row r="913" spans="2:10" ht="15.75" thickBot="1">
+    <row r="913" spans="2:10" ht="15" thickBot="1">
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
       <c r="D913" s="2"/>
@@ -12499,7 +12500,7 @@
       <c r="I913" s="2"/>
       <c r="J913" s="2"/>
     </row>
-    <row r="914" spans="2:10" ht="15.75" thickBot="1">
+    <row r="914" spans="2:10" ht="15" thickBot="1">
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
@@ -12510,7 +12511,7 @@
       <c r="I914" s="2"/>
       <c r="J914" s="2"/>
     </row>
-    <row r="915" spans="2:10" ht="15.75" thickBot="1">
+    <row r="915" spans="2:10" ht="15" thickBot="1">
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
@@ -12521,7 +12522,7 @@
       <c r="I915" s="2"/>
       <c r="J915" s="2"/>
     </row>
-    <row r="916" spans="2:10" ht="15.75" thickBot="1">
+    <row r="916" spans="2:10" ht="15" thickBot="1">
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
@@ -12532,7 +12533,7 @@
       <c r="I916" s="2"/>
       <c r="J916" s="2"/>
     </row>
-    <row r="917" spans="2:10" ht="15.75" thickBot="1">
+    <row r="917" spans="2:10" ht="15" thickBot="1">
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
@@ -12543,7 +12544,7 @@
       <c r="I917" s="2"/>
       <c r="J917" s="2"/>
     </row>
-    <row r="918" spans="2:10" ht="15.75" thickBot="1">
+    <row r="918" spans="2:10" ht="15" thickBot="1">
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
@@ -12554,7 +12555,7 @@
       <c r="I918" s="2"/>
       <c r="J918" s="2"/>
     </row>
-    <row r="919" spans="2:10" ht="15.75" thickBot="1">
+    <row r="919" spans="2:10" ht="15" thickBot="1">
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
@@ -12565,7 +12566,7 @@
       <c r="I919" s="2"/>
       <c r="J919" s="2"/>
     </row>
-    <row r="920" spans="2:10" ht="15.75" thickBot="1">
+    <row r="920" spans="2:10" ht="15" thickBot="1">
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
@@ -12576,7 +12577,7 @@
       <c r="I920" s="2"/>
       <c r="J920" s="2"/>
     </row>
-    <row r="921" spans="2:10" ht="15.75" thickBot="1">
+    <row r="921" spans="2:10" ht="15" thickBot="1">
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
@@ -12587,7 +12588,7 @@
       <c r="I921" s="2"/>
       <c r="J921" s="2"/>
     </row>
-    <row r="922" spans="2:10" ht="15.75" thickBot="1">
+    <row r="922" spans="2:10" ht="15" thickBot="1">
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
@@ -12598,7 +12599,7 @@
       <c r="I922" s="2"/>
       <c r="J922" s="2"/>
     </row>
-    <row r="923" spans="2:10" ht="15.75" thickBot="1">
+    <row r="923" spans="2:10" ht="15" thickBot="1">
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
@@ -12609,7 +12610,7 @@
       <c r="I923" s="2"/>
       <c r="J923" s="2"/>
     </row>
-    <row r="924" spans="2:10" ht="15.75" thickBot="1">
+    <row r="924" spans="2:10" ht="15" thickBot="1">
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
@@ -12620,7 +12621,7 @@
       <c r="I924" s="2"/>
       <c r="J924" s="2"/>
     </row>
-    <row r="925" spans="2:10" ht="15.75" thickBot="1">
+    <row r="925" spans="2:10" ht="15" thickBot="1">
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
@@ -12631,7 +12632,7 @@
       <c r="I925" s="2"/>
       <c r="J925" s="2"/>
     </row>
-    <row r="926" spans="2:10" ht="15.75" thickBot="1">
+    <row r="926" spans="2:10" ht="15" thickBot="1">
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
@@ -12642,7 +12643,7 @@
       <c r="I926" s="2"/>
       <c r="J926" s="2"/>
     </row>
-    <row r="927" spans="2:10" ht="15.75" thickBot="1">
+    <row r="927" spans="2:10" ht="15" thickBot="1">
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
@@ -12653,7 +12654,7 @@
       <c r="I927" s="2"/>
       <c r="J927" s="2"/>
     </row>
-    <row r="928" spans="2:10" ht="15.75" thickBot="1">
+    <row r="928" spans="2:10" ht="15" thickBot="1">
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
@@ -12664,7 +12665,7 @@
       <c r="I928" s="2"/>
       <c r="J928" s="2"/>
     </row>
-    <row r="929" spans="2:10" ht="15.75" thickBot="1">
+    <row r="929" spans="2:10" ht="15" thickBot="1">
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
@@ -12675,7 +12676,7 @@
       <c r="I929" s="2"/>
       <c r="J929" s="2"/>
     </row>
-    <row r="930" spans="2:10" ht="15.75" thickBot="1">
+    <row r="930" spans="2:10" ht="15" thickBot="1">
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
@@ -12686,7 +12687,7 @@
       <c r="I930" s="2"/>
       <c r="J930" s="2"/>
     </row>
-    <row r="931" spans="2:10" ht="15.75" thickBot="1">
+    <row r="931" spans="2:10" ht="15" thickBot="1">
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
@@ -12697,7 +12698,7 @@
       <c r="I931" s="2"/>
       <c r="J931" s="2"/>
     </row>
-    <row r="932" spans="2:10" ht="15.75" thickBot="1">
+    <row r="932" spans="2:10" ht="15" thickBot="1">
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
@@ -12708,7 +12709,7 @@
       <c r="I932" s="2"/>
       <c r="J932" s="2"/>
     </row>
-    <row r="933" spans="2:10" ht="15.75" thickBot="1">
+    <row r="933" spans="2:10" ht="15" thickBot="1">
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
@@ -12719,7 +12720,7 @@
       <c r="I933" s="2"/>
       <c r="J933" s="2"/>
     </row>
-    <row r="934" spans="2:10" ht="15.75" thickBot="1">
+    <row r="934" spans="2:10" ht="15" thickBot="1">
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
@@ -12730,7 +12731,7 @@
       <c r="I934" s="2"/>
       <c r="J934" s="2"/>
     </row>
-    <row r="935" spans="2:10" ht="15.75" thickBot="1">
+    <row r="935" spans="2:10" ht="15" thickBot="1">
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
@@ -12741,7 +12742,7 @@
       <c r="I935" s="2"/>
       <c r="J935" s="2"/>
     </row>
-    <row r="936" spans="2:10" ht="15.75" thickBot="1">
+    <row r="936" spans="2:10" ht="15" thickBot="1">
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
@@ -12752,7 +12753,7 @@
       <c r="I936" s="2"/>
       <c r="J936" s="2"/>
     </row>
-    <row r="937" spans="2:10" ht="15.75" thickBot="1">
+    <row r="937" spans="2:10" ht="15" thickBot="1">
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
@@ -12763,7 +12764,7 @@
       <c r="I937" s="2"/>
       <c r="J937" s="2"/>
     </row>
-    <row r="938" spans="2:10" ht="15.75" thickBot="1">
+    <row r="938" spans="2:10" ht="15" thickBot="1">
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
@@ -12774,7 +12775,7 @@
       <c r="I938" s="2"/>
       <c r="J938" s="2"/>
     </row>
-    <row r="939" spans="2:10" ht="15.75" thickBot="1">
+    <row r="939" spans="2:10" ht="15" thickBot="1">
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
@@ -12785,7 +12786,7 @@
       <c r="I939" s="2"/>
       <c r="J939" s="2"/>
     </row>
-    <row r="940" spans="2:10" ht="15.75" thickBot="1">
+    <row r="940" spans="2:10" ht="15" thickBot="1">
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
@@ -12796,7 +12797,7 @@
       <c r="I940" s="2"/>
       <c r="J940" s="2"/>
     </row>
-    <row r="941" spans="2:10" ht="15.75" thickBot="1">
+    <row r="941" spans="2:10" ht="15" thickBot="1">
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
@@ -12807,7 +12808,7 @@
       <c r="I941" s="2"/>
       <c r="J941" s="2"/>
     </row>
-    <row r="942" spans="2:10" ht="15.75" thickBot="1">
+    <row r="942" spans="2:10" ht="15" thickBot="1">
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
@@ -12818,7 +12819,7 @@
       <c r="I942" s="2"/>
       <c r="J942" s="2"/>
     </row>
-    <row r="943" spans="2:10" ht="15.75" thickBot="1">
+    <row r="943" spans="2:10" ht="15" thickBot="1">
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
@@ -12829,7 +12830,7 @@
       <c r="I943" s="2"/>
       <c r="J943" s="2"/>
     </row>
-    <row r="944" spans="2:10" ht="15.75" thickBot="1">
+    <row r="944" spans="2:10" ht="15" thickBot="1">
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
@@ -12840,7 +12841,7 @@
       <c r="I944" s="2"/>
       <c r="J944" s="2"/>
     </row>
-    <row r="945" spans="2:10" ht="15.75" thickBot="1">
+    <row r="945" spans="2:10" ht="15" thickBot="1">
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
@@ -12851,7 +12852,7 @@
       <c r="I945" s="2"/>
       <c r="J945" s="2"/>
     </row>
-    <row r="946" spans="2:10" ht="15.75" thickBot="1">
+    <row r="946" spans="2:10" ht="15" thickBot="1">
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
@@ -12862,7 +12863,7 @@
       <c r="I946" s="2"/>
       <c r="J946" s="2"/>
     </row>
-    <row r="947" spans="2:10" ht="15.75" thickBot="1">
+    <row r="947" spans="2:10" ht="15" thickBot="1">
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
@@ -12873,7 +12874,7 @@
       <c r="I947" s="2"/>
       <c r="J947" s="2"/>
     </row>
-    <row r="948" spans="2:10" ht="15.75" thickBot="1">
+    <row r="948" spans="2:10" ht="15" thickBot="1">
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
@@ -12884,7 +12885,7 @@
       <c r="I948" s="2"/>
       <c r="J948" s="2"/>
     </row>
-    <row r="949" spans="2:10" ht="15.75" thickBot="1">
+    <row r="949" spans="2:10" ht="15" thickBot="1">
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
@@ -12895,7 +12896,7 @@
       <c r="I949" s="2"/>
       <c r="J949" s="2"/>
     </row>
-    <row r="950" spans="2:10" ht="15.75" thickBot="1">
+    <row r="950" spans="2:10" ht="15" thickBot="1">
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
@@ -12906,7 +12907,7 @@
       <c r="I950" s="2"/>
       <c r="J950" s="2"/>
     </row>
-    <row r="951" spans="2:10" ht="15.75" thickBot="1">
+    <row r="951" spans="2:10" ht="15" thickBot="1">
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
@@ -12917,7 +12918,7 @@
       <c r="I951" s="2"/>
       <c r="J951" s="2"/>
     </row>
-    <row r="952" spans="2:10" ht="15.75" thickBot="1">
+    <row r="952" spans="2:10" ht="15" thickBot="1">
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
@@ -12928,7 +12929,7 @@
       <c r="I952" s="2"/>
       <c r="J952" s="2"/>
     </row>
-    <row r="953" spans="2:10" ht="15.75" thickBot="1">
+    <row r="953" spans="2:10" ht="15" thickBot="1">
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
@@ -12939,7 +12940,7 @@
       <c r="I953" s="2"/>
       <c r="J953" s="2"/>
     </row>
-    <row r="954" spans="2:10" ht="15.75" thickBot="1">
+    <row r="954" spans="2:10" ht="15" thickBot="1">
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
@@ -12950,7 +12951,7 @@
       <c r="I954" s="2"/>
       <c r="J954" s="2"/>
     </row>
-    <row r="955" spans="2:10" ht="15.75" thickBot="1">
+    <row r="955" spans="2:10" ht="15" thickBot="1">
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
@@ -12961,7 +12962,7 @@
       <c r="I955" s="2"/>
       <c r="J955" s="2"/>
     </row>
-    <row r="956" spans="2:10" ht="15.75" thickBot="1">
+    <row r="956" spans="2:10" ht="15" thickBot="1">
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
@@ -12972,7 +12973,7 @@
       <c r="I956" s="2"/>
       <c r="J956" s="2"/>
     </row>
-    <row r="957" spans="2:10" ht="15.75" thickBot="1">
+    <row r="957" spans="2:10" ht="15" thickBot="1">
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
@@ -12983,7 +12984,7 @@
       <c r="I957" s="2"/>
       <c r="J957" s="2"/>
     </row>
-    <row r="958" spans="2:10" ht="15.75" thickBot="1">
+    <row r="958" spans="2:10" ht="15" thickBot="1">
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>
@@ -12994,7 +12995,7 @@
       <c r="I958" s="2"/>
       <c r="J958" s="2"/>
     </row>
-    <row r="959" spans="2:10" ht="15.75" thickBot="1">
+    <row r="959" spans="2:10" ht="15" thickBot="1">
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
       <c r="D959" s="2"/>
@@ -13005,7 +13006,7 @@
       <c r="I959" s="2"/>
       <c r="J959" s="2"/>
     </row>
-    <row r="960" spans="2:10" ht="15.75" thickBot="1">
+    <row r="960" spans="2:10" ht="15" thickBot="1">
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
       <c r="D960" s="2"/>
@@ -13016,7 +13017,7 @@
       <c r="I960" s="2"/>
       <c r="J960" s="2"/>
     </row>
-    <row r="961" spans="2:10" ht="15.75" thickBot="1">
+    <row r="961" spans="2:10" ht="15" thickBot="1">
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
       <c r="D961" s="2"/>
@@ -13027,7 +13028,7 @@
       <c r="I961" s="2"/>
       <c r="J961" s="2"/>
     </row>
-    <row r="962" spans="2:10" ht="15.75" thickBot="1">
+    <row r="962" spans="2:10" ht="15" thickBot="1">
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
       <c r="D962" s="2"/>
@@ -13038,7 +13039,7 @@
       <c r="I962" s="2"/>
       <c r="J962" s="2"/>
     </row>
-    <row r="963" spans="2:10" ht="15.75" thickBot="1">
+    <row r="963" spans="2:10" ht="15" thickBot="1">
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
       <c r="D963" s="2"/>
@@ -13049,7 +13050,7 @@
       <c r="I963" s="2"/>
       <c r="J963" s="2"/>
     </row>
-    <row r="964" spans="2:10" ht="15.75" thickBot="1">
+    <row r="964" spans="2:10" ht="15" thickBot="1">
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
       <c r="D964" s="2"/>
@@ -13060,7 +13061,7 @@
       <c r="I964" s="2"/>
       <c r="J964" s="2"/>
     </row>
-    <row r="965" spans="2:10" ht="15.75" thickBot="1">
+    <row r="965" spans="2:10" ht="15" thickBot="1">
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
       <c r="D965" s="2"/>
@@ -13071,7 +13072,7 @@
       <c r="I965" s="2"/>
       <c r="J965" s="2"/>
     </row>
-    <row r="966" spans="2:10" ht="15.75" thickBot="1">
+    <row r="966" spans="2:10" ht="15" thickBot="1">
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
       <c r="D966" s="2"/>
@@ -13082,7 +13083,7 @@
       <c r="I966" s="2"/>
       <c r="J966" s="2"/>
     </row>
-    <row r="967" spans="2:10" ht="15.75" thickBot="1">
+    <row r="967" spans="2:10" ht="15" thickBot="1">
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
       <c r="D967" s="2"/>
@@ -13093,7 +13094,7 @@
       <c r="I967" s="2"/>
       <c r="J967" s="2"/>
     </row>
-    <row r="968" spans="2:10" ht="15.75" thickBot="1">
+    <row r="968" spans="2:10" ht="15" thickBot="1">
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
       <c r="D968" s="2"/>
@@ -13104,7 +13105,7 @@
       <c r="I968" s="2"/>
       <c r="J968" s="2"/>
     </row>
-    <row r="969" spans="2:10" ht="15.75" thickBot="1">
+    <row r="969" spans="2:10" ht="15" thickBot="1">
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
       <c r="D969" s="2"/>
@@ -13115,7 +13116,7 @@
       <c r="I969" s="2"/>
       <c r="J969" s="2"/>
     </row>
-    <row r="970" spans="2:10" ht="15.75" thickBot="1">
+    <row r="970" spans="2:10" ht="15" thickBot="1">
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
       <c r="D970" s="2"/>
@@ -13126,7 +13127,7 @@
       <c r="I970" s="2"/>
       <c r="J970" s="2"/>
     </row>
-    <row r="971" spans="2:10" ht="15.75" thickBot="1">
+    <row r="971" spans="2:10" ht="15" thickBot="1">
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
       <c r="D971" s="2"/>
@@ -13137,7 +13138,7 @@
       <c r="I971" s="2"/>
       <c r="J971" s="2"/>
     </row>
-    <row r="972" spans="2:10" ht="15.75" thickBot="1">
+    <row r="972" spans="2:10" ht="15" thickBot="1">
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
       <c r="D972" s="2"/>
@@ -13148,7 +13149,7 @@
       <c r="I972" s="2"/>
       <c r="J972" s="2"/>
     </row>
-    <row r="973" spans="2:10" ht="15.75" thickBot="1">
+    <row r="973" spans="2:10" ht="15" thickBot="1">
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
       <c r="D973" s="2"/>
@@ -13159,7 +13160,7 @@
       <c r="I973" s="2"/>
       <c r="J973" s="2"/>
     </row>
-    <row r="974" spans="2:10" ht="15.75" thickBot="1">
+    <row r="974" spans="2:10" ht="15" thickBot="1">
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
       <c r="D974" s="2"/>
@@ -13170,7 +13171,7 @@
       <c r="I974" s="2"/>
       <c r="J974" s="2"/>
     </row>
-    <row r="975" spans="2:10" ht="15.75" thickBot="1">
+    <row r="975" spans="2:10" ht="15" thickBot="1">
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
       <c r="D975" s="2"/>
@@ -13181,7 +13182,7 @@
       <c r="I975" s="2"/>
       <c r="J975" s="2"/>
     </row>
-    <row r="976" spans="2:10" ht="15.75" thickBot="1">
+    <row r="976" spans="2:10" ht="15" thickBot="1">
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
       <c r="D976" s="2"/>
@@ -13192,7 +13193,7 @@
       <c r="I976" s="2"/>
       <c r="J976" s="2"/>
     </row>
-    <row r="977" spans="2:10" ht="15.75" thickBot="1">
+    <row r="977" spans="2:10" ht="15" thickBot="1">
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
       <c r="D977" s="2"/>
@@ -13203,7 +13204,7 @@
       <c r="I977" s="2"/>
       <c r="J977" s="2"/>
     </row>
-    <row r="978" spans="2:10" ht="15.75" thickBot="1">
+    <row r="978" spans="2:10" ht="15" thickBot="1">
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
       <c r="D978" s="2"/>
@@ -13214,7 +13215,7 @@
       <c r="I978" s="2"/>
       <c r="J978" s="2"/>
     </row>
-    <row r="979" spans="2:10" ht="15.75" thickBot="1">
+    <row r="979" spans="2:10" ht="15" thickBot="1">
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
       <c r="D979" s="2"/>
@@ -13225,7 +13226,7 @@
       <c r="I979" s="2"/>
       <c r="J979" s="2"/>
     </row>
-    <row r="980" spans="2:10" ht="15.75" thickBot="1">
+    <row r="980" spans="2:10" ht="15" thickBot="1">
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
       <c r="D980" s="2"/>
@@ -13236,7 +13237,7 @@
       <c r="I980" s="2"/>
       <c r="J980" s="2"/>
     </row>
-    <row r="981" spans="2:10" ht="15.75" thickBot="1">
+    <row r="981" spans="2:10" ht="15" thickBot="1">
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
       <c r="D981" s="2"/>
@@ -13247,7 +13248,7 @@
       <c r="I981" s="2"/>
       <c r="J981" s="2"/>
     </row>
-    <row r="982" spans="2:10" ht="15.75" thickBot="1">
+    <row r="982" spans="2:10" ht="15" thickBot="1">
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
       <c r="D982" s="2"/>
@@ -13258,7 +13259,7 @@
       <c r="I982" s="2"/>
       <c r="J982" s="2"/>
     </row>
-    <row r="983" spans="2:10" ht="15.75" thickBot="1">
+    <row r="983" spans="2:10" ht="15" thickBot="1">
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
       <c r="D983" s="2"/>
@@ -13269,7 +13270,7 @@
       <c r="I983" s="2"/>
       <c r="J983" s="2"/>
     </row>
-    <row r="984" spans="2:10" ht="15.75" thickBot="1">
+    <row r="984" spans="2:10" ht="15" thickBot="1">
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
       <c r="D984" s="2"/>
@@ -13280,7 +13281,7 @@
       <c r="I984" s="2"/>
       <c r="J984" s="2"/>
     </row>
-    <row r="985" spans="2:10" ht="15.75" thickBot="1">
+    <row r="985" spans="2:10" ht="15" thickBot="1">
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
       <c r="D985" s="2"/>
@@ -13291,7 +13292,7 @@
       <c r="I985" s="2"/>
       <c r="J985" s="2"/>
     </row>
-    <row r="986" spans="2:10" ht="15.75" thickBot="1">
+    <row r="986" spans="2:10" ht="15" thickBot="1">
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
       <c r="D986" s="2"/>
@@ -13302,7 +13303,7 @@
       <c r="I986" s="2"/>
       <c r="J986" s="2"/>
     </row>
-    <row r="987" spans="2:10" ht="15.75" thickBot="1">
+    <row r="987" spans="2:10" ht="15" thickBot="1">
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
       <c r="D987" s="2"/>
@@ -13313,7 +13314,7 @@
       <c r="I987" s="2"/>
       <c r="J987" s="2"/>
     </row>
-    <row r="988" spans="2:10" ht="15.75" thickBot="1">
+    <row r="988" spans="2:10" ht="15" thickBot="1">
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
       <c r="D988" s="2"/>
@@ -13324,7 +13325,7 @@
       <c r="I988" s="2"/>
       <c r="J988" s="2"/>
     </row>
-    <row r="989" spans="2:10" ht="15.75" thickBot="1">
+    <row r="989" spans="2:10" ht="15" thickBot="1">
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
       <c r="D989" s="2"/>
@@ -13335,7 +13336,7 @@
       <c r="I989" s="2"/>
       <c r="J989" s="2"/>
     </row>
-    <row r="990" spans="2:10" ht="15.75" thickBot="1">
+    <row r="990" spans="2:10" ht="15" thickBot="1">
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
       <c r="D990" s="2"/>
@@ -13346,7 +13347,7 @@
       <c r="I990" s="2"/>
       <c r="J990" s="2"/>
     </row>
-    <row r="991" spans="2:10" ht="15.75" thickBot="1">
+    <row r="991" spans="2:10" ht="15" thickBot="1">
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
       <c r="D991" s="2"/>
@@ -13357,7 +13358,7 @@
       <c r="I991" s="2"/>
       <c r="J991" s="2"/>
     </row>
-    <row r="992" spans="2:10" ht="15.75" thickBot="1">
+    <row r="992" spans="2:10" ht="15" thickBot="1">
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
       <c r="D992" s="2"/>
@@ -13368,7 +13369,7 @@
       <c r="I992" s="2"/>
       <c r="J992" s="2"/>
     </row>
-    <row r="993" spans="2:10" ht="15.75" thickBot="1">
+    <row r="993" spans="2:10" ht="15" thickBot="1">
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
       <c r="D993" s="2"/>
@@ -13379,7 +13380,7 @@
       <c r="I993" s="2"/>
       <c r="J993" s="2"/>
     </row>
-    <row r="994" spans="2:10" ht="15.75" thickBot="1">
+    <row r="994" spans="2:10" ht="15" thickBot="1">
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
       <c r="D994" s="2"/>
@@ -13390,7 +13391,7 @@
       <c r="I994" s="2"/>
       <c r="J994" s="2"/>
     </row>
-    <row r="995" spans="2:10" ht="15.75" thickBot="1">
+    <row r="995" spans="2:10" ht="15" thickBot="1">
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
       <c r="D995" s="2"/>
@@ -13401,7 +13402,7 @@
       <c r="I995" s="2"/>
       <c r="J995" s="2"/>
     </row>
-    <row r="996" spans="2:10" ht="15.75" thickBot="1">
+    <row r="996" spans="2:10" ht="15" thickBot="1">
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
       <c r="D996" s="2"/>
@@ -13412,7 +13413,7 @@
       <c r="I996" s="2"/>
       <c r="J996" s="2"/>
     </row>
-    <row r="997" spans="2:10" ht="15.75" thickBot="1">
+    <row r="997" spans="2:10" ht="15" thickBot="1">
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
       <c r="D997" s="2"/>
@@ -13423,7 +13424,7 @@
       <c r="I997" s="2"/>
       <c r="J997" s="2"/>
     </row>
-    <row r="998" spans="2:10" ht="15.75" thickBot="1">
+    <row r="998" spans="2:10" ht="15" thickBot="1">
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
       <c r="D998" s="2"/>
@@ -13434,7 +13435,7 @@
       <c r="I998" s="2"/>
       <c r="J998" s="2"/>
     </row>
-    <row r="999" spans="2:10" ht="15.75" thickBot="1">
+    <row r="999" spans="2:10" ht="15" thickBot="1">
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
       <c r="D999" s="2"/>
@@ -13445,7 +13446,7 @@
       <c r="I999" s="2"/>
       <c r="J999" s="2"/>
     </row>
-    <row r="1000" spans="2:10" ht="15.75" thickBot="1">
+    <row r="1000" spans="2:10" ht="15" thickBot="1">
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
       <c r="D1000" s="2"/>
@@ -13458,6 +13459,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>